--- a/Plant Transect Data 2013.xlsx
+++ b/Plant Transect Data 2013.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="26026"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="26130"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/a1733ece3548b272/Desktop/School/GGCSpring2023/STEC/OneDrive_1_1-23-2023/Data/excelData/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\young\Desktop\School\GGCSpring2023\actualSTEC\PanoRestoration\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="38" documentId="11_D8164D8129E138E720CBF80FC9BD5141BFD40721" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{B1E9B904-E8A9-40AF-BFE5-60D0B5D41B27}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6904FA6B-47B2-494E-8B59-6A3283C8A13A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="25820" windowHeight="13900" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -256,7 +256,7 @@
     <numFmt numFmtId="164" formatCode="0.0%"/>
     <numFmt numFmtId="165" formatCode="0.000000"/>
   </numFmts>
-  <fonts count="5" x14ac:knownFonts="1">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -273,15 +273,6 @@
     </font>
     <font>
       <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <u/>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
@@ -334,7 +325,7 @@
     <xf numFmtId="44" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="24">
+  <cellXfs count="25">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
@@ -343,17 +334,11 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -394,6 +379,15 @@
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="3">
@@ -1887,10 +1881,6 @@
     <xdr:clientData/>
   </xdr:twoCellAnchor>
 </xdr:wsDr>
-</file>
-
-<file path=xl/persons/person.xml><?xml version="1.0" encoding="utf-8"?>
-<personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
 </file>
 
 <file path=xl/pivotCache/pivotCacheDefinition1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -2331,203 +2321,6 @@
 </file>
 
 <file path=xl/pivotTables/pivotTable1.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{00000000-0007-0000-0100-000001000000}" name="PivotTable4" cacheId="1" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="4" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="4" indent="0" outline="1" outlineData="1" multipleFieldFilters="0">
-  <location ref="A33:J61" firstHeaderRow="1" firstDataRow="2" firstDataCol="1"/>
-  <pivotFields count="3">
-    <pivotField axis="axisCol" showAll="0">
-      <items count="9">
-        <item x="1"/>
-        <item x="2"/>
-        <item x="3"/>
-        <item x="4"/>
-        <item x="5"/>
-        <item x="6"/>
-        <item x="7"/>
-        <item x="0"/>
-        <item t="default"/>
-      </items>
-    </pivotField>
-    <pivotField axis="axisRow" showAll="0" sortType="ascending">
-      <items count="27">
-        <item x="8"/>
-        <item x="1"/>
-        <item x="11"/>
-        <item x="20"/>
-        <item x="3"/>
-        <item x="14"/>
-        <item x="12"/>
-        <item x="16"/>
-        <item x="7"/>
-        <item x="4"/>
-        <item x="9"/>
-        <item x="23"/>
-        <item x="5"/>
-        <item x="10"/>
-        <item x="17"/>
-        <item x="25"/>
-        <item x="15"/>
-        <item x="6"/>
-        <item x="2"/>
-        <item x="22"/>
-        <item x="18"/>
-        <item x="24"/>
-        <item x="13"/>
-        <item x="21"/>
-        <item x="19"/>
-        <item x="0"/>
-        <item t="default"/>
-      </items>
-    </pivotField>
-    <pivotField dataField="1" showAll="0">
-      <items count="11">
-        <item x="4"/>
-        <item x="5"/>
-        <item x="2"/>
-        <item x="3"/>
-        <item x="1"/>
-        <item x="8"/>
-        <item x="7"/>
-        <item x="9"/>
-        <item x="6"/>
-        <item x="0"/>
-        <item t="default"/>
-      </items>
-    </pivotField>
-  </pivotFields>
-  <rowFields count="1">
-    <field x="1"/>
-  </rowFields>
-  <rowItems count="27">
-    <i>
-      <x/>
-    </i>
-    <i>
-      <x v="1"/>
-    </i>
-    <i>
-      <x v="2"/>
-    </i>
-    <i>
-      <x v="3"/>
-    </i>
-    <i>
-      <x v="4"/>
-    </i>
-    <i>
-      <x v="5"/>
-    </i>
-    <i>
-      <x v="6"/>
-    </i>
-    <i>
-      <x v="7"/>
-    </i>
-    <i>
-      <x v="8"/>
-    </i>
-    <i>
-      <x v="9"/>
-    </i>
-    <i>
-      <x v="10"/>
-    </i>
-    <i>
-      <x v="11"/>
-    </i>
-    <i>
-      <x v="12"/>
-    </i>
-    <i>
-      <x v="13"/>
-    </i>
-    <i>
-      <x v="14"/>
-    </i>
-    <i>
-      <x v="15"/>
-    </i>
-    <i>
-      <x v="16"/>
-    </i>
-    <i>
-      <x v="17"/>
-    </i>
-    <i>
-      <x v="18"/>
-    </i>
-    <i>
-      <x v="19"/>
-    </i>
-    <i>
-      <x v="20"/>
-    </i>
-    <i>
-      <x v="21"/>
-    </i>
-    <i>
-      <x v="22"/>
-    </i>
-    <i>
-      <x v="23"/>
-    </i>
-    <i>
-      <x v="24"/>
-    </i>
-    <i>
-      <x v="25"/>
-    </i>
-    <i t="grand">
-      <x/>
-    </i>
-  </rowItems>
-  <colFields count="1">
-    <field x="0"/>
-  </colFields>
-  <colItems count="9">
-    <i>
-      <x/>
-    </i>
-    <i>
-      <x v="1"/>
-    </i>
-    <i>
-      <x v="2"/>
-    </i>
-    <i>
-      <x v="3"/>
-    </i>
-    <i>
-      <x v="4"/>
-    </i>
-    <i>
-      <x v="5"/>
-    </i>
-    <i>
-      <x v="6"/>
-    </i>
-    <i>
-      <x v="7"/>
-    </i>
-    <i t="grand">
-      <x/>
-    </i>
-  </colItems>
-  <dataFields count="1">
-    <dataField name="Sum of #'s" fld="2" showDataAs="percentOfTotal" baseField="1" baseItem="0" numFmtId="10"/>
-  </dataFields>
-  <pivotTableStyleInfo name="PivotStyleLight16" showRowHeaders="1" showColHeaders="1" showRowStripes="0" showColStripes="0" showLastColumn="1"/>
-  <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{962EF5D1-5CA2-4c93-8EF4-DBF5C05439D2}">
-      <x14:pivotTableDefinition xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" hideValuesRow="1"/>
-    </ext>
-    <ext xmlns:xpdl="http://schemas.microsoft.com/office/spreadsheetml/2016/pivotdefaultlayout" uri="{747A6164-185A-40DC-8AA5-F01512510D54}">
-      <xpdl:pivotTableDefinition16/>
-    </ext>
-  </extLst>
-</pivotTableDefinition>
-</file>
-
-<file path=xl/pivotTables/pivotTable2.xml><?xml version="1.0" encoding="utf-8"?>
 <pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{00000000-0007-0000-0100-000000000000}" name="PivotTable2" cacheId="0" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="4" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="4" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="11">
   <location ref="A3:J28" firstHeaderRow="1" firstDataRow="2" firstDataCol="1"/>
   <pivotFields count="3">
@@ -2805,6 +2598,203 @@
       </pivotArea>
     </chartFormat>
   </chartFormats>
+  <pivotTableStyleInfo name="PivotStyleLight16" showRowHeaders="1" showColHeaders="1" showRowStripes="0" showColStripes="0" showLastColumn="1"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{962EF5D1-5CA2-4c93-8EF4-DBF5C05439D2}">
+      <x14:pivotTableDefinition xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" hideValuesRow="1"/>
+    </ext>
+    <ext xmlns:xpdl="http://schemas.microsoft.com/office/spreadsheetml/2016/pivotdefaultlayout" uri="{747A6164-185A-40DC-8AA5-F01512510D54}">
+      <xpdl:pivotTableDefinition16/>
+    </ext>
+  </extLst>
+</pivotTableDefinition>
+</file>
+
+<file path=xl/pivotTables/pivotTable2.xml><?xml version="1.0" encoding="utf-8"?>
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{00000000-0007-0000-0100-000001000000}" name="PivotTable4" cacheId="1" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="4" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="4" indent="0" outline="1" outlineData="1" multipleFieldFilters="0">
+  <location ref="A33:J61" firstHeaderRow="1" firstDataRow="2" firstDataCol="1"/>
+  <pivotFields count="3">
+    <pivotField axis="axisCol" showAll="0">
+      <items count="9">
+        <item x="1"/>
+        <item x="2"/>
+        <item x="3"/>
+        <item x="4"/>
+        <item x="5"/>
+        <item x="6"/>
+        <item x="7"/>
+        <item x="0"/>
+        <item t="default"/>
+      </items>
+    </pivotField>
+    <pivotField axis="axisRow" showAll="0" sortType="ascending">
+      <items count="27">
+        <item x="8"/>
+        <item x="1"/>
+        <item x="11"/>
+        <item x="20"/>
+        <item x="3"/>
+        <item x="14"/>
+        <item x="12"/>
+        <item x="16"/>
+        <item x="7"/>
+        <item x="4"/>
+        <item x="9"/>
+        <item x="23"/>
+        <item x="5"/>
+        <item x="10"/>
+        <item x="17"/>
+        <item x="25"/>
+        <item x="15"/>
+        <item x="6"/>
+        <item x="2"/>
+        <item x="22"/>
+        <item x="18"/>
+        <item x="24"/>
+        <item x="13"/>
+        <item x="21"/>
+        <item x="19"/>
+        <item x="0"/>
+        <item t="default"/>
+      </items>
+    </pivotField>
+    <pivotField dataField="1" showAll="0">
+      <items count="11">
+        <item x="4"/>
+        <item x="5"/>
+        <item x="2"/>
+        <item x="3"/>
+        <item x="1"/>
+        <item x="8"/>
+        <item x="7"/>
+        <item x="9"/>
+        <item x="6"/>
+        <item x="0"/>
+        <item t="default"/>
+      </items>
+    </pivotField>
+  </pivotFields>
+  <rowFields count="1">
+    <field x="1"/>
+  </rowFields>
+  <rowItems count="27">
+    <i>
+      <x/>
+    </i>
+    <i>
+      <x v="1"/>
+    </i>
+    <i>
+      <x v="2"/>
+    </i>
+    <i>
+      <x v="3"/>
+    </i>
+    <i>
+      <x v="4"/>
+    </i>
+    <i>
+      <x v="5"/>
+    </i>
+    <i>
+      <x v="6"/>
+    </i>
+    <i>
+      <x v="7"/>
+    </i>
+    <i>
+      <x v="8"/>
+    </i>
+    <i>
+      <x v="9"/>
+    </i>
+    <i>
+      <x v="10"/>
+    </i>
+    <i>
+      <x v="11"/>
+    </i>
+    <i>
+      <x v="12"/>
+    </i>
+    <i>
+      <x v="13"/>
+    </i>
+    <i>
+      <x v="14"/>
+    </i>
+    <i>
+      <x v="15"/>
+    </i>
+    <i>
+      <x v="16"/>
+    </i>
+    <i>
+      <x v="17"/>
+    </i>
+    <i>
+      <x v="18"/>
+    </i>
+    <i>
+      <x v="19"/>
+    </i>
+    <i>
+      <x v="20"/>
+    </i>
+    <i>
+      <x v="21"/>
+    </i>
+    <i>
+      <x v="22"/>
+    </i>
+    <i>
+      <x v="23"/>
+    </i>
+    <i>
+      <x v="24"/>
+    </i>
+    <i>
+      <x v="25"/>
+    </i>
+    <i t="grand">
+      <x/>
+    </i>
+  </rowItems>
+  <colFields count="1">
+    <field x="0"/>
+  </colFields>
+  <colItems count="9">
+    <i>
+      <x/>
+    </i>
+    <i>
+      <x v="1"/>
+    </i>
+    <i>
+      <x v="2"/>
+    </i>
+    <i>
+      <x v="3"/>
+    </i>
+    <i>
+      <x v="4"/>
+    </i>
+    <i>
+      <x v="5"/>
+    </i>
+    <i>
+      <x v="6"/>
+    </i>
+    <i>
+      <x v="7"/>
+    </i>
+    <i t="grand">
+      <x/>
+    </i>
+  </colItems>
+  <dataFields count="1">
+    <dataField name="Sum of #'s" fld="2" showDataAs="percentOfTotal" baseField="1" baseItem="0" numFmtId="10"/>
+  </dataFields>
   <pivotTableStyleInfo name="PivotStyleLight16" showRowHeaders="1" showColHeaders="1" showRowStripes="0" showColStripes="0" showLastColumn="1"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{962EF5D1-5CA2-4c93-8EF4-DBF5C05439D2}">
@@ -3430,33 +3420,33 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:J129"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="63" zoomScaleNormal="40" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A86" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="C121" sqref="C121:C122"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A79" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="C97" sqref="C97"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="7.08984375" style="5" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="7.08984375" style="4" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="16.26953125" style="3" customWidth="1"/>
-    <col min="3" max="3" width="38.26953125" style="5" customWidth="1"/>
+    <col min="3" max="3" width="38.26953125" style="22" customWidth="1"/>
     <col min="4" max="4" width="9.1796875" style="2"/>
     <col min="5" max="5" width="8.54296875" customWidth="1"/>
-    <col min="6" max="6" width="22.26953125" style="18" customWidth="1"/>
-    <col min="7" max="7" width="35.26953125" style="19" customWidth="1"/>
+    <col min="6" max="6" width="22.26953125" style="16" customWidth="1"/>
+    <col min="7" max="7" width="35.26953125" style="17" customWidth="1"/>
     <col min="8" max="8" width="9.1796875" style="2"/>
     <col min="9" max="9" width="37.54296875" customWidth="1"/>
     <col min="10" max="10" width="9.1796875" style="2"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A1" s="8" t="s">
+      <c r="A1" s="6" t="s">
         <v>64</v>
       </c>
       <c r="B1" s="3" t="s">
         <v>65</v>
       </c>
-      <c r="C1" s="4" t="s">
+      <c r="C1" s="24" t="s">
         <v>0</v>
       </c>
       <c r="D1" s="3" t="s">
@@ -3464,13 +3454,13 @@
       </c>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A2" s="5">
+      <c r="A2" s="4">
         <v>2013</v>
       </c>
       <c r="B2" s="3">
         <v>7</v>
       </c>
-      <c r="C2" s="6" t="s">
+      <c r="C2" s="22" t="s">
         <v>1</v>
       </c>
       <c r="D2" s="2">
@@ -3478,748 +3468,748 @@
       </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A3" s="5">
+      <c r="A3" s="4">
         <v>2013</v>
       </c>
       <c r="B3" s="3">
         <v>7</v>
       </c>
-      <c r="C3" s="19" t="s">
+      <c r="C3" s="22" t="s">
         <v>2</v>
       </c>
       <c r="D3" s="2">
         <v>4</v>
       </c>
-      <c r="E3" s="12"/>
+      <c r="E3" s="10"/>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A4" s="5">
+      <c r="A4" s="4">
         <v>2013</v>
       </c>
       <c r="B4" s="3">
         <v>7</v>
       </c>
-      <c r="C4" s="6" t="s">
+      <c r="C4" s="22" t="s">
         <v>3</v>
       </c>
       <c r="D4" s="2">
         <v>5</v>
       </c>
-      <c r="E4" s="11"/>
+      <c r="E4" s="9"/>
     </row>
     <row r="5" spans="1:5" ht="29" x14ac:dyDescent="0.35">
-      <c r="A5" s="5">
+      <c r="A5" s="4">
         <v>2013</v>
       </c>
       <c r="B5" s="3">
         <v>7</v>
       </c>
-      <c r="C5" s="6" t="s">
+      <c r="C5" s="22" t="s">
         <v>4</v>
       </c>
       <c r="D5" s="2">
         <v>1</v>
       </c>
-      <c r="E5" s="11"/>
+      <c r="E5" s="9"/>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A6" s="5">
+      <c r="A6" s="4">
         <v>2013</v>
       </c>
       <c r="B6" s="3">
         <v>22</v>
       </c>
-      <c r="C6" s="6" t="s">
+      <c r="C6" s="22" t="s">
         <v>1</v>
       </c>
       <c r="D6" s="2">
         <v>10</v>
       </c>
-      <c r="E6" s="11"/>
+      <c r="E6" s="9"/>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A7" s="5">
+      <c r="A7" s="4">
         <v>2013</v>
       </c>
       <c r="B7" s="3">
         <v>22</v>
       </c>
-      <c r="C7" s="19" t="s">
+      <c r="C7" s="22" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
         <v>3</v>
       </c>
-      <c r="E7" s="11"/>
+      <c r="E7" s="9"/>
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A8" s="5">
+      <c r="A8" s="4">
         <v>2013</v>
       </c>
       <c r="B8" s="3">
         <v>22</v>
       </c>
-      <c r="C8" s="6" t="s">
+      <c r="C8" s="22" t="s">
         <v>5</v>
       </c>
       <c r="D8" s="2">
         <v>1</v>
       </c>
-      <c r="E8" s="11"/>
+      <c r="E8" s="9"/>
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A9" s="5">
+      <c r="A9" s="4">
         <v>2013</v>
       </c>
       <c r="B9" s="3">
         <v>22</v>
       </c>
-      <c r="C9" s="6" t="s">
+      <c r="C9" s="22" t="s">
         <v>6</v>
       </c>
       <c r="D9" s="2">
         <v>1</v>
       </c>
-      <c r="E9" s="11"/>
+      <c r="E9" s="9"/>
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A10" s="5">
+      <c r="A10" s="4">
         <v>2013</v>
       </c>
       <c r="B10" s="3">
         <v>22</v>
       </c>
-      <c r="C10" s="6" t="s">
+      <c r="C10" s="22" t="s">
         <v>3</v>
       </c>
       <c r="D10" s="2">
         <v>6</v>
       </c>
-      <c r="E10" s="11"/>
+      <c r="E10" s="9"/>
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A11" s="5">
+      <c r="A11" s="4">
         <v>2013</v>
       </c>
       <c r="B11" s="3">
         <v>22</v>
       </c>
-      <c r="C11" s="6" t="s">
+      <c r="C11" s="22" t="s">
         <v>7</v>
       </c>
       <c r="D11" s="2">
         <v>1</v>
       </c>
-      <c r="E11" s="11"/>
+      <c r="E11" s="9"/>
     </row>
     <row r="12" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A12" s="5">
+      <c r="A12" s="4">
         <v>2013</v>
       </c>
       <c r="B12" s="3">
         <v>22</v>
       </c>
-      <c r="C12" s="6" t="s">
+      <c r="C12" s="22" t="s">
         <v>8</v>
       </c>
       <c r="D12" s="2">
         <v>1</v>
       </c>
-      <c r="E12" s="11"/>
+      <c r="E12" s="9"/>
     </row>
     <row r="13" spans="1:5" ht="29" x14ac:dyDescent="0.35">
-      <c r="A13" s="5">
+      <c r="A13" s="4">
         <v>2013</v>
       </c>
       <c r="B13" s="3">
         <v>22</v>
       </c>
-      <c r="C13" s="6" t="s">
+      <c r="C13" s="22" t="s">
         <v>9</v>
       </c>
       <c r="D13" s="2">
         <v>1</v>
       </c>
-      <c r="E13" s="11"/>
+      <c r="E13" s="9"/>
     </row>
     <row r="14" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A14" s="5">
+      <c r="A14" s="4">
         <v>2013</v>
       </c>
       <c r="B14" s="3">
         <v>22</v>
       </c>
-      <c r="C14" s="7" t="s">
+      <c r="C14" s="23" t="s">
         <v>10</v>
       </c>
       <c r="D14" s="2">
         <v>1</v>
       </c>
-      <c r="E14" s="11"/>
+      <c r="E14" s="9"/>
     </row>
     <row r="15" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A15" s="5">
+      <c r="A15" s="4">
         <v>2013</v>
       </c>
       <c r="B15" s="3">
         <v>37</v>
       </c>
-      <c r="C15" s="6" t="s">
+      <c r="C15" s="22" t="s">
         <v>11</v>
       </c>
       <c r="D15" s="2">
         <v>1</v>
       </c>
-      <c r="E15" s="11"/>
+      <c r="E15" s="9"/>
     </row>
     <row r="16" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A16" s="5">
+      <c r="A16" s="4">
         <v>2013</v>
       </c>
       <c r="B16" s="3">
         <v>37</v>
       </c>
-      <c r="C16" s="6" t="s">
+      <c r="C16" s="22" t="s">
         <v>1</v>
       </c>
       <c r="D16" s="2">
         <v>15</v>
       </c>
-      <c r="E16" s="11"/>
+      <c r="E16" s="9"/>
     </row>
     <row r="17" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A17" s="5">
+      <c r="A17" s="4">
         <v>2013</v>
       </c>
       <c r="B17" s="3">
         <v>37</v>
       </c>
-      <c r="C17" s="6" t="s">
+      <c r="C17" s="22" t="s">
         <v>3</v>
       </c>
       <c r="D17" s="2">
         <v>3</v>
       </c>
-      <c r="E17" s="11"/>
+      <c r="E17" s="9"/>
     </row>
     <row r="18" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A18" s="5">
+      <c r="A18" s="4">
         <v>2013</v>
       </c>
       <c r="B18" s="3">
         <v>37</v>
       </c>
-      <c r="C18" s="19" t="s">
+      <c r="C18" s="22" t="s">
         <v>2</v>
       </c>
       <c r="D18" s="2">
         <v>2</v>
       </c>
-      <c r="E18" s="11"/>
+      <c r="E18" s="9"/>
     </row>
     <row r="19" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A19" s="5">
+      <c r="A19" s="4">
         <v>2013</v>
       </c>
       <c r="B19" s="3">
         <v>37</v>
       </c>
-      <c r="C19" s="5" t="s">
+      <c r="C19" s="22" t="s">
         <v>12</v>
       </c>
       <c r="D19" s="2">
         <v>1</v>
       </c>
-      <c r="E19" s="11"/>
+      <c r="E19" s="9"/>
     </row>
     <row r="20" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A20" s="5">
+      <c r="A20" s="4">
         <v>2013</v>
       </c>
       <c r="B20" s="3">
         <v>37</v>
       </c>
-      <c r="C20" s="6" t="s">
+      <c r="C20" s="22" t="s">
         <v>13</v>
       </c>
       <c r="D20" s="2">
         <v>1</v>
       </c>
-      <c r="E20" s="11"/>
+      <c r="E20" s="9"/>
     </row>
     <row r="21" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A21" s="5">
+      <c r="A21" s="4">
         <v>2013</v>
       </c>
       <c r="B21" s="3">
         <v>37</v>
       </c>
-      <c r="C21" s="6" t="s">
+      <c r="C21" s="22" t="s">
         <v>14</v>
       </c>
       <c r="D21" s="2">
         <v>1</v>
       </c>
-      <c r="E21" s="11"/>
+      <c r="E21" s="9"/>
     </row>
     <row r="22" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A22" s="5">
+      <c r="A22" s="4">
         <v>2013</v>
       </c>
       <c r="B22" s="3">
         <v>37</v>
       </c>
-      <c r="C22" s="6" t="s">
+      <c r="C22" s="22" t="s">
         <v>15</v>
       </c>
       <c r="D22" s="2">
         <v>1</v>
       </c>
-      <c r="E22" s="11"/>
-      <c r="F22" s="20"/>
-      <c r="G22" s="6"/>
+      <c r="E22" s="9"/>
+      <c r="F22" s="18"/>
+      <c r="G22" s="5"/>
       <c r="H22" s="3"/>
     </row>
     <row r="23" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A23" s="5">
+      <c r="A23" s="4">
         <v>2013</v>
       </c>
       <c r="B23" s="3">
         <v>52</v>
       </c>
-      <c r="C23" s="19" t="s">
+      <c r="C23" s="22" t="s">
         <v>2</v>
       </c>
       <c r="D23" s="2">
         <v>10</v>
       </c>
-      <c r="E23" s="11"/>
-      <c r="G23" s="6"/>
+      <c r="E23" s="9"/>
+      <c r="G23" s="5"/>
     </row>
     <row r="24" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A24" s="5">
+      <c r="A24" s="4">
         <v>2013</v>
       </c>
       <c r="B24" s="3">
         <v>52</v>
       </c>
-      <c r="C24" s="6" t="s">
+      <c r="C24" s="22" t="s">
         <v>17</v>
       </c>
       <c r="D24" s="2">
         <v>1</v>
       </c>
-      <c r="E24" s="11"/>
-      <c r="G24" s="5"/>
+      <c r="E24" s="9"/>
+      <c r="G24" s="4"/>
     </row>
     <row r="25" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A25" s="5">
+      <c r="A25" s="4">
         <v>2013</v>
       </c>
       <c r="B25" s="3">
         <v>52</v>
       </c>
-      <c r="C25" s="6" t="s">
+      <c r="C25" s="22" t="s">
         <v>18</v>
       </c>
       <c r="D25" s="2">
         <v>1</v>
       </c>
-      <c r="E25" s="11"/>
-      <c r="G25" s="6"/>
+      <c r="E25" s="9"/>
+      <c r="G25" s="5"/>
     </row>
     <row r="26" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A26" s="5">
+      <c r="A26" s="4">
         <v>2013</v>
       </c>
       <c r="B26" s="3">
         <v>52</v>
       </c>
-      <c r="C26" s="5" t="s">
+      <c r="C26" s="22" t="s">
         <v>1</v>
       </c>
       <c r="D26" s="2">
         <v>7</v>
       </c>
-      <c r="E26" s="11"/>
-      <c r="G26" s="6"/>
+      <c r="E26" s="9"/>
+      <c r="G26" s="5"/>
     </row>
     <row r="27" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A27" s="5">
+      <c r="A27" s="4">
         <v>2013</v>
       </c>
       <c r="B27" s="3">
         <v>52</v>
       </c>
-      <c r="C27" s="6" t="s">
+      <c r="C27" s="22" t="s">
         <v>5</v>
       </c>
       <c r="D27" s="2">
         <v>1</v>
       </c>
-      <c r="E27" s="11"/>
-      <c r="G27" s="5"/>
+      <c r="E27" s="9"/>
+      <c r="G27" s="4"/>
     </row>
     <row r="28" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A28" s="5">
+      <c r="A28" s="4">
         <v>2013</v>
       </c>
       <c r="B28" s="3">
         <v>52</v>
       </c>
-      <c r="C28" s="5" t="s">
+      <c r="C28" s="22" t="s">
         <v>10</v>
       </c>
       <c r="D28" s="2">
         <v>1</v>
       </c>
-      <c r="E28" s="11"/>
-      <c r="G28" s="6"/>
+      <c r="E28" s="9"/>
+      <c r="G28" s="5"/>
     </row>
     <row r="29" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A29" s="5">
+      <c r="A29" s="4">
         <v>2013</v>
       </c>
       <c r="B29" s="3">
         <v>52</v>
       </c>
-      <c r="C29" s="5" t="s">
+      <c r="C29" s="22" t="s">
         <v>3</v>
       </c>
       <c r="D29" s="2">
         <v>2</v>
       </c>
-      <c r="E29" s="11"/>
-      <c r="G29" s="5"/>
+      <c r="E29" s="9"/>
+      <c r="G29" s="4"/>
     </row>
     <row r="30" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A30" s="5">
+      <c r="A30" s="4">
         <v>2013</v>
       </c>
       <c r="B30" s="3">
         <v>52</v>
       </c>
-      <c r="C30" s="5" t="s">
+      <c r="C30" s="22" t="s">
         <v>15</v>
       </c>
       <c r="D30" s="2">
         <v>1</v>
       </c>
-      <c r="E30" s="11"/>
-      <c r="G30" s="5"/>
+      <c r="E30" s="9"/>
+      <c r="G30" s="4"/>
     </row>
     <row r="31" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A31" s="5">
+      <c r="A31" s="4">
         <v>2013</v>
       </c>
       <c r="B31" s="3">
         <v>67</v>
       </c>
-      <c r="C31" s="19" t="s">
+      <c r="C31" s="22" t="s">
         <v>2</v>
       </c>
       <c r="D31" s="2">
         <v>6</v>
       </c>
-      <c r="E31" s="11"/>
-      <c r="G31" s="5"/>
+      <c r="E31" s="9"/>
+      <c r="G31" s="4"/>
     </row>
     <row r="32" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A32" s="5">
+      <c r="A32" s="4">
         <v>2013</v>
       </c>
       <c r="B32" s="3">
         <v>67</v>
       </c>
-      <c r="C32" s="6" t="s">
+      <c r="C32" s="22" t="s">
         <v>20</v>
       </c>
       <c r="D32" s="2">
         <v>1</v>
       </c>
-      <c r="E32" s="11"/>
-      <c r="G32" s="5"/>
+      <c r="E32" s="9"/>
+      <c r="G32" s="4"/>
     </row>
     <row r="33" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A33" s="5">
+      <c r="A33" s="4">
         <v>2013</v>
       </c>
       <c r="B33" s="3">
         <v>67</v>
       </c>
-      <c r="C33" s="5" t="s">
+      <c r="C33" s="22" t="s">
         <v>3</v>
       </c>
       <c r="D33" s="2">
         <v>4</v>
       </c>
-      <c r="E33" s="11"/>
-      <c r="G33" s="6"/>
+      <c r="E33" s="9"/>
+      <c r="G33" s="5"/>
     </row>
     <row r="34" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A34" s="5">
+      <c r="A34" s="4">
         <v>2013</v>
       </c>
       <c r="B34" s="3">
         <v>67</v>
       </c>
-      <c r="C34" s="6" t="s">
+      <c r="C34" s="22" t="s">
         <v>21</v>
       </c>
       <c r="D34" s="2">
         <v>1</v>
       </c>
-      <c r="E34" s="11"/>
-      <c r="G34" s="5"/>
+      <c r="E34" s="9"/>
+      <c r="G34" s="4"/>
     </row>
     <row r="35" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A35" s="5">
+      <c r="A35" s="4">
         <v>2013</v>
       </c>
       <c r="B35" s="3">
         <v>67</v>
       </c>
-      <c r="C35" s="6" t="s">
+      <c r="C35" s="22" t="s">
         <v>22</v>
       </c>
       <c r="D35" s="2">
         <v>4</v>
       </c>
-      <c r="E35" s="11"/>
-      <c r="G35" s="6"/>
+      <c r="E35" s="9"/>
+      <c r="G35" s="5"/>
     </row>
     <row r="36" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A36" s="5">
+      <c r="A36" s="4">
         <v>2013</v>
       </c>
       <c r="B36" s="3">
         <v>67</v>
       </c>
-      <c r="C36" s="5" t="s">
+      <c r="C36" s="22" t="s">
         <v>1</v>
       </c>
       <c r="D36" s="2">
         <v>5</v>
       </c>
-      <c r="E36" s="11"/>
-      <c r="G36" s="6"/>
+      <c r="E36" s="9"/>
+      <c r="G36" s="5"/>
     </row>
     <row r="37" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A37" s="5">
+      <c r="A37" s="4">
         <v>2013</v>
       </c>
       <c r="B37" s="3">
         <v>67</v>
       </c>
-      <c r="C37" s="5" t="s">
+      <c r="C37" s="22" t="s">
         <v>5</v>
       </c>
       <c r="D37" s="2">
         <v>1</v>
       </c>
-      <c r="E37" s="11"/>
-      <c r="G37" s="5"/>
+      <c r="E37" s="9"/>
+      <c r="G37" s="4"/>
     </row>
     <row r="38" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A38" s="5">
+      <c r="A38" s="4">
         <v>2013</v>
       </c>
       <c r="B38" s="3">
         <v>67</v>
       </c>
-      <c r="C38" s="5" t="s">
+      <c r="C38" s="22" t="s">
         <v>12</v>
       </c>
       <c r="D38" s="2">
         <v>1</v>
       </c>
-      <c r="E38" s="11"/>
-      <c r="G38" s="5"/>
+      <c r="E38" s="9"/>
+      <c r="G38" s="4"/>
     </row>
     <row r="39" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A39" s="5">
+      <c r="A39" s="4">
         <v>2013</v>
       </c>
       <c r="B39" s="3">
         <v>82</v>
       </c>
-      <c r="C39" s="5" t="s">
+      <c r="C39" s="22" t="s">
         <v>1</v>
       </c>
       <c r="D39" s="2">
         <v>12</v>
       </c>
-      <c r="E39" s="11"/>
-      <c r="G39" s="5"/>
+      <c r="E39" s="9"/>
+      <c r="G39" s="4"/>
     </row>
     <row r="40" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A40" s="5">
+      <c r="A40" s="4">
         <v>2013</v>
       </c>
       <c r="B40" s="3">
         <v>82</v>
       </c>
-      <c r="C40" s="19" t="s">
+      <c r="C40" s="22" t="s">
         <v>2</v>
       </c>
       <c r="D40" s="2">
         <v>7</v>
       </c>
-      <c r="E40" s="11"/>
-      <c r="G40" s="5"/>
+      <c r="E40" s="9"/>
+      <c r="G40" s="4"/>
     </row>
     <row r="41" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A41" s="5">
+      <c r="A41" s="4">
         <v>2013</v>
       </c>
       <c r="B41" s="3">
         <v>82</v>
       </c>
-      <c r="C41" s="5" t="s">
+      <c r="C41" s="22" t="s">
         <v>3</v>
       </c>
       <c r="D41" s="2">
         <v>3</v>
       </c>
-      <c r="E41" s="11"/>
-      <c r="G41" s="5"/>
+      <c r="E41" s="9"/>
+      <c r="G41" s="4"/>
     </row>
     <row r="42" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A42" s="5">
+      <c r="A42" s="4">
         <v>2013</v>
       </c>
       <c r="B42" s="3">
         <v>82</v>
       </c>
-      <c r="C42" s="5" t="s">
+      <c r="C42" s="22" t="s">
         <v>10</v>
       </c>
       <c r="D42" s="2">
         <v>1</v>
       </c>
-      <c r="E42" s="11"/>
-      <c r="G42" s="5"/>
+      <c r="E42" s="9"/>
+      <c r="G42" s="4"/>
     </row>
     <row r="43" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A43" s="5">
+      <c r="A43" s="4">
         <v>2013</v>
       </c>
       <c r="B43" s="3">
         <v>82</v>
       </c>
-      <c r="C43" s="5" t="s">
+      <c r="C43" s="22" t="s">
         <v>23</v>
       </c>
       <c r="D43" s="2">
         <v>1</v>
       </c>
-      <c r="E43" s="11"/>
-      <c r="G43" s="5"/>
+      <c r="E43" s="9"/>
+      <c r="G43" s="4"/>
     </row>
     <row r="44" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A44" s="5">
+      <c r="A44" s="4">
         <v>2013</v>
       </c>
       <c r="B44" s="3">
         <v>97</v>
       </c>
-      <c r="C44" s="19" t="s">
+      <c r="C44" s="22" t="s">
         <v>2</v>
       </c>
       <c r="D44" s="2">
         <v>4</v>
       </c>
-      <c r="E44" s="11"/>
-      <c r="G44" s="5"/>
+      <c r="E44" s="9"/>
+      <c r="G44" s="4"/>
     </row>
     <row r="45" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A45" s="5">
+      <c r="A45" s="4">
         <v>2013</v>
       </c>
       <c r="B45" s="3">
         <v>97</v>
       </c>
-      <c r="C45" s="5" t="s">
+      <c r="C45" s="22" t="s">
         <v>1</v>
       </c>
       <c r="D45" s="2">
         <v>12</v>
       </c>
-      <c r="E45" s="11"/>
-      <c r="G45" s="5"/>
+      <c r="E45" s="9"/>
+      <c r="G45" s="4"/>
     </row>
     <row r="46" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A46" s="5">
+      <c r="A46" s="4">
         <v>2013</v>
       </c>
       <c r="B46" s="3">
         <v>97</v>
       </c>
-      <c r="C46" s="5" t="s">
+      <c r="C46" s="22" t="s">
         <v>3</v>
       </c>
       <c r="D46" s="2">
         <v>6</v>
       </c>
-      <c r="E46" s="11"/>
-      <c r="G46" s="5"/>
+      <c r="E46" s="9"/>
+      <c r="G46" s="4"/>
     </row>
     <row r="47" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A47" s="5">
+      <c r="A47" s="4">
         <v>2013</v>
       </c>
       <c r="B47" s="3">
         <v>97</v>
       </c>
-      <c r="C47" s="5" t="s">
+      <c r="C47" s="22" t="s">
         <v>7</v>
       </c>
       <c r="D47" s="2">
         <v>1</v>
       </c>
-      <c r="E47" s="11"/>
-      <c r="G47" s="5"/>
+      <c r="E47" s="9"/>
+      <c r="G47" s="4"/>
     </row>
     <row r="48" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A48" s="5">
+      <c r="A48" s="4">
         <v>2013</v>
       </c>
       <c r="B48" s="3">
         <v>97</v>
       </c>
-      <c r="C48" s="5" t="s">
+      <c r="C48" s="22" t="s">
         <v>22</v>
       </c>
       <c r="D48" s="2">
         <v>1</v>
       </c>
-      <c r="E48" s="11"/>
-      <c r="G48" s="5"/>
+      <c r="E48" s="9"/>
+      <c r="G48" s="4"/>
     </row>
     <row r="49" spans="1:10" x14ac:dyDescent="0.35">
-      <c r="A49" s="5">
-        <v>2007</v>
-      </c>
-      <c r="B49" s="18">
+      <c r="A49" s="4">
+        <v>2007</v>
+      </c>
+      <c r="B49" s="16">
         <v>7</v>
       </c>
-      <c r="C49" s="19" t="s">
+      <c r="C49" s="22" t="s">
         <v>3</v>
       </c>
       <c r="D49" s="2">
         <v>6</v>
       </c>
-      <c r="E49" s="11"/>
-      <c r="G49" s="5"/>
+      <c r="E49" s="9"/>
+      <c r="G49" s="4"/>
     </row>
     <row r="50" spans="1:10" x14ac:dyDescent="0.35">
-      <c r="A50" s="5">
-        <v>2007</v>
-      </c>
-      <c r="B50" s="18">
+      <c r="A50" s="4">
+        <v>2007</v>
+      </c>
+      <c r="B50" s="16">
         <v>7</v>
       </c>
-      <c r="C50" s="19" t="s">
+      <c r="C50" s="22" t="s">
         <v>1</v>
       </c>
       <c r="D50" s="2">
@@ -4227,13 +4217,13 @@
       </c>
     </row>
     <row r="51" spans="1:10" x14ac:dyDescent="0.35">
-      <c r="A51" s="5">
-        <v>2007</v>
-      </c>
-      <c r="B51" s="18">
+      <c r="A51" s="4">
+        <v>2007</v>
+      </c>
+      <c r="B51" s="16">
         <v>7</v>
       </c>
-      <c r="C51" s="19" t="s">
+      <c r="C51" s="22" t="s">
         <v>2</v>
       </c>
       <c r="D51" s="2">
@@ -4241,13 +4231,13 @@
       </c>
     </row>
     <row r="52" spans="1:10" x14ac:dyDescent="0.35">
-      <c r="A52" s="5">
-        <v>2007</v>
-      </c>
-      <c r="B52" s="18">
+      <c r="A52" s="4">
+        <v>2007</v>
+      </c>
+      <c r="B52" s="16">
         <v>22</v>
       </c>
-      <c r="C52" s="19" t="s">
+      <c r="C52" s="22" t="s">
         <v>12</v>
       </c>
       <c r="D52" s="2">
@@ -4255,13 +4245,13 @@
       </c>
     </row>
     <row r="53" spans="1:10" x14ac:dyDescent="0.35">
-      <c r="A53" s="5">
-        <v>2007</v>
-      </c>
-      <c r="B53" s="18">
+      <c r="A53" s="4">
+        <v>2007</v>
+      </c>
+      <c r="B53" s="16">
         <v>22</v>
       </c>
-      <c r="C53" s="19" t="s">
+      <c r="C53" s="22" t="s">
         <v>2</v>
       </c>
       <c r="D53" s="2">
@@ -4269,13 +4259,13 @@
       </c>
     </row>
     <row r="54" spans="1:10" x14ac:dyDescent="0.35">
-      <c r="A54" s="5">
-        <v>2007</v>
-      </c>
-      <c r="B54" s="18">
+      <c r="A54" s="4">
+        <v>2007</v>
+      </c>
+      <c r="B54" s="16">
         <v>22</v>
       </c>
-      <c r="C54" s="19" t="s">
+      <c r="C54" s="22" t="s">
         <v>3</v>
       </c>
       <c r="D54" s="2">
@@ -4283,13 +4273,13 @@
       </c>
     </row>
     <row r="55" spans="1:10" x14ac:dyDescent="0.35">
-      <c r="A55" s="5">
-        <v>2007</v>
-      </c>
-      <c r="B55" s="18">
+      <c r="A55" s="4">
+        <v>2007</v>
+      </c>
+      <c r="B55" s="16">
         <v>22</v>
       </c>
-      <c r="C55" s="19" t="s">
+      <c r="C55" s="22" t="s">
         <v>13</v>
       </c>
       <c r="D55" s="2">
@@ -4297,13 +4287,13 @@
       </c>
     </row>
     <row r="56" spans="1:10" x14ac:dyDescent="0.35">
-      <c r="A56" s="5">
-        <v>2007</v>
-      </c>
-      <c r="B56" s="18">
+      <c r="A56" s="4">
+        <v>2007</v>
+      </c>
+      <c r="B56" s="16">
         <v>22</v>
       </c>
-      <c r="C56" s="19" t="s">
+      <c r="C56" s="22" t="s">
         <v>8</v>
       </c>
       <c r="D56" s="2">
@@ -4311,13 +4301,13 @@
       </c>
     </row>
     <row r="57" spans="1:10" x14ac:dyDescent="0.35">
-      <c r="A57" s="5">
-        <v>2007</v>
-      </c>
-      <c r="B57" s="18">
+      <c r="A57" s="4">
+        <v>2007</v>
+      </c>
+      <c r="B57" s="16">
         <v>22</v>
       </c>
-      <c r="C57" s="19" t="s">
+      <c r="C57" s="22" t="s">
         <v>7</v>
       </c>
       <c r="D57" s="2">
@@ -4325,13 +4315,13 @@
       </c>
     </row>
     <row r="58" spans="1:10" x14ac:dyDescent="0.35">
-      <c r="A58" s="5">
-        <v>2007</v>
-      </c>
-      <c r="B58" s="18">
+      <c r="A58" s="4">
+        <v>2007</v>
+      </c>
+      <c r="B58" s="16">
         <v>37</v>
       </c>
-      <c r="C58" s="19" t="s">
+      <c r="C58" s="22" t="s">
         <v>3</v>
       </c>
       <c r="D58" s="2">
@@ -4339,13 +4329,13 @@
       </c>
     </row>
     <row r="59" spans="1:10" x14ac:dyDescent="0.35">
-      <c r="A59" s="5">
-        <v>2007</v>
-      </c>
-      <c r="B59" s="18">
+      <c r="A59" s="4">
+        <v>2007</v>
+      </c>
+      <c r="B59" s="16">
         <v>37</v>
       </c>
-      <c r="C59" s="19" t="s">
+      <c r="C59" s="22" t="s">
         <v>30</v>
       </c>
       <c r="D59" s="2">
@@ -4353,29 +4343,29 @@
       </c>
     </row>
     <row r="60" spans="1:10" x14ac:dyDescent="0.35">
-      <c r="A60" s="5">
-        <v>2007</v>
-      </c>
-      <c r="B60" s="18">
+      <c r="A60" s="4">
+        <v>2007</v>
+      </c>
+      <c r="B60" s="16">
         <v>37</v>
       </c>
-      <c r="C60" s="19" t="s">
+      <c r="C60" s="22" t="s">
         <v>2</v>
       </c>
       <c r="D60" s="2">
         <v>5</v>
       </c>
-      <c r="I60" s="20"/>
+      <c r="I60" s="18"/>
       <c r="J60" s="3"/>
     </row>
     <row r="61" spans="1:10" x14ac:dyDescent="0.35">
-      <c r="A61" s="5">
-        <v>2007</v>
-      </c>
-      <c r="B61" s="18">
+      <c r="A61" s="4">
+        <v>2007</v>
+      </c>
+      <c r="B61" s="16">
         <v>37</v>
       </c>
-      <c r="C61" s="19" t="s">
+      <c r="C61" s="22" t="s">
         <v>12</v>
       </c>
       <c r="D61" s="2">
@@ -4383,13 +4373,13 @@
       </c>
     </row>
     <row r="62" spans="1:10" x14ac:dyDescent="0.35">
-      <c r="A62" s="5">
-        <v>2007</v>
-      </c>
-      <c r="B62" s="18">
+      <c r="A62" s="4">
+        <v>2007</v>
+      </c>
+      <c r="B62" s="16">
         <v>37</v>
       </c>
-      <c r="C62" s="19" t="s">
+      <c r="C62" s="22" t="s">
         <v>13</v>
       </c>
       <c r="D62" s="2">
@@ -4397,13 +4387,13 @@
       </c>
     </row>
     <row r="63" spans="1:10" x14ac:dyDescent="0.35">
-      <c r="A63" s="5">
-        <v>2007</v>
-      </c>
-      <c r="B63" s="18">
+      <c r="A63" s="4">
+        <v>2007</v>
+      </c>
+      <c r="B63" s="16">
         <v>37</v>
       </c>
-      <c r="C63" s="19" t="s">
+      <c r="C63" s="22" t="s">
         <v>31</v>
       </c>
       <c r="D63" s="2">
@@ -4411,13 +4401,13 @@
       </c>
     </row>
     <row r="64" spans="1:10" x14ac:dyDescent="0.35">
-      <c r="A64" s="5">
-        <v>2007</v>
-      </c>
-      <c r="B64" s="18">
+      <c r="A64" s="4">
+        <v>2007</v>
+      </c>
+      <c r="B64" s="16">
         <v>37</v>
       </c>
-      <c r="C64" s="19" t="s">
+      <c r="C64" s="22" t="s">
         <v>33</v>
       </c>
       <c r="D64" s="2">
@@ -4425,13 +4415,13 @@
       </c>
     </row>
     <row r="65" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A65" s="5">
-        <v>2007</v>
-      </c>
-      <c r="B65" s="18">
+      <c r="A65" s="4">
+        <v>2007</v>
+      </c>
+      <c r="B65" s="16">
         <v>37</v>
       </c>
-      <c r="C65" s="19" t="s">
+      <c r="C65" s="22" t="s">
         <v>32</v>
       </c>
       <c r="D65" s="2">
@@ -4439,13 +4429,13 @@
       </c>
     </row>
     <row r="66" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A66" s="5">
-        <v>2007</v>
-      </c>
-      <c r="B66" s="18">
+      <c r="A66" s="4">
+        <v>2007</v>
+      </c>
+      <c r="B66" s="16">
         <v>37</v>
       </c>
-      <c r="C66" s="19" t="s">
+      <c r="C66" s="22" t="s">
         <v>22</v>
       </c>
       <c r="D66" s="2">
@@ -4453,13 +4443,13 @@
       </c>
     </row>
     <row r="67" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A67" s="5">
-        <v>2007</v>
-      </c>
-      <c r="B67" s="18">
+      <c r="A67" s="4">
+        <v>2007</v>
+      </c>
+      <c r="B67" s="16">
         <v>37</v>
       </c>
-      <c r="C67" s="19" t="s">
+      <c r="C67" s="22" t="s">
         <v>5</v>
       </c>
       <c r="D67" s="2">
@@ -4467,27 +4457,27 @@
       </c>
     </row>
     <row r="68" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A68" s="5">
-        <v>2007</v>
-      </c>
-      <c r="B68" s="18">
+      <c r="A68" s="4">
+        <v>2007</v>
+      </c>
+      <c r="B68" s="16">
         <v>52</v>
       </c>
-      <c r="C68" s="19" t="s">
-        <v>16</v>
+      <c r="C68" s="22" t="s">
+        <v>2</v>
       </c>
       <c r="D68" s="2">
         <v>6</v>
       </c>
     </row>
     <row r="69" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A69" s="5">
-        <v>2007</v>
-      </c>
-      <c r="B69" s="18">
+      <c r="A69" s="4">
+        <v>2007</v>
+      </c>
+      <c r="B69" s="16">
         <v>52</v>
       </c>
-      <c r="C69" s="19" t="s">
+      <c r="C69" s="22" t="s">
         <v>3</v>
       </c>
       <c r="D69" s="2">
@@ -4495,13 +4485,13 @@
       </c>
     </row>
     <row r="70" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A70" s="5">
-        <v>2007</v>
-      </c>
-      <c r="B70" s="18">
+      <c r="A70" s="4">
+        <v>2007</v>
+      </c>
+      <c r="B70" s="16">
         <v>52</v>
       </c>
-      <c r="C70" s="19" t="s">
+      <c r="C70" s="22" t="s">
         <v>1</v>
       </c>
       <c r="D70" s="2">
@@ -4509,13 +4499,13 @@
       </c>
     </row>
     <row r="71" spans="1:4" ht="29" x14ac:dyDescent="0.35">
-      <c r="A71" s="5">
-        <v>2007</v>
-      </c>
-      <c r="B71" s="18">
+      <c r="A71" s="4">
+        <v>2007</v>
+      </c>
+      <c r="B71" s="16">
         <v>52</v>
       </c>
-      <c r="C71" s="19" t="s">
+      <c r="C71" s="22" t="s">
         <v>9</v>
       </c>
       <c r="D71" s="2">
@@ -4523,13 +4513,13 @@
       </c>
     </row>
     <row r="72" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A72" s="5">
-        <v>2007</v>
-      </c>
-      <c r="B72" s="18">
+      <c r="A72" s="4">
+        <v>2007</v>
+      </c>
+      <c r="B72" s="16">
         <v>52</v>
       </c>
-      <c r="C72" s="19" t="s">
+      <c r="C72" s="22" t="s">
         <v>12</v>
       </c>
       <c r="D72" s="2">
@@ -4537,13 +4527,13 @@
       </c>
     </row>
     <row r="73" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A73" s="5">
-        <v>2007</v>
-      </c>
-      <c r="B73" s="18">
+      <c r="A73" s="4">
+        <v>2007</v>
+      </c>
+      <c r="B73" s="16">
         <v>52</v>
       </c>
-      <c r="C73" s="19" t="s">
+      <c r="C73" s="22" t="s">
         <v>8</v>
       </c>
       <c r="D73" s="2">
@@ -4551,13 +4541,13 @@
       </c>
     </row>
     <row r="74" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A74" s="5">
-        <v>2007</v>
-      </c>
-      <c r="B74" s="18">
+      <c r="A74" s="4">
+        <v>2007</v>
+      </c>
+      <c r="B74" s="16">
         <v>52</v>
       </c>
-      <c r="C74" s="19" t="s">
+      <c r="C74" s="22" t="s">
         <v>33</v>
       </c>
       <c r="D74" s="2">
@@ -4565,13 +4555,13 @@
       </c>
     </row>
     <row r="75" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A75" s="5">
-        <v>2007</v>
-      </c>
-      <c r="B75" s="18">
+      <c r="A75" s="4">
+        <v>2007</v>
+      </c>
+      <c r="B75" s="16">
         <v>52</v>
       </c>
-      <c r="C75" s="19" t="s">
+      <c r="C75" s="22" t="s">
         <v>35</v>
       </c>
       <c r="D75" s="2">
@@ -4579,13 +4569,13 @@
       </c>
     </row>
     <row r="76" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A76" s="5">
-        <v>2007</v>
-      </c>
-      <c r="B76" s="18">
+      <c r="A76" s="4">
+        <v>2007</v>
+      </c>
+      <c r="B76" s="16">
         <v>52</v>
       </c>
-      <c r="C76" s="19" t="s">
+      <c r="C76" s="22" t="s">
         <v>34</v>
       </c>
       <c r="D76" s="2">
@@ -4593,13 +4583,13 @@
       </c>
     </row>
     <row r="77" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A77" s="5">
-        <v>2007</v>
-      </c>
-      <c r="B77" s="18">
+      <c r="A77" s="4">
+        <v>2007</v>
+      </c>
+      <c r="B77" s="16">
         <v>52</v>
       </c>
-      <c r="C77" s="19" t="s">
+      <c r="C77" s="22" t="s">
         <v>23</v>
       </c>
       <c r="D77" s="2">
@@ -4607,13 +4597,13 @@
       </c>
     </row>
     <row r="78" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A78" s="5">
-        <v>2007</v>
-      </c>
-      <c r="B78" s="18">
+      <c r="A78" s="4">
+        <v>2007</v>
+      </c>
+      <c r="B78" s="16">
         <v>52</v>
       </c>
-      <c r="C78" s="19" t="s">
+      <c r="C78" s="22" t="s">
         <v>15</v>
       </c>
       <c r="D78" s="2">
@@ -4621,13 +4611,13 @@
       </c>
     </row>
     <row r="79" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A79" s="5">
-        <v>2007</v>
-      </c>
-      <c r="B79" s="18">
+      <c r="A79" s="4">
+        <v>2007</v>
+      </c>
+      <c r="B79" s="16">
         <v>67</v>
       </c>
-      <c r="C79" s="19" t="s">
+      <c r="C79" s="22" t="s">
         <v>2</v>
       </c>
       <c r="D79" s="2">
@@ -4635,13 +4625,13 @@
       </c>
     </row>
     <row r="80" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A80" s="5">
-        <v>2007</v>
-      </c>
-      <c r="B80" s="18">
+      <c r="A80" s="4">
+        <v>2007</v>
+      </c>
+      <c r="B80" s="16">
         <v>67</v>
       </c>
-      <c r="C80" s="19" t="s">
+      <c r="C80" s="22" t="s">
         <v>12</v>
       </c>
       <c r="D80" s="2">
@@ -4649,13 +4639,13 @@
       </c>
     </row>
     <row r="81" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A81" s="5">
-        <v>2007</v>
-      </c>
-      <c r="B81" s="18">
+      <c r="A81" s="4">
+        <v>2007</v>
+      </c>
+      <c r="B81" s="16">
         <v>67</v>
       </c>
-      <c r="C81" s="19" t="s">
+      <c r="C81" s="22" t="s">
         <v>3</v>
       </c>
       <c r="D81" s="2">
@@ -4663,13 +4653,13 @@
       </c>
     </row>
     <row r="82" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A82" s="5">
-        <v>2007</v>
-      </c>
-      <c r="B82" s="18">
+      <c r="A82" s="4">
+        <v>2007</v>
+      </c>
+      <c r="B82" s="16">
         <v>67</v>
       </c>
-      <c r="C82" s="19" t="s">
+      <c r="C82" s="22" t="s">
         <v>36</v>
       </c>
       <c r="D82" s="2">
@@ -4677,13 +4667,13 @@
       </c>
     </row>
     <row r="83" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A83" s="5">
-        <v>2007</v>
-      </c>
-      <c r="B83" s="18">
+      <c r="A83" s="4">
+        <v>2007</v>
+      </c>
+      <c r="B83" s="16">
         <v>67</v>
       </c>
-      <c r="C83" s="19" t="s">
+      <c r="C83" s="22" t="s">
         <v>22</v>
       </c>
       <c r="D83" s="2">
@@ -4691,13 +4681,13 @@
       </c>
     </row>
     <row r="84" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A84" s="5">
-        <v>2007</v>
-      </c>
-      <c r="B84" s="18">
+      <c r="A84" s="4">
+        <v>2007</v>
+      </c>
+      <c r="B84" s="16">
         <v>67</v>
       </c>
-      <c r="C84" s="19" t="s">
+      <c r="C84" s="22" t="s">
         <v>5</v>
       </c>
       <c r="D84" s="2">
@@ -4705,13 +4695,13 @@
       </c>
     </row>
     <row r="85" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A85" s="5">
-        <v>2007</v>
-      </c>
-      <c r="B85" s="18">
+      <c r="A85" s="4">
+        <v>2007</v>
+      </c>
+      <c r="B85" s="16">
         <v>67</v>
       </c>
-      <c r="C85" s="19" t="s">
+      <c r="C85" s="22" t="s">
         <v>34</v>
       </c>
       <c r="D85" s="2">
@@ -4719,27 +4709,27 @@
       </c>
     </row>
     <row r="86" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A86" s="5">
-        <v>2007</v>
-      </c>
-      <c r="B86" s="18">
+      <c r="A86" s="4">
+        <v>2007</v>
+      </c>
+      <c r="B86" s="16">
         <v>67</v>
       </c>
-      <c r="C86" s="19" t="s">
-        <v>37</v>
+      <c r="C86" s="22" t="s">
+        <v>15</v>
       </c>
       <c r="D86" s="2">
         <v>1</v>
       </c>
     </row>
     <row r="87" spans="1:4" ht="29" x14ac:dyDescent="0.35">
-      <c r="A87" s="5">
-        <v>2007</v>
-      </c>
-      <c r="B87" s="18">
+      <c r="A87" s="4">
+        <v>2007</v>
+      </c>
+      <c r="B87" s="16">
         <v>67</v>
       </c>
-      <c r="C87" s="19" t="s">
+      <c r="C87" s="22" t="s">
         <v>9</v>
       </c>
       <c r="D87" s="2">
@@ -4747,13 +4737,13 @@
       </c>
     </row>
     <row r="88" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A88" s="5">
-        <v>2007</v>
-      </c>
-      <c r="B88" s="18">
+      <c r="A88" s="4">
+        <v>2007</v>
+      </c>
+      <c r="B88" s="16">
         <v>67</v>
       </c>
-      <c r="C88" s="19" t="s">
+      <c r="C88" s="22" t="s">
         <v>39</v>
       </c>
       <c r="D88" s="2">
@@ -4761,13 +4751,13 @@
       </c>
     </row>
     <row r="89" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A89" s="5">
-        <v>2007</v>
-      </c>
-      <c r="B89" s="18">
+      <c r="A89" s="4">
+        <v>2007</v>
+      </c>
+      <c r="B89" s="16">
         <v>67</v>
       </c>
-      <c r="C89" s="19" t="s">
+      <c r="C89" s="22" t="s">
         <v>38</v>
       </c>
       <c r="D89" s="2">
@@ -4775,13 +4765,13 @@
       </c>
     </row>
     <row r="90" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A90" s="5">
-        <v>2007</v>
-      </c>
-      <c r="B90" s="18">
+      <c r="A90" s="4">
+        <v>2007</v>
+      </c>
+      <c r="B90" s="16">
         <v>82</v>
       </c>
-      <c r="C90" s="19" t="s">
+      <c r="C90" s="22" t="s">
         <v>2</v>
       </c>
       <c r="D90" s="2">
@@ -4789,13 +4779,13 @@
       </c>
     </row>
     <row r="91" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A91" s="5">
-        <v>2007</v>
-      </c>
-      <c r="B91" s="18">
+      <c r="A91" s="4">
+        <v>2007</v>
+      </c>
+      <c r="B91" s="16">
         <v>82</v>
       </c>
-      <c r="C91" s="19" t="s">
+      <c r="C91" s="22" t="s">
         <v>3</v>
       </c>
       <c r="D91" s="2">
@@ -4803,13 +4793,13 @@
       </c>
     </row>
     <row r="92" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A92" s="5">
-        <v>2007</v>
-      </c>
-      <c r="B92" s="18">
+      <c r="A92" s="4">
+        <v>2007</v>
+      </c>
+      <c r="B92" s="16">
         <v>82</v>
       </c>
-      <c r="C92" s="19" t="s">
+      <c r="C92" s="22" t="s">
         <v>40</v>
       </c>
       <c r="D92" s="2">
@@ -4817,13 +4807,13 @@
       </c>
     </row>
     <row r="93" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A93" s="5">
-        <v>2007</v>
-      </c>
-      <c r="B93" s="18">
+      <c r="A93" s="4">
+        <v>2007</v>
+      </c>
+      <c r="B93" s="16">
         <v>82</v>
       </c>
-      <c r="C93" s="19" t="s">
+      <c r="C93" s="22" t="s">
         <v>31</v>
       </c>
       <c r="D93" s="2">
@@ -4831,13 +4821,13 @@
       </c>
     </row>
     <row r="94" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A94" s="5">
-        <v>2007</v>
-      </c>
-      <c r="B94" s="18">
+      <c r="A94" s="4">
+        <v>2007</v>
+      </c>
+      <c r="B94" s="16">
         <v>82</v>
       </c>
-      <c r="C94" s="19" t="s">
+      <c r="C94" s="22" t="s">
         <v>41</v>
       </c>
       <c r="D94" s="2">
@@ -4845,13 +4835,13 @@
       </c>
     </row>
     <row r="95" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A95" s="5">
-        <v>2007</v>
-      </c>
-      <c r="B95" s="18">
+      <c r="A95" s="4">
+        <v>2007</v>
+      </c>
+      <c r="B95" s="16">
         <v>82</v>
       </c>
-      <c r="C95" s="19" t="s">
+      <c r="C95" s="22" t="s">
         <v>1</v>
       </c>
       <c r="D95" s="2">
@@ -4859,13 +4849,13 @@
       </c>
     </row>
     <row r="96" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A96" s="5">
-        <v>2007</v>
-      </c>
-      <c r="B96" s="18">
+      <c r="A96" s="4">
+        <v>2007</v>
+      </c>
+      <c r="B96" s="16">
         <v>82</v>
       </c>
-      <c r="C96" s="19" t="s">
+      <c r="C96" s="22" t="s">
         <v>38</v>
       </c>
       <c r="D96" s="2">
@@ -4873,27 +4863,27 @@
       </c>
     </row>
     <row r="97" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A97" s="5">
-        <v>2007</v>
-      </c>
-      <c r="B97" s="18">
+      <c r="A97" s="4">
+        <v>2007</v>
+      </c>
+      <c r="B97" s="16">
         <v>82</v>
       </c>
-      <c r="C97" s="19" t="s">
-        <v>37</v>
+      <c r="C97" s="22" t="s">
+        <v>15</v>
       </c>
       <c r="D97" s="2">
         <v>1</v>
       </c>
     </row>
     <row r="98" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A98" s="5">
-        <v>2007</v>
-      </c>
-      <c r="B98" s="18">
+      <c r="A98" s="4">
+        <v>2007</v>
+      </c>
+      <c r="B98" s="16">
         <v>82</v>
       </c>
-      <c r="C98" s="19" t="s">
+      <c r="C98" s="22" t="s">
         <v>5</v>
       </c>
       <c r="D98" s="2">
@@ -4901,13 +4891,13 @@
       </c>
     </row>
     <row r="99" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A99" s="5">
-        <v>2007</v>
-      </c>
-      <c r="B99" s="18">
+      <c r="A99" s="4">
+        <v>2007</v>
+      </c>
+      <c r="B99" s="16">
         <v>82</v>
       </c>
-      <c r="C99" s="19" t="s">
+      <c r="C99" s="22" t="s">
         <v>35</v>
       </c>
       <c r="D99" s="2">
@@ -4915,13 +4905,13 @@
       </c>
     </row>
     <row r="100" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A100" s="5">
-        <v>2007</v>
-      </c>
-      <c r="B100" s="18">
+      <c r="A100" s="4">
+        <v>2007</v>
+      </c>
+      <c r="B100" s="16">
         <v>82</v>
       </c>
-      <c r="C100" s="19" t="s">
+      <c r="C100" s="22" t="s">
         <v>12</v>
       </c>
       <c r="D100" s="2">
@@ -4929,13 +4919,13 @@
       </c>
     </row>
     <row r="101" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A101" s="5">
-        <v>2007</v>
-      </c>
-      <c r="B101" s="18">
+      <c r="A101" s="4">
+        <v>2007</v>
+      </c>
+      <c r="B101" s="16">
         <v>97</v>
       </c>
-      <c r="C101" s="19" t="s">
+      <c r="C101" s="22" t="s">
         <v>31</v>
       </c>
       <c r="D101" s="2">
@@ -4943,13 +4933,13 @@
       </c>
     </row>
     <row r="102" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A102" s="5">
-        <v>2007</v>
-      </c>
-      <c r="B102" s="18">
+      <c r="A102" s="4">
+        <v>2007</v>
+      </c>
+      <c r="B102" s="16">
         <v>97</v>
       </c>
-      <c r="C102" s="19" t="s">
+      <c r="C102" s="22" t="s">
         <v>1</v>
       </c>
       <c r="D102" s="2">
@@ -4957,13 +4947,13 @@
       </c>
     </row>
     <row r="103" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A103" s="5">
-        <v>2007</v>
-      </c>
-      <c r="B103" s="18">
+      <c r="A103" s="4">
+        <v>2007</v>
+      </c>
+      <c r="B103" s="16">
         <v>97</v>
       </c>
-      <c r="C103" s="19" t="s">
+      <c r="C103" s="22" t="s">
         <v>3</v>
       </c>
       <c r="D103" s="2">
@@ -4971,13 +4961,13 @@
       </c>
     </row>
     <row r="104" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A104" s="5">
-        <v>2007</v>
-      </c>
-      <c r="B104" s="18">
+      <c r="A104" s="4">
+        <v>2007</v>
+      </c>
+      <c r="B104" s="16">
         <v>97</v>
       </c>
-      <c r="C104" s="19" t="s">
+      <c r="C104" s="22" t="s">
         <v>41</v>
       </c>
       <c r="D104" s="2">
@@ -4985,13 +4975,13 @@
       </c>
     </row>
     <row r="105" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A105" s="5">
-        <v>2007</v>
-      </c>
-      <c r="B105" s="18">
+      <c r="A105" s="4">
+        <v>2007</v>
+      </c>
+      <c r="B105" s="16">
         <v>97</v>
       </c>
-      <c r="C105" s="19" t="s">
+      <c r="C105" s="22" t="s">
         <v>33</v>
       </c>
       <c r="D105" s="2">
@@ -4999,13 +4989,13 @@
       </c>
     </row>
     <row r="106" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A106" s="5">
-        <v>2007</v>
-      </c>
-      <c r="B106" s="18">
+      <c r="A106" s="4">
+        <v>2007</v>
+      </c>
+      <c r="B106" s="16">
         <v>97</v>
       </c>
-      <c r="C106" s="19" t="s">
+      <c r="C106" s="22" t="s">
         <v>12</v>
       </c>
       <c r="D106" s="2">
@@ -5013,13 +5003,13 @@
       </c>
     </row>
     <row r="107" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A107" s="5">
-        <v>2007</v>
-      </c>
-      <c r="B107" s="18">
+      <c r="A107" s="4">
+        <v>2007</v>
+      </c>
+      <c r="B107" s="16">
         <v>97</v>
       </c>
-      <c r="C107" s="19" t="s">
+      <c r="C107" s="22" t="s">
         <v>31</v>
       </c>
       <c r="D107" s="2">
@@ -5027,13 +5017,13 @@
       </c>
     </row>
     <row r="108" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A108" s="5">
-        <v>2007</v>
-      </c>
-      <c r="B108" s="18">
+      <c r="A108" s="4">
+        <v>2007</v>
+      </c>
+      <c r="B108" s="16">
         <v>97</v>
       </c>
-      <c r="C108" s="19" t="s">
+      <c r="C108" s="22" t="s">
         <v>2</v>
       </c>
       <c r="D108" s="2">
@@ -5041,13 +5031,13 @@
       </c>
     </row>
     <row r="109" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A109" s="5">
-        <v>2007</v>
-      </c>
-      <c r="B109" s="18">
+      <c r="A109" s="4">
+        <v>2007</v>
+      </c>
+      <c r="B109" s="16">
         <v>97</v>
       </c>
-      <c r="C109" s="19" t="s">
+      <c r="C109" s="22" t="s">
         <v>22</v>
       </c>
       <c r="D109" s="2">
@@ -5055,13 +5045,13 @@
       </c>
     </row>
     <row r="110" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A110" s="5">
-        <v>2007</v>
-      </c>
-      <c r="B110" s="18">
+      <c r="A110" s="4">
+        <v>2007</v>
+      </c>
+      <c r="B110" s="16">
         <v>112</v>
       </c>
-      <c r="C110" s="6" t="s">
+      <c r="C110" s="22" t="s">
         <v>3</v>
       </c>
       <c r="D110" s="2">
@@ -5069,13 +5059,13 @@
       </c>
     </row>
     <row r="111" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A111" s="5">
-        <v>2007</v>
-      </c>
-      <c r="B111" s="18">
+      <c r="A111" s="4">
+        <v>2007</v>
+      </c>
+      <c r="B111" s="16">
         <v>112</v>
       </c>
-      <c r="C111" s="5" t="s">
+      <c r="C111" s="22" t="s">
         <v>12</v>
       </c>
       <c r="D111" s="2">
@@ -5083,13 +5073,13 @@
       </c>
     </row>
     <row r="112" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A112" s="5">
-        <v>2007</v>
-      </c>
-      <c r="B112" s="18">
+      <c r="A112" s="4">
+        <v>2007</v>
+      </c>
+      <c r="B112" s="16">
         <v>112</v>
       </c>
-      <c r="C112" s="19" t="s">
+      <c r="C112" s="22" t="s">
         <v>2</v>
       </c>
       <c r="D112" s="2">
@@ -5097,13 +5087,13 @@
       </c>
     </row>
     <row r="113" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A113" s="5">
-        <v>2007</v>
-      </c>
-      <c r="B113" s="18">
+      <c r="A113" s="4">
+        <v>2007</v>
+      </c>
+      <c r="B113" s="16">
         <v>112</v>
       </c>
-      <c r="C113" s="6" t="s">
+      <c r="C113" s="22" t="s">
         <v>35</v>
       </c>
       <c r="D113" s="2">
@@ -5111,13 +5101,13 @@
       </c>
     </row>
     <row r="114" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A114" s="5">
+      <c r="A114" s="4">
         <v>2007</v>
       </c>
       <c r="B114" s="2">
         <v>127</v>
       </c>
-      <c r="C114" s="5" t="s">
+      <c r="C114" s="22" t="s">
         <v>2</v>
       </c>
       <c r="D114" s="2">
@@ -5125,13 +5115,13 @@
       </c>
     </row>
     <row r="115" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A115" s="5">
-        <v>2007</v>
-      </c>
-      <c r="B115" s="18">
+      <c r="A115" s="4">
+        <v>2007</v>
+      </c>
+      <c r="B115" s="16">
         <v>127</v>
       </c>
-      <c r="C115" s="6" t="s">
+      <c r="C115" s="22" t="s">
         <v>3</v>
       </c>
       <c r="D115" s="2">
@@ -5139,27 +5129,27 @@
       </c>
     </row>
     <row r="116" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A116" s="5">
-        <v>2007</v>
-      </c>
-      <c r="B116" s="18">
+      <c r="A116" s="4">
+        <v>2007</v>
+      </c>
+      <c r="B116" s="16">
         <v>127</v>
       </c>
-      <c r="C116" s="6" t="s">
-        <v>53</v>
+      <c r="C116" s="22" t="s">
+        <v>1</v>
       </c>
       <c r="D116" s="2">
         <v>3</v>
       </c>
     </row>
     <row r="117" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A117" s="5">
-        <v>2007</v>
-      </c>
-      <c r="B117" s="18">
+      <c r="A117" s="4">
+        <v>2007</v>
+      </c>
+      <c r="B117" s="16">
         <v>127</v>
       </c>
-      <c r="C117" s="5" t="s">
+      <c r="C117" s="22" t="s">
         <v>12</v>
       </c>
       <c r="D117" s="2">
@@ -5167,13 +5157,13 @@
       </c>
     </row>
     <row r="118" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A118" s="5">
-        <v>2007</v>
-      </c>
-      <c r="B118" s="18">
+      <c r="A118" s="4">
+        <v>2007</v>
+      </c>
+      <c r="B118" s="16">
         <v>127</v>
       </c>
-      <c r="C118" s="6" t="s">
+      <c r="C118" s="22" t="s">
         <v>54</v>
       </c>
       <c r="D118" s="2">
@@ -5181,13 +5171,13 @@
       </c>
     </row>
     <row r="119" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A119" s="5">
+      <c r="A119" s="4">
         <v>2007</v>
       </c>
       <c r="B119" s="2">
         <v>142</v>
       </c>
-      <c r="C119" s="6" t="s">
+      <c r="C119" s="22" t="s">
         <v>55</v>
       </c>
       <c r="D119" s="2">
@@ -5195,13 +5185,13 @@
       </c>
     </row>
     <row r="120" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A120" s="5">
-        <v>2007</v>
-      </c>
-      <c r="B120" s="18">
+      <c r="A120" s="4">
+        <v>2007</v>
+      </c>
+      <c r="B120" s="16">
         <v>142</v>
       </c>
-      <c r="C120" s="6" t="s">
+      <c r="C120" s="22" t="s">
         <v>3</v>
       </c>
       <c r="D120" s="2">
@@ -5209,13 +5199,13 @@
       </c>
     </row>
     <row r="121" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A121" s="5">
-        <v>2007</v>
-      </c>
-      <c r="B121" s="18">
+      <c r="A121" s="4">
+        <v>2007</v>
+      </c>
+      <c r="B121" s="16">
         <v>142</v>
       </c>
-      <c r="C121" s="19" t="s">
+      <c r="C121" s="22" t="s">
         <v>2</v>
       </c>
       <c r="D121" s="2">
@@ -5223,13 +5213,13 @@
       </c>
     </row>
     <row r="122" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A122" s="5">
+      <c r="A122" s="4">
         <v>2007</v>
       </c>
       <c r="B122" s="2">
         <v>162</v>
       </c>
-      <c r="C122" s="19" t="s">
+      <c r="C122" s="22" t="s">
         <v>2</v>
       </c>
       <c r="D122" s="2">
@@ -5237,13 +5227,13 @@
       </c>
     </row>
     <row r="123" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A123" s="5">
-        <v>2007</v>
-      </c>
-      <c r="B123" s="18">
+      <c r="A123" s="4">
+        <v>2007</v>
+      </c>
+      <c r="B123" s="16">
         <v>162</v>
       </c>
-      <c r="C123" s="2" t="s">
+      <c r="C123" s="23" t="s">
         <v>12</v>
       </c>
       <c r="D123" s="2">
@@ -5251,13 +5241,13 @@
       </c>
     </row>
     <row r="124" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A124" s="5">
-        <v>2007</v>
-      </c>
-      <c r="B124" s="18">
+      <c r="A124" s="4">
+        <v>2007</v>
+      </c>
+      <c r="B124" s="16">
         <v>177</v>
       </c>
-      <c r="C124" s="5" t="s">
+      <c r="C124" s="22" t="s">
         <v>31</v>
       </c>
       <c r="D124" s="2">
@@ -5265,13 +5255,13 @@
       </c>
     </row>
     <row r="125" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A125" s="5">
-        <v>2007</v>
-      </c>
-      <c r="B125" s="18">
+      <c r="A125" s="4">
+        <v>2007</v>
+      </c>
+      <c r="B125" s="16">
         <v>177</v>
       </c>
-      <c r="C125" s="6" t="s">
+      <c r="C125" s="22" t="s">
         <v>56</v>
       </c>
       <c r="D125" s="2">
@@ -5279,13 +5269,13 @@
       </c>
     </row>
     <row r="126" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A126" s="5">
+      <c r="A126" s="4">
         <v>2007</v>
       </c>
       <c r="B126" s="2">
         <v>177</v>
       </c>
-      <c r="C126" s="6" t="s">
+      <c r="C126" s="22" t="s">
         <v>57</v>
       </c>
       <c r="D126" s="2">
@@ -5293,13 +5283,13 @@
       </c>
     </row>
     <row r="127" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A127" s="5">
-        <v>2007</v>
-      </c>
-      <c r="B127" s="18">
+      <c r="A127" s="4">
+        <v>2007</v>
+      </c>
+      <c r="B127" s="16">
         <v>177</v>
       </c>
-      <c r="C127" s="6" t="s">
+      <c r="C127" s="22" t="s">
         <v>63</v>
       </c>
       <c r="D127" s="2">
@@ -5307,28 +5297,28 @@
       </c>
     </row>
     <row r="128" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A128" s="5">
-        <v>2007</v>
-      </c>
-      <c r="B128" s="18">
+      <c r="A128" s="4">
+        <v>2007</v>
+      </c>
+      <c r="B128" s="16">
         <v>177</v>
       </c>
-      <c r="C128" s="6" t="s">
-        <v>53</v>
+      <c r="C128" s="22" t="s">
+        <v>1</v>
       </c>
       <c r="D128" s="2">
         <v>5</v>
       </c>
     </row>
     <row r="129" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A129" s="5">
-        <v>2007</v>
-      </c>
-      <c r="B129" s="18">
+      <c r="A129" s="4">
+        <v>2007</v>
+      </c>
+      <c r="B129" s="16">
         <v>177</v>
       </c>
-      <c r="C129" s="6" t="s">
-        <v>59</v>
+      <c r="C129" s="22" t="s">
+        <v>5</v>
       </c>
       <c r="D129" s="2">
         <v>2</v>
@@ -5374,15 +5364,15 @@
       </c>
     </row>
     <row r="3" spans="1:11" hidden="1" x14ac:dyDescent="0.35">
-      <c r="A3" s="9" t="s">
+      <c r="A3" s="7" t="s">
         <v>28</v>
       </c>
-      <c r="B3" s="9" t="s">
+      <c r="B3" s="7" t="s">
         <v>24</v>
       </c>
     </row>
     <row r="4" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="A4" s="9" t="s">
+      <c r="A4" s="7" t="s">
         <v>27</v>
       </c>
       <c r="B4">
@@ -5414,796 +5404,796 @@
       </c>
     </row>
     <row r="5" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="A5" s="10" t="s">
+      <c r="A5" s="8" t="s">
         <v>3</v>
       </c>
-      <c r="B5" s="14">
+      <c r="B5" s="12">
         <v>2.976190476190476E-2</v>
       </c>
-      <c r="C5" s="14">
+      <c r="C5" s="12">
         <v>3.5714285714285712E-2</v>
       </c>
-      <c r="D5" s="14">
+      <c r="D5" s="12">
         <v>1.7857142857142856E-2</v>
       </c>
-      <c r="E5" s="14">
+      <c r="E5" s="12">
         <v>1.1904761904761904E-2</v>
       </c>
-      <c r="F5" s="14">
+      <c r="F5" s="12">
         <v>2.3809523809523808E-2</v>
       </c>
-      <c r="G5" s="14">
+      <c r="G5" s="12">
         <v>1.7857142857142856E-2</v>
       </c>
-      <c r="H5" s="14">
+      <c r="H5" s="12">
         <v>3.5714285714285712E-2</v>
       </c>
-      <c r="I5" s="14">
-        <v>0</v>
-      </c>
-      <c r="J5" s="14">
+      <c r="I5" s="12">
+        <v>0</v>
+      </c>
+      <c r="J5" s="12">
         <v>0.17261904761904762</v>
       </c>
-      <c r="K5" s="13"/>
+      <c r="K5" s="11"/>
     </row>
     <row r="6" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="A6" s="10" t="s">
+      <c r="A6" s="8" t="s">
         <v>21</v>
       </c>
-      <c r="B6" s="14">
-        <v>0</v>
-      </c>
-      <c r="C6" s="14">
-        <v>0</v>
-      </c>
-      <c r="D6" s="14">
-        <v>0</v>
-      </c>
-      <c r="E6" s="14">
-        <v>0</v>
-      </c>
-      <c r="F6" s="14">
+      <c r="B6" s="12">
+        <v>0</v>
+      </c>
+      <c r="C6" s="12">
+        <v>0</v>
+      </c>
+      <c r="D6" s="12">
+        <v>0</v>
+      </c>
+      <c r="E6" s="12">
+        <v>0</v>
+      </c>
+      <c r="F6" s="12">
         <v>5.9523809523809521E-3</v>
       </c>
-      <c r="G6" s="14">
-        <v>0</v>
-      </c>
-      <c r="H6" s="14">
-        <v>0</v>
-      </c>
-      <c r="I6" s="14">
-        <v>0</v>
-      </c>
-      <c r="J6" s="14">
+      <c r="G6" s="12">
+        <v>0</v>
+      </c>
+      <c r="H6" s="12">
+        <v>0</v>
+      </c>
+      <c r="I6" s="12">
+        <v>0</v>
+      </c>
+      <c r="J6" s="12">
         <v>5.9523809523809521E-3</v>
       </c>
-      <c r="K6" s="13"/>
+      <c r="K6" s="11"/>
     </row>
     <row r="7" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="A7" s="10" t="s">
+      <c r="A7" s="8" t="s">
         <v>17</v>
       </c>
-      <c r="B7" s="14">
-        <v>0</v>
-      </c>
-      <c r="C7" s="14">
-        <v>0</v>
-      </c>
-      <c r="D7" s="14">
-        <v>0</v>
-      </c>
-      <c r="E7" s="14">
+      <c r="B7" s="12">
+        <v>0</v>
+      </c>
+      <c r="C7" s="12">
+        <v>0</v>
+      </c>
+      <c r="D7" s="12">
+        <v>0</v>
+      </c>
+      <c r="E7" s="12">
         <v>5.9523809523809521E-3</v>
       </c>
-      <c r="F7" s="14">
-        <v>0</v>
-      </c>
-      <c r="G7" s="14">
-        <v>0</v>
-      </c>
-      <c r="H7" s="14">
-        <v>0</v>
-      </c>
-      <c r="I7" s="14">
-        <v>0</v>
-      </c>
-      <c r="J7" s="14">
+      <c r="F7" s="12">
+        <v>0</v>
+      </c>
+      <c r="G7" s="12">
+        <v>0</v>
+      </c>
+      <c r="H7" s="12">
+        <v>0</v>
+      </c>
+      <c r="I7" s="12">
+        <v>0</v>
+      </c>
+      <c r="J7" s="12">
         <v>5.9523809523809521E-3</v>
       </c>
-      <c r="K7" s="10"/>
+      <c r="K7" s="8"/>
     </row>
     <row r="8" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="A8" s="10" t="s">
+      <c r="A8" s="8" t="s">
         <v>11</v>
       </c>
-      <c r="B8" s="14">
-        <v>0</v>
-      </c>
-      <c r="C8" s="14">
-        <v>0</v>
-      </c>
-      <c r="D8" s="14">
+      <c r="B8" s="12">
+        <v>0</v>
+      </c>
+      <c r="C8" s="12">
+        <v>0</v>
+      </c>
+      <c r="D8" s="12">
         <v>5.9523809523809521E-3</v>
       </c>
-      <c r="E8" s="14">
-        <v>0</v>
-      </c>
-      <c r="F8" s="14">
-        <v>0</v>
-      </c>
-      <c r="G8" s="14">
-        <v>0</v>
-      </c>
-      <c r="H8" s="14">
-        <v>0</v>
-      </c>
-      <c r="I8" s="14">
-        <v>0</v>
-      </c>
-      <c r="J8" s="14">
+      <c r="E8" s="12">
+        <v>0</v>
+      </c>
+      <c r="F8" s="12">
+        <v>0</v>
+      </c>
+      <c r="G8" s="12">
+        <v>0</v>
+      </c>
+      <c r="H8" s="12">
+        <v>0</v>
+      </c>
+      <c r="I8" s="12">
+        <v>0</v>
+      </c>
+      <c r="J8" s="12">
         <v>5.9523809523809521E-3</v>
       </c>
-      <c r="K8" s="10"/>
+      <c r="K8" s="8"/>
     </row>
     <row r="9" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="A9" s="10" t="s">
+      <c r="A9" s="8" t="s">
         <v>20</v>
       </c>
-      <c r="B9" s="14">
-        <v>0</v>
-      </c>
-      <c r="C9" s="14">
-        <v>0</v>
-      </c>
-      <c r="D9" s="14">
-        <v>0</v>
-      </c>
-      <c r="E9" s="14">
-        <v>0</v>
-      </c>
-      <c r="F9" s="14">
+      <c r="B9" s="12">
+        <v>0</v>
+      </c>
+      <c r="C9" s="12">
+        <v>0</v>
+      </c>
+      <c r="D9" s="12">
+        <v>0</v>
+      </c>
+      <c r="E9" s="12">
+        <v>0</v>
+      </c>
+      <c r="F9" s="12">
         <v>5.9523809523809521E-3</v>
       </c>
-      <c r="G9" s="14">
-        <v>0</v>
-      </c>
-      <c r="H9" s="14">
-        <v>0</v>
-      </c>
-      <c r="I9" s="14">
-        <v>0</v>
-      </c>
-      <c r="J9" s="14">
+      <c r="G9" s="12">
+        <v>0</v>
+      </c>
+      <c r="H9" s="12">
+        <v>0</v>
+      </c>
+      <c r="I9" s="12">
+        <v>0</v>
+      </c>
+      <c r="J9" s="12">
         <v>5.9523809523809521E-3</v>
       </c>
-      <c r="K9" s="10"/>
+      <c r="K9" s="8"/>
     </row>
     <row r="10" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="A10" s="10" t="s">
+      <c r="A10" s="8" t="s">
         <v>2</v>
       </c>
-      <c r="B10" s="14">
+      <c r="B10" s="12">
         <v>2.3809523809523808E-2</v>
       </c>
-      <c r="C10" s="14">
+      <c r="C10" s="12">
         <v>1.7857142857142856E-2</v>
       </c>
-      <c r="D10" s="14">
+      <c r="D10" s="12">
         <v>1.1904761904761904E-2</v>
       </c>
-      <c r="E10" s="14">
-        <v>0</v>
-      </c>
-      <c r="F10" s="14">
+      <c r="E10" s="12">
+        <v>0</v>
+      </c>
+      <c r="F10" s="12">
         <v>3.5714285714285712E-2</v>
       </c>
-      <c r="G10" s="14">
+      <c r="G10" s="12">
         <v>4.1666666666666664E-2</v>
       </c>
-      <c r="H10" s="14">
+      <c r="H10" s="12">
         <v>2.3809523809523808E-2</v>
       </c>
-      <c r="I10" s="14">
-        <v>0</v>
-      </c>
-      <c r="J10" s="14">
+      <c r="I10" s="12">
+        <v>0</v>
+      </c>
+      <c r="J10" s="12">
         <v>0.15476190476190477</v>
       </c>
-      <c r="K10" s="10"/>
+      <c r="K10" s="8"/>
     </row>
     <row r="11" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="A11" s="10" t="s">
+      <c r="A11" s="8" t="s">
         <v>16</v>
       </c>
-      <c r="B11" s="14">
-        <v>0</v>
-      </c>
-      <c r="C11" s="14">
-        <v>0</v>
-      </c>
-      <c r="D11" s="14">
-        <v>0</v>
-      </c>
-      <c r="E11" s="14">
+      <c r="B11" s="12">
+        <v>0</v>
+      </c>
+      <c r="C11" s="12">
+        <v>0</v>
+      </c>
+      <c r="D11" s="12">
+        <v>0</v>
+      </c>
+      <c r="E11" s="12">
         <v>5.9523809523809521E-2</v>
       </c>
-      <c r="F11" s="14">
-        <v>0</v>
-      </c>
-      <c r="G11" s="14">
-        <v>0</v>
-      </c>
-      <c r="H11" s="14">
-        <v>0</v>
-      </c>
-      <c r="I11" s="14">
-        <v>0</v>
-      </c>
-      <c r="J11" s="14">
+      <c r="F11" s="12">
+        <v>0</v>
+      </c>
+      <c r="G11" s="12">
+        <v>0</v>
+      </c>
+      <c r="H11" s="12">
+        <v>0</v>
+      </c>
+      <c r="I11" s="12">
+        <v>0</v>
+      </c>
+      <c r="J11" s="12">
         <v>5.9523809523809521E-2</v>
       </c>
-      <c r="K11" s="10"/>
+      <c r="K11" s="8"/>
     </row>
     <row r="12" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="A12" s="10" t="s">
+      <c r="A12" s="8" t="s">
         <v>14</v>
       </c>
-      <c r="B12" s="14">
-        <v>0</v>
-      </c>
-      <c r="C12" s="14">
-        <v>0</v>
-      </c>
-      <c r="D12" s="14">
+      <c r="B12" s="12">
+        <v>0</v>
+      </c>
+      <c r="C12" s="12">
+        <v>0</v>
+      </c>
+      <c r="D12" s="12">
         <v>5.9523809523809521E-3</v>
       </c>
-      <c r="E12" s="14">
-        <v>0</v>
-      </c>
-      <c r="F12" s="14">
-        <v>0</v>
-      </c>
-      <c r="G12" s="14">
-        <v>0</v>
-      </c>
-      <c r="H12" s="14">
-        <v>0</v>
-      </c>
-      <c r="I12" s="14">
-        <v>0</v>
-      </c>
-      <c r="J12" s="14">
+      <c r="E12" s="12">
+        <v>0</v>
+      </c>
+      <c r="F12" s="12">
+        <v>0</v>
+      </c>
+      <c r="G12" s="12">
+        <v>0</v>
+      </c>
+      <c r="H12" s="12">
+        <v>0</v>
+      </c>
+      <c r="I12" s="12">
+        <v>0</v>
+      </c>
+      <c r="J12" s="12">
         <v>5.9523809523809521E-3</v>
       </c>
-      <c r="K12" s="10"/>
+      <c r="K12" s="8"/>
     </row>
     <row r="13" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="A13" s="10" t="s">
+      <c r="A13" s="8" t="s">
         <v>4</v>
       </c>
-      <c r="B13" s="14">
+      <c r="B13" s="12">
         <v>5.9523809523809521E-3</v>
       </c>
-      <c r="C13" s="14">
-        <v>0</v>
-      </c>
-      <c r="D13" s="14">
-        <v>0</v>
-      </c>
-      <c r="E13" s="14">
-        <v>0</v>
-      </c>
-      <c r="F13" s="14">
-        <v>0</v>
-      </c>
-      <c r="G13" s="14">
-        <v>0</v>
-      </c>
-      <c r="H13" s="14">
-        <v>0</v>
-      </c>
-      <c r="I13" s="14">
-        <v>0</v>
-      </c>
-      <c r="J13" s="14">
+      <c r="C13" s="12">
+        <v>0</v>
+      </c>
+      <c r="D13" s="12">
+        <v>0</v>
+      </c>
+      <c r="E13" s="12">
+        <v>0</v>
+      </c>
+      <c r="F13" s="12">
+        <v>0</v>
+      </c>
+      <c r="G13" s="12">
+        <v>0</v>
+      </c>
+      <c r="H13" s="12">
+        <v>0</v>
+      </c>
+      <c r="I13" s="12">
+        <v>0</v>
+      </c>
+      <c r="J13" s="12">
         <v>5.9523809523809521E-3</v>
       </c>
-      <c r="K13" s="10"/>
+      <c r="K13" s="8"/>
     </row>
     <row r="14" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="A14" s="10" t="s">
+      <c r="A14" s="8" t="s">
         <v>22</v>
       </c>
-      <c r="B14" s="14">
-        <v>0</v>
-      </c>
-      <c r="C14" s="14">
-        <v>0</v>
-      </c>
-      <c r="D14" s="14">
-        <v>0</v>
-      </c>
-      <c r="E14" s="14">
-        <v>0</v>
-      </c>
-      <c r="F14" s="14">
+      <c r="B14" s="12">
+        <v>0</v>
+      </c>
+      <c r="C14" s="12">
+        <v>0</v>
+      </c>
+      <c r="D14" s="12">
+        <v>0</v>
+      </c>
+      <c r="E14" s="12">
+        <v>0</v>
+      </c>
+      <c r="F14" s="12">
         <v>2.3809523809523808E-2</v>
       </c>
-      <c r="G14" s="14">
-        <v>0</v>
-      </c>
-      <c r="H14" s="14">
+      <c r="G14" s="12">
+        <v>0</v>
+      </c>
+      <c r="H14" s="12">
         <v>5.9523809523809521E-3</v>
       </c>
-      <c r="I14" s="14">
-        <v>0</v>
-      </c>
-      <c r="J14" s="14">
+      <c r="I14" s="12">
+        <v>0</v>
+      </c>
+      <c r="J14" s="12">
         <v>2.976190476190476E-2</v>
       </c>
-      <c r="K14" s="10"/>
+      <c r="K14" s="8"/>
     </row>
     <row r="15" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="A15" s="10" t="s">
+      <c r="A15" s="8" t="s">
         <v>7</v>
       </c>
-      <c r="B15" s="14">
-        <v>0</v>
-      </c>
-      <c r="C15" s="14">
+      <c r="B15" s="12">
+        <v>0</v>
+      </c>
+      <c r="C15" s="12">
         <v>5.9523809523809521E-3</v>
       </c>
-      <c r="D15" s="14">
-        <v>0</v>
-      </c>
-      <c r="E15" s="14">
-        <v>0</v>
-      </c>
-      <c r="F15" s="14">
-        <v>0</v>
-      </c>
-      <c r="G15" s="14">
-        <v>0</v>
-      </c>
-      <c r="H15" s="14">
+      <c r="D15" s="12">
+        <v>0</v>
+      </c>
+      <c r="E15" s="12">
+        <v>0</v>
+      </c>
+      <c r="F15" s="12">
+        <v>0</v>
+      </c>
+      <c r="G15" s="12">
+        <v>0</v>
+      </c>
+      <c r="H15" s="12">
         <v>5.9523809523809521E-3</v>
       </c>
-      <c r="I15" s="14">
-        <v>0</v>
-      </c>
-      <c r="J15" s="14">
+      <c r="I15" s="12">
+        <v>0</v>
+      </c>
+      <c r="J15" s="12">
         <v>1.1904761904761904E-2</v>
       </c>
-      <c r="K15" s="10"/>
+      <c r="K15" s="8"/>
     </row>
     <row r="16" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="A16" s="10" t="s">
+      <c r="A16" s="8" t="s">
         <v>12</v>
       </c>
-      <c r="B16" s="14">
-        <v>0</v>
-      </c>
-      <c r="C16" s="14">
-        <v>0</v>
-      </c>
-      <c r="D16" s="14">
+      <c r="B16" s="12">
+        <v>0</v>
+      </c>
+      <c r="C16" s="12">
+        <v>0</v>
+      </c>
+      <c r="D16" s="12">
         <v>5.9523809523809521E-3</v>
       </c>
-      <c r="E16" s="14">
-        <v>0</v>
-      </c>
-      <c r="F16" s="14">
+      <c r="E16" s="12">
+        <v>0</v>
+      </c>
+      <c r="F16" s="12">
         <v>5.9523809523809521E-3</v>
       </c>
-      <c r="G16" s="14">
-        <v>0</v>
-      </c>
-      <c r="H16" s="14">
-        <v>0</v>
-      </c>
-      <c r="I16" s="14">
-        <v>0</v>
-      </c>
-      <c r="J16" s="14">
+      <c r="G16" s="12">
+        <v>0</v>
+      </c>
+      <c r="H16" s="12">
+        <v>0</v>
+      </c>
+      <c r="I16" s="12">
+        <v>0</v>
+      </c>
+      <c r="J16" s="12">
         <v>1.1904761904761904E-2</v>
       </c>
-      <c r="K16" s="10"/>
+      <c r="K16" s="8"/>
     </row>
     <row r="17" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="A17" s="10" t="s">
+      <c r="A17" s="8" t="s">
         <v>13</v>
       </c>
-      <c r="B17" s="14">
-        <v>0</v>
-      </c>
-      <c r="C17" s="14">
-        <v>0</v>
-      </c>
-      <c r="D17" s="14">
+      <c r="B17" s="12">
+        <v>0</v>
+      </c>
+      <c r="C17" s="12">
+        <v>0</v>
+      </c>
+      <c r="D17" s="12">
         <v>5.9523809523809521E-3</v>
       </c>
-      <c r="E17" s="14">
-        <v>0</v>
-      </c>
-      <c r="F17" s="14">
-        <v>0</v>
-      </c>
-      <c r="G17" s="14">
-        <v>0</v>
-      </c>
-      <c r="H17" s="14">
-        <v>0</v>
-      </c>
-      <c r="I17" s="14">
-        <v>0</v>
-      </c>
-      <c r="J17" s="14">
+      <c r="E17" s="12">
+        <v>0</v>
+      </c>
+      <c r="F17" s="12">
+        <v>0</v>
+      </c>
+      <c r="G17" s="12">
+        <v>0</v>
+      </c>
+      <c r="H17" s="12">
+        <v>0</v>
+      </c>
+      <c r="I17" s="12">
+        <v>0</v>
+      </c>
+      <c r="J17" s="12">
         <v>5.9523809523809521E-3</v>
       </c>
-      <c r="K17" s="10"/>
+      <c r="K17" s="8"/>
     </row>
     <row r="18" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="A18" s="10" t="s">
+      <c r="A18" s="8" t="s">
         <v>6</v>
       </c>
-      <c r="B18" s="14">
-        <v>0</v>
-      </c>
-      <c r="C18" s="14">
+      <c r="B18" s="12">
+        <v>0</v>
+      </c>
+      <c r="C18" s="12">
         <v>5.9523809523809521E-3</v>
       </c>
-      <c r="D18" s="14">
-        <v>0</v>
-      </c>
-      <c r="E18" s="14">
-        <v>0</v>
-      </c>
-      <c r="F18" s="14">
-        <v>0</v>
-      </c>
-      <c r="G18" s="14">
-        <v>0</v>
-      </c>
-      <c r="H18" s="14">
-        <v>0</v>
-      </c>
-      <c r="I18" s="14">
-        <v>0</v>
-      </c>
-      <c r="J18" s="14">
+      <c r="D18" s="12">
+        <v>0</v>
+      </c>
+      <c r="E18" s="12">
+        <v>0</v>
+      </c>
+      <c r="F18" s="12">
+        <v>0</v>
+      </c>
+      <c r="G18" s="12">
+        <v>0</v>
+      </c>
+      <c r="H18" s="12">
+        <v>0</v>
+      </c>
+      <c r="I18" s="12">
+        <v>0</v>
+      </c>
+      <c r="J18" s="12">
         <v>5.9523809523809521E-3</v>
       </c>
-      <c r="K18" s="10"/>
+      <c r="K18" s="8"/>
     </row>
     <row r="19" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="A19" s="10" t="s">
+      <c r="A19" s="8" t="s">
         <v>18</v>
       </c>
-      <c r="B19" s="14">
-        <v>0</v>
-      </c>
-      <c r="C19" s="14">
-        <v>0</v>
-      </c>
-      <c r="D19" s="14">
-        <v>0</v>
-      </c>
-      <c r="E19" s="14">
+      <c r="B19" s="12">
+        <v>0</v>
+      </c>
+      <c r="C19" s="12">
+        <v>0</v>
+      </c>
+      <c r="D19" s="12">
+        <v>0</v>
+      </c>
+      <c r="E19" s="12">
         <v>5.9523809523809521E-3</v>
       </c>
-      <c r="F19" s="14">
-        <v>0</v>
-      </c>
-      <c r="G19" s="14">
-        <v>0</v>
-      </c>
-      <c r="H19" s="14">
-        <v>0</v>
-      </c>
-      <c r="I19" s="14">
-        <v>0</v>
-      </c>
-      <c r="J19" s="14">
+      <c r="F19" s="12">
+        <v>0</v>
+      </c>
+      <c r="G19" s="12">
+        <v>0</v>
+      </c>
+      <c r="H19" s="12">
+        <v>0</v>
+      </c>
+      <c r="I19" s="12">
+        <v>0</v>
+      </c>
+      <c r="J19" s="12">
         <v>5.9523809523809521E-3</v>
       </c>
-      <c r="K19" s="10"/>
+      <c r="K19" s="8"/>
     </row>
     <row r="20" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="A20" s="10" t="s">
+      <c r="A20" s="8" t="s">
         <v>10</v>
       </c>
-      <c r="B20" s="14">
-        <v>0</v>
-      </c>
-      <c r="C20" s="14">
+      <c r="B20" s="12">
+        <v>0</v>
+      </c>
+      <c r="C20" s="12">
         <v>5.9523809523809521E-3</v>
       </c>
-      <c r="D20" s="14">
-        <v>0</v>
-      </c>
-      <c r="E20" s="14">
+      <c r="D20" s="12">
+        <v>0</v>
+      </c>
+      <c r="E20" s="12">
         <v>5.9523809523809521E-3</v>
       </c>
-      <c r="F20" s="14">
-        <v>0</v>
-      </c>
-      <c r="G20" s="14">
+      <c r="F20" s="12">
+        <v>0</v>
+      </c>
+      <c r="G20" s="12">
         <v>5.9523809523809521E-3</v>
       </c>
-      <c r="H20" s="14">
-        <v>0</v>
-      </c>
-      <c r="I20" s="14">
-        <v>0</v>
-      </c>
-      <c r="J20" s="14">
+      <c r="H20" s="12">
+        <v>0</v>
+      </c>
+      <c r="I20" s="12">
+        <v>0</v>
+      </c>
+      <c r="J20" s="12">
         <v>1.7857142857142856E-2</v>
       </c>
-      <c r="K20" s="10"/>
+      <c r="K20" s="8"/>
     </row>
     <row r="21" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="A21" s="10" t="s">
+      <c r="A21" s="8" t="s">
         <v>9</v>
       </c>
-      <c r="B21" s="14">
-        <v>0</v>
-      </c>
-      <c r="C21" s="14">
+      <c r="B21" s="12">
+        <v>0</v>
+      </c>
+      <c r="C21" s="12">
         <v>5.9523809523809521E-3</v>
       </c>
-      <c r="D21" s="14">
-        <v>0</v>
-      </c>
-      <c r="E21" s="14">
-        <v>0</v>
-      </c>
-      <c r="F21" s="14">
-        <v>0</v>
-      </c>
-      <c r="G21" s="14">
-        <v>0</v>
-      </c>
-      <c r="H21" s="14">
-        <v>0</v>
-      </c>
-      <c r="I21" s="14">
-        <v>0</v>
-      </c>
-      <c r="J21" s="14">
+      <c r="D21" s="12">
+        <v>0</v>
+      </c>
+      <c r="E21" s="12">
+        <v>0</v>
+      </c>
+      <c r="F21" s="12">
+        <v>0</v>
+      </c>
+      <c r="G21" s="12">
+        <v>0</v>
+      </c>
+      <c r="H21" s="12">
+        <v>0</v>
+      </c>
+      <c r="I21" s="12">
+        <v>0</v>
+      </c>
+      <c r="J21" s="12">
         <v>5.9523809523809521E-3</v>
       </c>
-      <c r="K21" s="10"/>
+      <c r="K21" s="8"/>
     </row>
     <row r="22" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="A22" s="10" t="s">
+      <c r="A22" s="8" t="s">
         <v>8</v>
       </c>
-      <c r="B22" s="14">
-        <v>0</v>
-      </c>
-      <c r="C22" s="14">
+      <c r="B22" s="12">
+        <v>0</v>
+      </c>
+      <c r="C22" s="12">
         <v>5.9523809523809521E-3</v>
       </c>
-      <c r="D22" s="14">
-        <v>0</v>
-      </c>
-      <c r="E22" s="14">
-        <v>0</v>
-      </c>
-      <c r="F22" s="14">
-        <v>0</v>
-      </c>
-      <c r="G22" s="14">
-        <v>0</v>
-      </c>
-      <c r="H22" s="14">
-        <v>0</v>
-      </c>
-      <c r="I22" s="14">
-        <v>0</v>
-      </c>
-      <c r="J22" s="14">
+      <c r="D22" s="12">
+        <v>0</v>
+      </c>
+      <c r="E22" s="12">
+        <v>0</v>
+      </c>
+      <c r="F22" s="12">
+        <v>0</v>
+      </c>
+      <c r="G22" s="12">
+        <v>0</v>
+      </c>
+      <c r="H22" s="12">
+        <v>0</v>
+      </c>
+      <c r="I22" s="12">
+        <v>0</v>
+      </c>
+      <c r="J22" s="12">
         <v>5.9523809523809521E-3</v>
       </c>
-      <c r="K22" s="10"/>
+      <c r="K22" s="8"/>
     </row>
     <row r="23" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="A23" s="10" t="s">
-        <v>1</v>
-      </c>
-      <c r="B23" s="14">
+      <c r="A23" s="8" t="s">
+        <v>1</v>
+      </c>
+      <c r="B23" s="12">
         <v>7.7380952380952384E-2</v>
       </c>
-      <c r="C23" s="14">
+      <c r="C23" s="12">
         <v>5.9523809523809521E-2</v>
       </c>
-      <c r="D23" s="14">
+      <c r="D23" s="12">
         <v>8.9285714285714288E-2</v>
       </c>
-      <c r="E23" s="14">
+      <c r="E23" s="12">
         <v>4.1666666666666664E-2</v>
       </c>
-      <c r="F23" s="14">
+      <c r="F23" s="12">
         <v>2.976190476190476E-2</v>
       </c>
-      <c r="G23" s="14">
+      <c r="G23" s="12">
         <v>7.1428571428571425E-2</v>
       </c>
-      <c r="H23" s="14">
+      <c r="H23" s="12">
         <v>7.1428571428571425E-2</v>
       </c>
-      <c r="I23" s="14">
-        <v>0</v>
-      </c>
-      <c r="J23" s="14">
+      <c r="I23" s="12">
+        <v>0</v>
+      </c>
+      <c r="J23" s="12">
         <v>0.44047619047619047</v>
       </c>
-      <c r="K23" s="10"/>
+      <c r="K23" s="8"/>
     </row>
     <row r="24" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="A24" s="10" t="s">
+      <c r="A24" s="8" t="s">
         <v>23</v>
       </c>
-      <c r="B24" s="14">
-        <v>0</v>
-      </c>
-      <c r="C24" s="14">
-        <v>0</v>
-      </c>
-      <c r="D24" s="14">
-        <v>0</v>
-      </c>
-      <c r="E24" s="14">
-        <v>0</v>
-      </c>
-      <c r="F24" s="14">
-        <v>0</v>
-      </c>
-      <c r="G24" s="14">
+      <c r="B24" s="12">
+        <v>0</v>
+      </c>
+      <c r="C24" s="12">
+        <v>0</v>
+      </c>
+      <c r="D24" s="12">
+        <v>0</v>
+      </c>
+      <c r="E24" s="12">
+        <v>0</v>
+      </c>
+      <c r="F24" s="12">
+        <v>0</v>
+      </c>
+      <c r="G24" s="12">
         <v>5.9523809523809521E-3</v>
       </c>
-      <c r="H24" s="14">
-        <v>0</v>
-      </c>
-      <c r="I24" s="14">
-        <v>0</v>
-      </c>
-      <c r="J24" s="14">
+      <c r="H24" s="12">
+        <v>0</v>
+      </c>
+      <c r="I24" s="12">
+        <v>0</v>
+      </c>
+      <c r="J24" s="12">
         <v>5.9523809523809521E-3</v>
       </c>
-      <c r="K24" s="10"/>
+      <c r="K24" s="8"/>
     </row>
     <row r="25" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="A25" s="10" t="s">
+      <c r="A25" s="8" t="s">
         <v>5</v>
       </c>
-      <c r="B25" s="14">
-        <v>0</v>
-      </c>
-      <c r="C25" s="14">
+      <c r="B25" s="12">
+        <v>0</v>
+      </c>
+      <c r="C25" s="12">
         <v>5.9523809523809521E-3</v>
       </c>
-      <c r="D25" s="14">
-        <v>0</v>
-      </c>
-      <c r="E25" s="14">
+      <c r="D25" s="12">
+        <v>0</v>
+      </c>
+      <c r="E25" s="12">
         <v>5.9523809523809521E-3</v>
       </c>
-      <c r="F25" s="14">
+      <c r="F25" s="12">
         <v>5.9523809523809521E-3</v>
       </c>
-      <c r="G25" s="14">
-        <v>0</v>
-      </c>
-      <c r="H25" s="14">
-        <v>0</v>
-      </c>
-      <c r="I25" s="14">
-        <v>0</v>
-      </c>
-      <c r="J25" s="14">
+      <c r="G25" s="12">
+        <v>0</v>
+      </c>
+      <c r="H25" s="12">
+        <v>0</v>
+      </c>
+      <c r="I25" s="12">
+        <v>0</v>
+      </c>
+      <c r="J25" s="12">
         <v>1.7857142857142856E-2</v>
       </c>
-      <c r="K25" s="10"/>
+      <c r="K25" s="8"/>
     </row>
     <row r="26" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="A26" s="10" t="s">
+      <c r="A26" s="8" t="s">
         <v>15</v>
       </c>
-      <c r="B26" s="14">
-        <v>0</v>
-      </c>
-      <c r="C26" s="14">
-        <v>0</v>
-      </c>
-      <c r="D26" s="14">
+      <c r="B26" s="12">
+        <v>0</v>
+      </c>
+      <c r="C26" s="12">
+        <v>0</v>
+      </c>
+      <c r="D26" s="12">
         <v>5.9523809523809521E-3</v>
       </c>
-      <c r="E26" s="14">
+      <c r="E26" s="12">
         <v>5.9523809523809521E-3</v>
       </c>
-      <c r="F26" s="14">
-        <v>0</v>
-      </c>
-      <c r="G26" s="14">
-        <v>0</v>
-      </c>
-      <c r="H26" s="14">
-        <v>0</v>
-      </c>
-      <c r="I26" s="14">
-        <v>0</v>
-      </c>
-      <c r="J26" s="14">
+      <c r="F26" s="12">
+        <v>0</v>
+      </c>
+      <c r="G26" s="12">
+        <v>0</v>
+      </c>
+      <c r="H26" s="12">
+        <v>0</v>
+      </c>
+      <c r="I26" s="12">
+        <v>0</v>
+      </c>
+      <c r="J26" s="12">
         <v>1.1904761904761904E-2</v>
       </c>
-      <c r="K26" s="10"/>
+      <c r="K26" s="8"/>
     </row>
     <row r="27" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="A27" s="10" t="s">
+      <c r="A27" s="8" t="s">
         <v>25</v>
       </c>
-      <c r="B27" s="14">
-        <v>0</v>
-      </c>
-      <c r="C27" s="14">
-        <v>0</v>
-      </c>
-      <c r="D27" s="14">
-        <v>0</v>
-      </c>
-      <c r="E27" s="14">
-        <v>0</v>
-      </c>
-      <c r="F27" s="14">
-        <v>0</v>
-      </c>
-      <c r="G27" s="14">
-        <v>0</v>
-      </c>
-      <c r="H27" s="14">
-        <v>0</v>
-      </c>
-      <c r="I27" s="14">
-        <v>0</v>
-      </c>
-      <c r="J27" s="14">
-        <v>0</v>
-      </c>
-      <c r="K27" s="10"/>
+      <c r="B27" s="12">
+        <v>0</v>
+      </c>
+      <c r="C27" s="12">
+        <v>0</v>
+      </c>
+      <c r="D27" s="12">
+        <v>0</v>
+      </c>
+      <c r="E27" s="12">
+        <v>0</v>
+      </c>
+      <c r="F27" s="12">
+        <v>0</v>
+      </c>
+      <c r="G27" s="12">
+        <v>0</v>
+      </c>
+      <c r="H27" s="12">
+        <v>0</v>
+      </c>
+      <c r="I27" s="12">
+        <v>0</v>
+      </c>
+      <c r="J27" s="12">
+        <v>0</v>
+      </c>
+      <c r="K27" s="8"/>
     </row>
     <row r="28" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="A28" s="10" t="s">
+      <c r="A28" s="8" t="s">
         <v>26</v>
       </c>
-      <c r="B28" s="14">
+      <c r="B28" s="12">
         <v>0.13690476190476192</v>
       </c>
-      <c r="C28" s="14">
+      <c r="C28" s="12">
         <v>0.14880952380952381</v>
       </c>
-      <c r="D28" s="14">
+      <c r="D28" s="12">
         <v>0.14880952380952381</v>
       </c>
-      <c r="E28" s="14">
+      <c r="E28" s="12">
         <v>0.14285714285714285</v>
       </c>
-      <c r="F28" s="14">
+      <c r="F28" s="12">
         <v>0.13690476190476192</v>
       </c>
-      <c r="G28" s="14">
+      <c r="G28" s="12">
         <v>0.14285714285714285</v>
       </c>
-      <c r="H28" s="14">
+      <c r="H28" s="12">
         <v>0.14285714285714285</v>
       </c>
-      <c r="I28" s="14">
-        <v>0</v>
-      </c>
-      <c r="J28" s="14">
-        <v>1</v>
-      </c>
-      <c r="K28" s="10"/>
+      <c r="I28" s="12">
+        <v>0</v>
+      </c>
+      <c r="J28" s="12">
+        <v>1</v>
+      </c>
+      <c r="K28" s="8"/>
     </row>
     <row r="31" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A31" s="3">
@@ -6220,7 +6210,7 @@
       <c r="J31" s="3"/>
     </row>
     <row r="32" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="A32" s="17" t="s">
+      <c r="A32" s="15" t="s">
         <v>0</v>
       </c>
       <c r="B32" s="1" t="s">
@@ -6228,15 +6218,15 @@
       </c>
     </row>
     <row r="33" spans="1:10" x14ac:dyDescent="0.35">
-      <c r="A33" s="9" t="s">
+      <c r="A33" s="7" t="s">
         <v>28</v>
       </c>
-      <c r="B33" s="9" t="s">
+      <c r="B33" s="7" t="s">
         <v>24</v>
       </c>
     </row>
     <row r="34" spans="1:10" x14ac:dyDescent="0.35">
-      <c r="A34" s="9" t="s">
+      <c r="A34" s="7" t="s">
         <v>27</v>
       </c>
       <c r="B34">
@@ -6268,866 +6258,866 @@
       </c>
     </row>
     <row r="35" spans="1:10" x14ac:dyDescent="0.35">
-      <c r="A35" s="10" t="s">
+      <c r="A35" s="8" t="s">
         <v>30</v>
       </c>
-      <c r="B35" s="15">
-        <v>0</v>
-      </c>
-      <c r="C35" s="15">
-        <v>0</v>
-      </c>
-      <c r="D35" s="15">
+      <c r="B35" s="13">
+        <v>0</v>
+      </c>
+      <c r="C35" s="13">
+        <v>0</v>
+      </c>
+      <c r="D35" s="13">
         <v>6.2111801242236021E-3</v>
       </c>
-      <c r="E35" s="15">
-        <v>0</v>
-      </c>
-      <c r="F35" s="15">
-        <v>0</v>
-      </c>
-      <c r="G35" s="15">
-        <v>0</v>
-      </c>
-      <c r="H35" s="15">
-        <v>0</v>
-      </c>
-      <c r="I35" s="15">
-        <v>0</v>
-      </c>
-      <c r="J35" s="15">
+      <c r="E35" s="13">
+        <v>0</v>
+      </c>
+      <c r="F35" s="13">
+        <v>0</v>
+      </c>
+      <c r="G35" s="13">
+        <v>0</v>
+      </c>
+      <c r="H35" s="13">
+        <v>0</v>
+      </c>
+      <c r="I35" s="13">
+        <v>0</v>
+      </c>
+      <c r="J35" s="13">
         <v>6.2111801242236021E-3</v>
       </c>
     </row>
     <row r="36" spans="1:10" x14ac:dyDescent="0.35">
-      <c r="A36" s="10" t="s">
+      <c r="A36" s="8" t="s">
         <v>3</v>
       </c>
-      <c r="B36" s="15">
+      <c r="B36" s="13">
         <v>3.7267080745341616E-2</v>
       </c>
-      <c r="C36" s="15">
+      <c r="C36" s="13">
         <v>1.8633540372670808E-2</v>
       </c>
-      <c r="D36" s="15">
+      <c r="D36" s="13">
         <v>8.0745341614906832E-2</v>
       </c>
-      <c r="E36" s="15">
+      <c r="E36" s="13">
         <v>3.7267080745341616E-2</v>
       </c>
-      <c r="F36" s="15">
+      <c r="F36" s="13">
         <v>4.3478260869565216E-2</v>
       </c>
-      <c r="G36" s="15">
+      <c r="G36" s="13">
         <v>7.4534161490683232E-2</v>
       </c>
-      <c r="H36" s="15">
+      <c r="H36" s="13">
         <v>3.7267080745341616E-2</v>
       </c>
-      <c r="I36" s="15">
-        <v>0</v>
-      </c>
-      <c r="J36" s="15">
+      <c r="I36" s="13">
+        <v>0</v>
+      </c>
+      <c r="J36" s="13">
         <v>0.32919254658385094</v>
       </c>
     </row>
     <row r="37" spans="1:10" x14ac:dyDescent="0.35">
-      <c r="A37" s="10" t="s">
+      <c r="A37" s="8" t="s">
         <v>32</v>
       </c>
-      <c r="B37" s="15">
-        <v>0</v>
-      </c>
-      <c r="C37" s="15">
-        <v>0</v>
-      </c>
-      <c r="D37" s="15">
+      <c r="B37" s="13">
+        <v>0</v>
+      </c>
+      <c r="C37" s="13">
+        <v>0</v>
+      </c>
+      <c r="D37" s="13">
         <v>6.2111801242236021E-3</v>
       </c>
-      <c r="E37" s="15">
-        <v>0</v>
-      </c>
-      <c r="F37" s="15">
-        <v>0</v>
-      </c>
-      <c r="G37" s="15">
-        <v>0</v>
-      </c>
-      <c r="H37" s="15">
-        <v>0</v>
-      </c>
-      <c r="I37" s="15">
-        <v>0</v>
-      </c>
-      <c r="J37" s="15">
+      <c r="E37" s="13">
+        <v>0</v>
+      </c>
+      <c r="F37" s="13">
+        <v>0</v>
+      </c>
+      <c r="G37" s="13">
+        <v>0</v>
+      </c>
+      <c r="H37" s="13">
+        <v>0</v>
+      </c>
+      <c r="I37" s="13">
+        <v>0</v>
+      </c>
+      <c r="J37" s="13">
         <v>6.2111801242236021E-3</v>
       </c>
     </row>
     <row r="38" spans="1:10" x14ac:dyDescent="0.35">
-      <c r="A38" s="10" t="s">
+      <c r="A38" s="8" t="s">
         <v>36</v>
       </c>
-      <c r="B38" s="15">
-        <v>0</v>
-      </c>
-      <c r="C38" s="15">
-        <v>0</v>
-      </c>
-      <c r="D38" s="15">
-        <v>0</v>
-      </c>
-      <c r="E38" s="15">
-        <v>0</v>
-      </c>
-      <c r="F38" s="15">
+      <c r="B38" s="13">
+        <v>0</v>
+      </c>
+      <c r="C38" s="13">
+        <v>0</v>
+      </c>
+      <c r="D38" s="13">
+        <v>0</v>
+      </c>
+      <c r="E38" s="13">
+        <v>0</v>
+      </c>
+      <c r="F38" s="13">
         <v>6.2111801242236021E-3</v>
       </c>
-      <c r="G38" s="15">
-        <v>0</v>
-      </c>
-      <c r="H38" s="15">
-        <v>0</v>
-      </c>
-      <c r="I38" s="15">
-        <v>0</v>
-      </c>
-      <c r="J38" s="15">
+      <c r="G38" s="13">
+        <v>0</v>
+      </c>
+      <c r="H38" s="13">
+        <v>0</v>
+      </c>
+      <c r="I38" s="13">
+        <v>0</v>
+      </c>
+      <c r="J38" s="13">
         <v>6.2111801242236021E-3</v>
       </c>
     </row>
     <row r="39" spans="1:10" x14ac:dyDescent="0.35">
-      <c r="A39" s="10" t="s">
+      <c r="A39" s="8" t="s">
         <v>19</v>
       </c>
-      <c r="B39" s="15">
+      <c r="B39" s="13">
         <v>3.1055900621118012E-2</v>
       </c>
-      <c r="C39" s="15">
+      <c r="C39" s="13">
         <v>3.1055900621118012E-2</v>
       </c>
-      <c r="D39" s="15">
+      <c r="D39" s="13">
         <v>3.1055900621118012E-2</v>
       </c>
-      <c r="E39" s="15">
-        <v>0</v>
-      </c>
-      <c r="F39" s="15">
+      <c r="E39" s="13">
+        <v>0</v>
+      </c>
+      <c r="F39" s="13">
         <v>1.2422360248447204E-2</v>
       </c>
-      <c r="G39" s="15">
+      <c r="G39" s="13">
         <v>1.8633540372670808E-2</v>
       </c>
-      <c r="H39" s="15">
+      <c r="H39" s="13">
         <v>6.2111801242236024E-2</v>
       </c>
-      <c r="I39" s="15">
-        <v>0</v>
-      </c>
-      <c r="J39" s="15">
+      <c r="I39" s="13">
+        <v>0</v>
+      </c>
+      <c r="J39" s="13">
         <v>0.18633540372670807</v>
       </c>
     </row>
     <row r="40" spans="1:10" x14ac:dyDescent="0.35">
-      <c r="A40" s="10" t="s">
+      <c r="A40" s="8" t="s">
         <v>16</v>
       </c>
-      <c r="B40" s="15">
-        <v>0</v>
-      </c>
-      <c r="C40" s="15">
-        <v>0</v>
-      </c>
-      <c r="D40" s="15">
-        <v>0</v>
-      </c>
-      <c r="E40" s="15">
+      <c r="B40" s="13">
+        <v>0</v>
+      </c>
+      <c r="C40" s="13">
+        <v>0</v>
+      </c>
+      <c r="D40" s="13">
+        <v>0</v>
+      </c>
+      <c r="E40" s="13">
         <v>3.7267080745341616E-2</v>
       </c>
-      <c r="F40" s="15">
-        <v>0</v>
-      </c>
-      <c r="G40" s="15">
-        <v>0</v>
-      </c>
-      <c r="H40" s="15">
-        <v>0</v>
-      </c>
-      <c r="I40" s="15">
-        <v>0</v>
-      </c>
-      <c r="J40" s="15">
+      <c r="F40" s="13">
+        <v>0</v>
+      </c>
+      <c r="G40" s="13">
+        <v>0</v>
+      </c>
+      <c r="H40" s="13">
+        <v>0</v>
+      </c>
+      <c r="I40" s="13">
+        <v>0</v>
+      </c>
+      <c r="J40" s="13">
         <v>3.7267080745341616E-2</v>
       </c>
     </row>
     <row r="41" spans="1:10" x14ac:dyDescent="0.35">
-      <c r="A41" s="10" t="s">
+      <c r="A41" s="8" t="s">
         <v>22</v>
       </c>
-      <c r="B41" s="15">
-        <v>0</v>
-      </c>
-      <c r="C41" s="15">
-        <v>0</v>
-      </c>
-      <c r="D41" s="15">
+      <c r="B41" s="13">
+        <v>0</v>
+      </c>
+      <c r="C41" s="13">
+        <v>0</v>
+      </c>
+      <c r="D41" s="13">
         <v>6.2111801242236021E-3</v>
       </c>
-      <c r="E41" s="15">
-        <v>0</v>
-      </c>
-      <c r="F41" s="15">
+      <c r="E41" s="13">
+        <v>0</v>
+      </c>
+      <c r="F41" s="13">
         <v>1.2422360248447204E-2</v>
       </c>
-      <c r="G41" s="15">
-        <v>0</v>
-      </c>
-      <c r="H41" s="15">
+      <c r="G41" s="13">
+        <v>0</v>
+      </c>
+      <c r="H41" s="13">
         <v>1.2422360248447204E-2</v>
       </c>
-      <c r="I41" s="15">
-        <v>0</v>
-      </c>
-      <c r="J41" s="15">
+      <c r="I41" s="13">
+        <v>0</v>
+      </c>
+      <c r="J41" s="13">
         <v>3.1055900621118012E-2</v>
       </c>
     </row>
     <row r="42" spans="1:10" x14ac:dyDescent="0.35">
-      <c r="A42" s="10" t="s">
+      <c r="A42" s="8" t="s">
         <v>35</v>
       </c>
-      <c r="B42" s="15">
-        <v>0</v>
-      </c>
-      <c r="C42" s="15">
-        <v>0</v>
-      </c>
-      <c r="D42" s="15">
-        <v>0</v>
-      </c>
-      <c r="E42" s="15">
+      <c r="B42" s="13">
+        <v>0</v>
+      </c>
+      <c r="C42" s="13">
+        <v>0</v>
+      </c>
+      <c r="D42" s="13">
+        <v>0</v>
+      </c>
+      <c r="E42" s="13">
         <v>6.2111801242236021E-3</v>
       </c>
-      <c r="F42" s="15">
-        <v>0</v>
-      </c>
-      <c r="G42" s="15">
+      <c r="F42" s="13">
+        <v>0</v>
+      </c>
+      <c r="G42" s="13">
         <v>6.2111801242236021E-3</v>
       </c>
-      <c r="H42" s="15">
-        <v>0</v>
-      </c>
-      <c r="I42" s="15">
-        <v>0</v>
-      </c>
-      <c r="J42" s="15">
+      <c r="H42" s="13">
+        <v>0</v>
+      </c>
+      <c r="I42" s="13">
+        <v>0</v>
+      </c>
+      <c r="J42" s="13">
         <v>1.2422360248447204E-2</v>
       </c>
     </row>
     <row r="43" spans="1:10" x14ac:dyDescent="0.35">
-      <c r="A43" s="10" t="s">
+      <c r="A43" s="8" t="s">
         <v>7</v>
       </c>
-      <c r="B43" s="15">
-        <v>0</v>
-      </c>
-      <c r="C43" s="15">
+      <c r="B43" s="13">
+        <v>0</v>
+      </c>
+      <c r="C43" s="13">
         <v>6.2111801242236021E-3</v>
       </c>
-      <c r="D43" s="15">
-        <v>0</v>
-      </c>
-      <c r="E43" s="15">
-        <v>0</v>
-      </c>
-      <c r="F43" s="15">
-        <v>0</v>
-      </c>
-      <c r="G43" s="15">
-        <v>0</v>
-      </c>
-      <c r="H43" s="15">
-        <v>0</v>
-      </c>
-      <c r="I43" s="15">
-        <v>0</v>
-      </c>
-      <c r="J43" s="15">
+      <c r="D43" s="13">
+        <v>0</v>
+      </c>
+      <c r="E43" s="13">
+        <v>0</v>
+      </c>
+      <c r="F43" s="13">
+        <v>0</v>
+      </c>
+      <c r="G43" s="13">
+        <v>0</v>
+      </c>
+      <c r="H43" s="13">
+        <v>0</v>
+      </c>
+      <c r="I43" s="13">
+        <v>0</v>
+      </c>
+      <c r="J43" s="13">
         <v>6.2111801242236021E-3</v>
       </c>
     </row>
     <row r="44" spans="1:10" x14ac:dyDescent="0.35">
-      <c r="A44" s="10" t="s">
+      <c r="A44" s="8" t="s">
         <v>12</v>
       </c>
-      <c r="B44" s="15">
-        <v>0</v>
-      </c>
-      <c r="C44" s="15">
+      <c r="B44" s="13">
+        <v>0</v>
+      </c>
+      <c r="C44" s="13">
         <v>1.8633540372670808E-2</v>
       </c>
-      <c r="D44" s="15">
+      <c r="D44" s="13">
         <v>1.2422360248447204E-2</v>
       </c>
-      <c r="E44" s="15">
+      <c r="E44" s="13">
         <v>6.2111801242236024E-2</v>
       </c>
-      <c r="F44" s="15">
+      <c r="F44" s="13">
         <v>3.7267080745341616E-2</v>
       </c>
-      <c r="G44" s="15">
+      <c r="G44" s="13">
         <v>6.2111801242236021E-3</v>
       </c>
-      <c r="H44" s="15">
+      <c r="H44" s="13">
         <v>6.2111801242236021E-3</v>
       </c>
-      <c r="I44" s="15">
-        <v>0</v>
-      </c>
-      <c r="J44" s="15">
+      <c r="I44" s="13">
+        <v>0</v>
+      </c>
+      <c r="J44" s="13">
         <v>0.14285714285714285</v>
       </c>
     </row>
     <row r="45" spans="1:10" x14ac:dyDescent="0.35">
-      <c r="A45" s="10" t="s">
+      <c r="A45" s="8" t="s">
         <v>31</v>
       </c>
-      <c r="B45" s="15">
-        <v>0</v>
-      </c>
-      <c r="C45" s="15">
-        <v>0</v>
-      </c>
-      <c r="D45" s="15">
+      <c r="B45" s="13">
+        <v>0</v>
+      </c>
+      <c r="C45" s="13">
+        <v>0</v>
+      </c>
+      <c r="D45" s="13">
         <v>6.2111801242236021E-3</v>
       </c>
-      <c r="E45" s="15">
-        <v>0</v>
-      </c>
-      <c r="F45" s="15">
-        <v>0</v>
-      </c>
-      <c r="G45" s="15">
+      <c r="E45" s="13">
+        <v>0</v>
+      </c>
+      <c r="F45" s="13">
+        <v>0</v>
+      </c>
+      <c r="G45" s="13">
         <v>6.2111801242236021E-3</v>
       </c>
-      <c r="H45" s="15">
+      <c r="H45" s="13">
         <v>1.2422360248447204E-2</v>
       </c>
-      <c r="I45" s="15">
-        <v>0</v>
-      </c>
-      <c r="J45" s="15">
+      <c r="I45" s="13">
+        <v>0</v>
+      </c>
+      <c r="J45" s="13">
         <v>2.4844720496894408E-2</v>
       </c>
     </row>
     <row r="46" spans="1:10" x14ac:dyDescent="0.35">
-      <c r="A46" s="10" t="s">
+      <c r="A46" s="8" t="s">
         <v>38</v>
       </c>
-      <c r="B46" s="15">
-        <v>0</v>
-      </c>
-      <c r="C46" s="15">
-        <v>0</v>
-      </c>
-      <c r="D46" s="15">
-        <v>0</v>
-      </c>
-      <c r="E46" s="15">
-        <v>0</v>
-      </c>
-      <c r="F46" s="15">
+      <c r="B46" s="13">
+        <v>0</v>
+      </c>
+      <c r="C46" s="13">
+        <v>0</v>
+      </c>
+      <c r="D46" s="13">
+        <v>0</v>
+      </c>
+      <c r="E46" s="13">
+        <v>0</v>
+      </c>
+      <c r="F46" s="13">
         <v>6.2111801242236021E-3</v>
       </c>
-      <c r="G46" s="15">
+      <c r="G46" s="13">
         <v>1.2422360248447204E-2</v>
       </c>
-      <c r="H46" s="15">
-        <v>0</v>
-      </c>
-      <c r="I46" s="15">
-        <v>0</v>
-      </c>
-      <c r="J46" s="15">
+      <c r="H46" s="13">
+        <v>0</v>
+      </c>
+      <c r="I46" s="13">
+        <v>0</v>
+      </c>
+      <c r="J46" s="13">
         <v>1.8633540372670808E-2</v>
       </c>
     </row>
     <row r="47" spans="1:10" x14ac:dyDescent="0.35">
-      <c r="A47" s="10" t="s">
+      <c r="A47" s="8" t="s">
         <v>13</v>
       </c>
-      <c r="B47" s="15">
-        <v>0</v>
-      </c>
-      <c r="C47" s="15">
+      <c r="B47" s="13">
+        <v>0</v>
+      </c>
+      <c r="C47" s="13">
         <v>6.2111801242236021E-3</v>
       </c>
-      <c r="D47" s="15">
+      <c r="D47" s="13">
         <v>6.2111801242236021E-3</v>
       </c>
-      <c r="E47" s="15">
-        <v>0</v>
-      </c>
-      <c r="F47" s="15">
-        <v>0</v>
-      </c>
-      <c r="G47" s="15">
-        <v>0</v>
-      </c>
-      <c r="H47" s="15">
-        <v>0</v>
-      </c>
-      <c r="I47" s="15">
-        <v>0</v>
-      </c>
-      <c r="J47" s="15">
+      <c r="E47" s="13">
+        <v>0</v>
+      </c>
+      <c r="F47" s="13">
+        <v>0</v>
+      </c>
+      <c r="G47" s="13">
+        <v>0</v>
+      </c>
+      <c r="H47" s="13">
+        <v>0</v>
+      </c>
+      <c r="I47" s="13">
+        <v>0</v>
+      </c>
+      <c r="J47" s="13">
         <v>1.2422360248447204E-2</v>
       </c>
     </row>
     <row r="48" spans="1:10" x14ac:dyDescent="0.35">
-      <c r="A48" s="10" t="s">
+      <c r="A48" s="8" t="s">
         <v>33</v>
       </c>
-      <c r="B48" s="15">
-        <v>0</v>
-      </c>
-      <c r="C48" s="15">
-        <v>0</v>
-      </c>
-      <c r="D48" s="15">
+      <c r="B48" s="13">
+        <v>0</v>
+      </c>
+      <c r="C48" s="13">
+        <v>0</v>
+      </c>
+      <c r="D48" s="13">
         <v>6.2111801242236021E-3</v>
       </c>
-      <c r="E48" s="15">
+      <c r="E48" s="13">
         <v>6.2111801242236021E-3</v>
       </c>
-      <c r="F48" s="15">
-        <v>0</v>
-      </c>
-      <c r="G48" s="15">
-        <v>0</v>
-      </c>
-      <c r="H48" s="15">
+      <c r="F48" s="13">
+        <v>0</v>
+      </c>
+      <c r="G48" s="13">
+        <v>0</v>
+      </c>
+      <c r="H48" s="13">
         <v>6.2111801242236021E-3</v>
       </c>
-      <c r="I48" s="15">
-        <v>0</v>
-      </c>
-      <c r="J48" s="15">
+      <c r="I48" s="13">
+        <v>0</v>
+      </c>
+      <c r="J48" s="13">
         <v>1.8633540372670808E-2</v>
       </c>
     </row>
     <row r="49" spans="1:10" x14ac:dyDescent="0.35">
-      <c r="A49" s="10" t="s">
+      <c r="A49" s="8" t="s">
         <v>34</v>
       </c>
-      <c r="B49" s="15">
-        <v>0</v>
-      </c>
-      <c r="C49" s="15">
-        <v>0</v>
-      </c>
-      <c r="D49" s="15">
-        <v>0</v>
-      </c>
-      <c r="E49" s="15">
+      <c r="B49" s="13">
+        <v>0</v>
+      </c>
+      <c r="C49" s="13">
+        <v>0</v>
+      </c>
+      <c r="D49" s="13">
+        <v>0</v>
+      </c>
+      <c r="E49" s="13">
         <v>6.2111801242236021E-3</v>
       </c>
-      <c r="F49" s="15">
+      <c r="F49" s="13">
         <v>1.2422360248447204E-2</v>
       </c>
-      <c r="G49" s="15">
-        <v>0</v>
-      </c>
-      <c r="H49" s="15">
-        <v>0</v>
-      </c>
-      <c r="I49" s="15">
-        <v>0</v>
-      </c>
-      <c r="J49" s="15">
+      <c r="G49" s="13">
+        <v>0</v>
+      </c>
+      <c r="H49" s="13">
+        <v>0</v>
+      </c>
+      <c r="I49" s="13">
+        <v>0</v>
+      </c>
+      <c r="J49" s="13">
         <v>1.8633540372670808E-2</v>
       </c>
     </row>
     <row r="50" spans="1:10" x14ac:dyDescent="0.35">
-      <c r="A50" s="10" t="s">
+      <c r="A50" s="8" t="s">
         <v>41</v>
       </c>
-      <c r="B50" s="15">
-        <v>0</v>
-      </c>
-      <c r="C50" s="15">
-        <v>0</v>
-      </c>
-      <c r="D50" s="15">
-        <v>0</v>
-      </c>
-      <c r="E50" s="15">
-        <v>0</v>
-      </c>
-      <c r="F50" s="15">
-        <v>0</v>
-      </c>
-      <c r="G50" s="15">
+      <c r="B50" s="13">
+        <v>0</v>
+      </c>
+      <c r="C50" s="13">
+        <v>0</v>
+      </c>
+      <c r="D50" s="13">
+        <v>0</v>
+      </c>
+      <c r="E50" s="13">
+        <v>0</v>
+      </c>
+      <c r="F50" s="13">
+        <v>0</v>
+      </c>
+      <c r="G50" s="13">
         <v>6.2111801242236021E-3</v>
       </c>
-      <c r="H50" s="15">
+      <c r="H50" s="13">
         <v>6.2111801242236021E-3</v>
       </c>
-      <c r="I50" s="15">
-        <v>0</v>
-      </c>
-      <c r="J50" s="15">
+      <c r="I50" s="13">
+        <v>0</v>
+      </c>
+      <c r="J50" s="13">
         <v>1.2422360248447204E-2</v>
       </c>
     </row>
     <row r="51" spans="1:10" x14ac:dyDescent="0.35">
-      <c r="A51" s="10" t="s">
+      <c r="A51" s="8" t="s">
         <v>9</v>
       </c>
-      <c r="B51" s="15">
-        <v>0</v>
-      </c>
-      <c r="C51" s="15">
-        <v>0</v>
-      </c>
-      <c r="D51" s="15">
-        <v>0</v>
-      </c>
-      <c r="E51" s="15">
+      <c r="B51" s="13">
+        <v>0</v>
+      </c>
+      <c r="C51" s="13">
+        <v>0</v>
+      </c>
+      <c r="D51" s="13">
+        <v>0</v>
+      </c>
+      <c r="E51" s="13">
         <v>6.2111801242236021E-3</v>
       </c>
-      <c r="F51" s="15">
+      <c r="F51" s="13">
         <v>6.2111801242236021E-3</v>
       </c>
-      <c r="G51" s="15">
-        <v>0</v>
-      </c>
-      <c r="H51" s="15">
-        <v>0</v>
-      </c>
-      <c r="I51" s="15">
-        <v>0</v>
-      </c>
-      <c r="J51" s="15">
+      <c r="G51" s="13">
+        <v>0</v>
+      </c>
+      <c r="H51" s="13">
+        <v>0</v>
+      </c>
+      <c r="I51" s="13">
+        <v>0</v>
+      </c>
+      <c r="J51" s="13">
         <v>1.2422360248447204E-2</v>
       </c>
     </row>
     <row r="52" spans="1:10" x14ac:dyDescent="0.35">
-      <c r="A52" s="10" t="s">
+      <c r="A52" s="8" t="s">
         <v>8</v>
       </c>
-      <c r="B52" s="15">
-        <v>0</v>
-      </c>
-      <c r="C52" s="15">
+      <c r="B52" s="13">
+        <v>0</v>
+      </c>
+      <c r="C52" s="13">
         <v>1.2422360248447204E-2</v>
       </c>
-      <c r="D52" s="15">
-        <v>0</v>
-      </c>
-      <c r="E52" s="15">
+      <c r="D52" s="13">
+        <v>0</v>
+      </c>
+      <c r="E52" s="13">
         <v>6.2111801242236021E-3</v>
       </c>
-      <c r="F52" s="15">
-        <v>0</v>
-      </c>
-      <c r="G52" s="15">
-        <v>0</v>
-      </c>
-      <c r="H52" s="15">
-        <v>0</v>
-      </c>
-      <c r="I52" s="15">
-        <v>0</v>
-      </c>
-      <c r="J52" s="15">
+      <c r="F52" s="13">
+        <v>0</v>
+      </c>
+      <c r="G52" s="13">
+        <v>0</v>
+      </c>
+      <c r="H52" s="13">
+        <v>0</v>
+      </c>
+      <c r="I52" s="13">
+        <v>0</v>
+      </c>
+      <c r="J52" s="13">
         <v>1.8633540372670808E-2</v>
       </c>
     </row>
     <row r="53" spans="1:10" x14ac:dyDescent="0.35">
-      <c r="A53" s="10" t="s">
-        <v>1</v>
-      </c>
-      <c r="B53" s="15">
+      <c r="A53" s="8" t="s">
+        <v>1</v>
+      </c>
+      <c r="B53" s="13">
         <v>1.8633540372670808E-2</v>
       </c>
-      <c r="C53" s="15">
-        <v>0</v>
-      </c>
-      <c r="D53" s="15">
-        <v>0</v>
-      </c>
-      <c r="E53" s="15">
+      <c r="C53" s="13">
+        <v>0</v>
+      </c>
+      <c r="D53" s="13">
+        <v>0</v>
+      </c>
+      <c r="E53" s="13">
         <v>6.2111801242236021E-3</v>
       </c>
-      <c r="F53" s="15">
-        <v>0</v>
-      </c>
-      <c r="G53" s="15">
+      <c r="F53" s="13">
+        <v>0</v>
+      </c>
+      <c r="G53" s="13">
         <v>6.2111801242236021E-3</v>
       </c>
-      <c r="H53" s="15">
+      <c r="H53" s="13">
         <v>1.2422360248447204E-2</v>
       </c>
-      <c r="I53" s="15">
-        <v>0</v>
-      </c>
-      <c r="J53" s="15">
+      <c r="I53" s="13">
+        <v>0</v>
+      </c>
+      <c r="J53" s="13">
         <v>4.3478260869565216E-2</v>
       </c>
     </row>
     <row r="54" spans="1:10" x14ac:dyDescent="0.35">
-      <c r="A54" s="10" t="s">
+      <c r="A54" s="8" t="s">
         <v>39</v>
       </c>
-      <c r="B54" s="15">
-        <v>0</v>
-      </c>
-      <c r="C54" s="15">
-        <v>0</v>
-      </c>
-      <c r="D54" s="15">
-        <v>0</v>
-      </c>
-      <c r="E54" s="15">
-        <v>0</v>
-      </c>
-      <c r="F54" s="15">
+      <c r="B54" s="13">
+        <v>0</v>
+      </c>
+      <c r="C54" s="13">
+        <v>0</v>
+      </c>
+      <c r="D54" s="13">
+        <v>0</v>
+      </c>
+      <c r="E54" s="13">
+        <v>0</v>
+      </c>
+      <c r="F54" s="13">
         <v>6.2111801242236021E-3</v>
       </c>
-      <c r="G54" s="15">
-        <v>0</v>
-      </c>
-      <c r="H54" s="15">
-        <v>0</v>
-      </c>
-      <c r="I54" s="15">
-        <v>0</v>
-      </c>
-      <c r="J54" s="15">
+      <c r="G54" s="13">
+        <v>0</v>
+      </c>
+      <c r="H54" s="13">
+        <v>0</v>
+      </c>
+      <c r="I54" s="13">
+        <v>0</v>
+      </c>
+      <c r="J54" s="13">
         <v>6.2111801242236021E-3</v>
       </c>
     </row>
     <row r="55" spans="1:10" x14ac:dyDescent="0.35">
-      <c r="A55" s="10" t="s">
+      <c r="A55" s="8" t="s">
         <v>23</v>
       </c>
-      <c r="B55" s="15">
-        <v>0</v>
-      </c>
-      <c r="C55" s="15">
-        <v>0</v>
-      </c>
-      <c r="D55" s="15">
-        <v>0</v>
-      </c>
-      <c r="E55" s="15">
+      <c r="B55" s="13">
+        <v>0</v>
+      </c>
+      <c r="C55" s="13">
+        <v>0</v>
+      </c>
+      <c r="D55" s="13">
+        <v>0</v>
+      </c>
+      <c r="E55" s="13">
         <v>6.2111801242236021E-3</v>
       </c>
-      <c r="F55" s="15">
-        <v>0</v>
-      </c>
-      <c r="G55" s="15">
-        <v>0</v>
-      </c>
-      <c r="H55" s="15">
-        <v>0</v>
-      </c>
-      <c r="I55" s="15">
-        <v>0</v>
-      </c>
-      <c r="J55" s="15">
+      <c r="F55" s="13">
+        <v>0</v>
+      </c>
+      <c r="G55" s="13">
+        <v>0</v>
+      </c>
+      <c r="H55" s="13">
+        <v>0</v>
+      </c>
+      <c r="I55" s="13">
+        <v>0</v>
+      </c>
+      <c r="J55" s="13">
         <v>6.2111801242236021E-3</v>
       </c>
     </row>
     <row r="56" spans="1:10" x14ac:dyDescent="0.35">
-      <c r="A56" s="10" t="s">
+      <c r="A56" s="8" t="s">
         <v>40</v>
       </c>
-      <c r="B56" s="15">
-        <v>0</v>
-      </c>
-      <c r="C56" s="15">
-        <v>0</v>
-      </c>
-      <c r="D56" s="15">
-        <v>0</v>
-      </c>
-      <c r="E56" s="15">
-        <v>0</v>
-      </c>
-      <c r="F56" s="15">
-        <v>0</v>
-      </c>
-      <c r="G56" s="15">
+      <c r="B56" s="13">
+        <v>0</v>
+      </c>
+      <c r="C56" s="13">
+        <v>0</v>
+      </c>
+      <c r="D56" s="13">
+        <v>0</v>
+      </c>
+      <c r="E56" s="13">
+        <v>0</v>
+      </c>
+      <c r="F56" s="13">
+        <v>0</v>
+      </c>
+      <c r="G56" s="13">
         <v>6.2111801242236021E-3</v>
       </c>
-      <c r="H56" s="15">
-        <v>0</v>
-      </c>
-      <c r="I56" s="15">
-        <v>0</v>
-      </c>
-      <c r="J56" s="15">
+      <c r="H56" s="13">
+        <v>0</v>
+      </c>
+      <c r="I56" s="13">
+        <v>0</v>
+      </c>
+      <c r="J56" s="13">
         <v>6.2111801242236021E-3</v>
       </c>
     </row>
     <row r="57" spans="1:10" x14ac:dyDescent="0.35">
-      <c r="A57" s="10" t="s">
+      <c r="A57" s="8" t="s">
         <v>5</v>
       </c>
-      <c r="B57" s="15">
-        <v>0</v>
-      </c>
-      <c r="C57" s="15">
-        <v>0</v>
-      </c>
-      <c r="D57" s="15">
+      <c r="B57" s="13">
+        <v>0</v>
+      </c>
+      <c r="C57" s="13">
+        <v>0</v>
+      </c>
+      <c r="D57" s="13">
         <v>6.2111801242236021E-3</v>
       </c>
-      <c r="E57" s="15">
-        <v>0</v>
-      </c>
-      <c r="F57" s="15">
+      <c r="E57" s="13">
+        <v>0</v>
+      </c>
+      <c r="F57" s="13">
         <v>6.2111801242236021E-3</v>
       </c>
-      <c r="G57" s="15">
+      <c r="G57" s="13">
         <v>6.2111801242236021E-3</v>
       </c>
-      <c r="H57" s="15">
-        <v>0</v>
-      </c>
-      <c r="I57" s="15">
-        <v>0</v>
-      </c>
-      <c r="J57" s="15">
+      <c r="H57" s="13">
+        <v>0</v>
+      </c>
+      <c r="I57" s="13">
+        <v>0</v>
+      </c>
+      <c r="J57" s="13">
         <v>1.8633540372670808E-2</v>
       </c>
     </row>
     <row r="58" spans="1:10" x14ac:dyDescent="0.35">
-      <c r="A58" s="10" t="s">
+      <c r="A58" s="8" t="s">
         <v>37</v>
       </c>
-      <c r="B58" s="15">
-        <v>0</v>
-      </c>
-      <c r="C58" s="15">
-        <v>0</v>
-      </c>
-      <c r="D58" s="15">
-        <v>0</v>
-      </c>
-      <c r="E58" s="15">
-        <v>0</v>
-      </c>
-      <c r="F58" s="15">
+      <c r="B58" s="13">
+        <v>0</v>
+      </c>
+      <c r="C58" s="13">
+        <v>0</v>
+      </c>
+      <c r="D58" s="13">
+        <v>0</v>
+      </c>
+      <c r="E58" s="13">
+        <v>0</v>
+      </c>
+      <c r="F58" s="13">
         <v>6.2111801242236021E-3</v>
       </c>
-      <c r="G58" s="15">
+      <c r="G58" s="13">
         <v>6.2111801242236021E-3</v>
       </c>
-      <c r="H58" s="15">
-        <v>0</v>
-      </c>
-      <c r="I58" s="15">
-        <v>0</v>
-      </c>
-      <c r="J58" s="15">
+      <c r="H58" s="13">
+        <v>0</v>
+      </c>
+      <c r="I58" s="13">
+        <v>0</v>
+      </c>
+      <c r="J58" s="13">
         <v>1.2422360248447204E-2</v>
       </c>
     </row>
     <row r="59" spans="1:10" x14ac:dyDescent="0.35">
-      <c r="A59" s="10" t="s">
+      <c r="A59" s="8" t="s">
         <v>15</v>
       </c>
-      <c r="B59" s="15">
-        <v>0</v>
-      </c>
-      <c r="C59" s="15">
-        <v>0</v>
-      </c>
-      <c r="D59" s="15">
-        <v>0</v>
-      </c>
-      <c r="E59" s="15">
+      <c r="B59" s="13">
+        <v>0</v>
+      </c>
+      <c r="C59" s="13">
+        <v>0</v>
+      </c>
+      <c r="D59" s="13">
+        <v>0</v>
+      </c>
+      <c r="E59" s="13">
         <v>6.2111801242236021E-3</v>
       </c>
-      <c r="F59" s="15">
-        <v>0</v>
-      </c>
-      <c r="G59" s="15">
-        <v>0</v>
-      </c>
-      <c r="H59" s="15">
-        <v>0</v>
-      </c>
-      <c r="I59" s="15">
-        <v>0</v>
-      </c>
-      <c r="J59" s="15">
+      <c r="F59" s="13">
+        <v>0</v>
+      </c>
+      <c r="G59" s="13">
+        <v>0</v>
+      </c>
+      <c r="H59" s="13">
+        <v>0</v>
+      </c>
+      <c r="I59" s="13">
+        <v>0</v>
+      </c>
+      <c r="J59" s="13">
         <v>6.2111801242236021E-3</v>
       </c>
     </row>
     <row r="60" spans="1:10" x14ac:dyDescent="0.35">
-      <c r="A60" s="10" t="s">
+      <c r="A60" s="8" t="s">
         <v>25</v>
       </c>
-      <c r="B60" s="15">
-        <v>0</v>
-      </c>
-      <c r="C60" s="15">
-        <v>0</v>
-      </c>
-      <c r="D60" s="15">
-        <v>0</v>
-      </c>
-      <c r="E60" s="15">
-        <v>0</v>
-      </c>
-      <c r="F60" s="15">
-        <v>0</v>
-      </c>
-      <c r="G60" s="15">
-        <v>0</v>
-      </c>
-      <c r="H60" s="15">
-        <v>0</v>
-      </c>
-      <c r="I60" s="15">
-        <v>0</v>
-      </c>
-      <c r="J60" s="15">
+      <c r="B60" s="13">
+        <v>0</v>
+      </c>
+      <c r="C60" s="13">
+        <v>0</v>
+      </c>
+      <c r="D60" s="13">
+        <v>0</v>
+      </c>
+      <c r="E60" s="13">
+        <v>0</v>
+      </c>
+      <c r="F60" s="13">
+        <v>0</v>
+      </c>
+      <c r="G60" s="13">
+        <v>0</v>
+      </c>
+      <c r="H60" s="13">
+        <v>0</v>
+      </c>
+      <c r="I60" s="13">
+        <v>0</v>
+      </c>
+      <c r="J60" s="13">
         <v>0</v>
       </c>
     </row>
     <row r="61" spans="1:10" x14ac:dyDescent="0.35">
-      <c r="A61" s="10" t="s">
+      <c r="A61" s="8" t="s">
         <v>26</v>
       </c>
-      <c r="B61" s="15">
+      <c r="B61" s="13">
         <v>8.6956521739130432E-2</v>
       </c>
-      <c r="C61" s="15">
+      <c r="C61" s="13">
         <v>9.3167701863354033E-2</v>
       </c>
-      <c r="D61" s="15">
+      <c r="D61" s="13">
         <v>0.16770186335403728</v>
       </c>
-      <c r="E61" s="15">
+      <c r="E61" s="13">
         <v>0.18633540372670807</v>
       </c>
-      <c r="F61" s="15">
+      <c r="F61" s="13">
         <v>0.15527950310559005</v>
       </c>
-      <c r="G61" s="15">
+      <c r="G61" s="13">
         <v>0.15527950310559005</v>
       </c>
-      <c r="H61" s="15">
+      <c r="H61" s="13">
         <v>0.15527950310559005</v>
       </c>
-      <c r="I61" s="15">
-        <v>0</v>
-      </c>
-      <c r="J61" s="15">
+      <c r="I61" s="13">
+        <v>0</v>
+      </c>
+      <c r="J61" s="13">
         <v>1</v>
       </c>
     </row>
@@ -7147,8 +7137,8 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="7" max="7" width="11.1796875" style="15" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="11.1796875" style="21" customWidth="1"/>
+    <col min="7" max="7" width="11.1796875" style="13" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="11.1796875" style="19" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="2" spans="2:9" x14ac:dyDescent="0.35">
@@ -7158,377 +7148,377 @@
       <c r="G2" s="1" t="s">
         <v>50</v>
       </c>
-      <c r="H2" s="22" t="s">
+      <c r="H2" s="20" t="s">
         <v>51</v>
       </c>
     </row>
     <row r="3" spans="2:9" x14ac:dyDescent="0.35">
-      <c r="B3" s="10" t="s">
+      <c r="B3" s="8" t="s">
         <v>30</v>
       </c>
-      <c r="G3" s="15">
+      <c r="G3" s="13">
         <v>3.105590062111801E-3</v>
       </c>
-      <c r="H3" s="21">
+      <c r="H3" s="19">
         <v>0</v>
       </c>
     </row>
     <row r="4" spans="2:9" x14ac:dyDescent="0.35">
-      <c r="B4" s="10" t="s">
+      <c r="B4" s="8" t="s">
         <v>3</v>
       </c>
-      <c r="G4" s="15">
+      <c r="G4" s="13">
         <v>0.32919999999999999</v>
       </c>
-      <c r="H4" s="21">
+      <c r="H4" s="19">
         <v>0.17299999999999999</v>
       </c>
-      <c r="I4" s="15"/>
+      <c r="I4" s="13"/>
     </row>
     <row r="5" spans="2:9" x14ac:dyDescent="0.35">
-      <c r="B5" s="10" t="s">
+      <c r="B5" s="8" t="s">
         <v>42</v>
       </c>
-      <c r="G5" s="15">
-        <v>0</v>
-      </c>
-      <c r="H5" s="21">
+      <c r="G5" s="13">
+        <v>0</v>
+      </c>
+      <c r="H5" s="19">
         <v>6.0000000000000001E-3</v>
       </c>
-      <c r="I5" s="15"/>
+      <c r="I5" s="13"/>
     </row>
     <row r="6" spans="2:9" x14ac:dyDescent="0.35">
-      <c r="B6" s="10" t="s">
+      <c r="B6" s="8" t="s">
         <v>32</v>
       </c>
-      <c r="G6" s="15">
+      <c r="G6" s="13">
         <v>6.1999999999999998E-3</v>
       </c>
-      <c r="H6" s="21">
-        <v>0</v>
-      </c>
-      <c r="I6" s="15"/>
+      <c r="H6" s="19">
+        <v>0</v>
+      </c>
+      <c r="I6" s="13"/>
     </row>
     <row r="7" spans="2:9" x14ac:dyDescent="0.35">
-      <c r="B7" s="10" t="s">
+      <c r="B7" s="8" t="s">
         <v>43</v>
       </c>
-      <c r="G7" s="15">
-        <v>0</v>
-      </c>
-      <c r="H7" s="21">
+      <c r="G7" s="13">
+        <v>0</v>
+      </c>
+      <c r="H7" s="19">
         <v>6.0000000000000001E-3</v>
       </c>
-      <c r="I7" s="15"/>
+      <c r="I7" s="13"/>
     </row>
     <row r="8" spans="2:9" x14ac:dyDescent="0.35">
-      <c r="B8" s="10" t="s">
+      <c r="B8" s="8" t="s">
         <v>44</v>
       </c>
-      <c r="G8" s="15">
-        <v>0</v>
-      </c>
-      <c r="H8" s="21">
+      <c r="G8" s="13">
+        <v>0</v>
+      </c>
+      <c r="H8" s="19">
         <v>6.0000000000000001E-3</v>
       </c>
-      <c r="I8" s="15"/>
+      <c r="I8" s="13"/>
     </row>
     <row r="9" spans="2:9" x14ac:dyDescent="0.35">
-      <c r="B9" s="10" t="s">
+      <c r="B9" s="8" t="s">
         <v>36</v>
       </c>
-      <c r="G9" s="15">
+      <c r="G9" s="13">
         <v>6.0000000000000001E-3</v>
       </c>
-      <c r="H9" s="21">
+      <c r="H9" s="19">
         <v>6.0000000000000001E-3</v>
       </c>
-      <c r="I9" s="15"/>
+      <c r="I9" s="13"/>
     </row>
     <row r="10" spans="2:9" x14ac:dyDescent="0.35">
-      <c r="B10" s="10" t="s">
+      <c r="B10" s="8" t="s">
         <v>2</v>
       </c>
-      <c r="G10" s="15">
+      <c r="G10" s="13">
         <v>0.22359999999999999</v>
       </c>
-      <c r="H10" s="21">
+      <c r="H10" s="19">
         <v>0.21</v>
       </c>
-      <c r="I10" s="15"/>
+      <c r="I10" s="13"/>
     </row>
     <row r="11" spans="2:9" x14ac:dyDescent="0.35">
-      <c r="B11" s="10" t="s">
+      <c r="B11" s="8" t="s">
         <v>45</v>
       </c>
-      <c r="G11" s="15">
-        <v>0</v>
-      </c>
-      <c r="H11" s="21">
+      <c r="G11" s="13">
+        <v>0</v>
+      </c>
+      <c r="H11" s="19">
         <v>6.0000000000000001E-3</v>
       </c>
-      <c r="I11" s="15"/>
+      <c r="I11" s="13"/>
     </row>
     <row r="12" spans="2:9" x14ac:dyDescent="0.35">
-      <c r="B12" s="10" t="s">
+      <c r="B12" s="8" t="s">
         <v>46</v>
       </c>
-      <c r="G12" s="15">
-        <v>0</v>
-      </c>
-      <c r="H12" s="21">
+      <c r="G12" s="13">
+        <v>0</v>
+      </c>
+      <c r="H12" s="19">
         <v>6.0000000000000001E-3</v>
       </c>
-      <c r="I12" s="15"/>
+      <c r="I12" s="13"/>
     </row>
     <row r="13" spans="2:9" x14ac:dyDescent="0.35">
-      <c r="B13" s="10" t="s">
+      <c r="B13" s="8" t="s">
         <v>35</v>
       </c>
-      <c r="G13" s="15">
+      <c r="G13" s="13">
         <v>6.8400000000000002E-2</v>
       </c>
-      <c r="H13" s="21">
+      <c r="H13" s="19">
         <v>0.03</v>
       </c>
-      <c r="I13" s="15"/>
+      <c r="I13" s="13"/>
     </row>
     <row r="14" spans="2:9" x14ac:dyDescent="0.35">
-      <c r="B14" s="10" t="s">
+      <c r="B14" s="8" t="s">
         <v>7</v>
       </c>
-      <c r="G14" s="15">
+      <c r="G14" s="13">
         <v>6.1999999999999998E-3</v>
       </c>
-      <c r="H14" s="21">
+      <c r="H14" s="19">
         <v>6.1999999999999998E-3</v>
       </c>
-      <c r="I14" s="15"/>
+      <c r="I14" s="13"/>
     </row>
     <row r="15" spans="2:9" x14ac:dyDescent="0.35">
-      <c r="B15" s="10" t="s">
+      <c r="B15" s="8" t="s">
         <v>12</v>
       </c>
-      <c r="G15" s="15">
+      <c r="G15" s="13">
         <v>0.1429</v>
       </c>
-      <c r="H15" s="21">
+      <c r="H15" s="19">
         <v>1.2E-2</v>
       </c>
-      <c r="I15" s="15"/>
+      <c r="I15" s="13"/>
     </row>
     <row r="16" spans="2:9" x14ac:dyDescent="0.35">
-      <c r="B16" s="10" t="s">
+      <c r="B16" s="8" t="s">
         <v>31</v>
       </c>
-      <c r="G16" s="15">
+      <c r="G16" s="13">
         <v>2.4799999999999999E-2</v>
       </c>
-      <c r="H16" s="21">
-        <v>0</v>
-      </c>
-      <c r="I16" s="15"/>
+      <c r="H16" s="19">
+        <v>0</v>
+      </c>
+      <c r="I16" s="13"/>
     </row>
     <row r="17" spans="2:9" x14ac:dyDescent="0.35">
-      <c r="B17" s="10" t="s">
+      <c r="B17" s="8" t="s">
         <v>38</v>
       </c>
-      <c r="G17" s="15">
+      <c r="G17" s="13">
         <v>1.8599999999999998E-2</v>
       </c>
-      <c r="H17" s="21">
-        <v>0</v>
-      </c>
-      <c r="I17" s="15"/>
+      <c r="H17" s="19">
+        <v>0</v>
+      </c>
+      <c r="I17" s="13"/>
     </row>
     <row r="18" spans="2:9" x14ac:dyDescent="0.35">
-      <c r="B18" s="10" t="s">
+      <c r="B18" s="8" t="s">
         <v>13</v>
       </c>
-      <c r="G18" s="15">
+      <c r="G18" s="13">
         <v>1.24E-2</v>
       </c>
-      <c r="H18" s="21">
+      <c r="H18" s="19">
         <v>6.0000000000000001E-3</v>
       </c>
-      <c r="I18" s="15"/>
+      <c r="I18" s="13"/>
     </row>
     <row r="19" spans="2:9" x14ac:dyDescent="0.35">
-      <c r="B19" s="10" t="s">
+      <c r="B19" s="8" t="s">
         <v>6</v>
       </c>
-      <c r="G19" s="15">
-        <v>0</v>
-      </c>
-      <c r="H19" s="21">
+      <c r="G19" s="13">
+        <v>0</v>
+      </c>
+      <c r="H19" s="19">
         <v>6.0000000000000001E-3</v>
       </c>
-      <c r="I19" s="15"/>
+      <c r="I19" s="13"/>
     </row>
     <row r="20" spans="2:9" x14ac:dyDescent="0.35">
-      <c r="B20" s="10" t="s">
+      <c r="B20" s="8" t="s">
         <v>33</v>
       </c>
-      <c r="G20" s="15">
+      <c r="G20" s="13">
         <v>1.8599999999999998E-2</v>
       </c>
-      <c r="H20" s="21">
-        <v>0</v>
-      </c>
-      <c r="I20" s="15"/>
+      <c r="H20" s="19">
+        <v>0</v>
+      </c>
+      <c r="I20" s="13"/>
     </row>
     <row r="21" spans="2:9" x14ac:dyDescent="0.35">
-      <c r="B21" s="10" t="s">
+      <c r="B21" s="8" t="s">
         <v>34</v>
       </c>
-      <c r="G21" s="15">
+      <c r="G21" s="13">
         <v>1.8599999999999998E-2</v>
       </c>
-      <c r="H21" s="21">
-        <v>0</v>
-      </c>
-      <c r="I21" s="15"/>
+      <c r="H21" s="19">
+        <v>0</v>
+      </c>
+      <c r="I21" s="13"/>
     </row>
     <row r="22" spans="2:9" x14ac:dyDescent="0.35">
-      <c r="B22" s="10" t="s">
+      <c r="B22" s="8" t="s">
         <v>47</v>
       </c>
-      <c r="G22" s="15">
-        <v>0</v>
-      </c>
-      <c r="H22" s="21">
+      <c r="G22" s="13">
+        <v>0</v>
+      </c>
+      <c r="H22" s="19">
         <v>6.0000000000000001E-3</v>
       </c>
-      <c r="I22" s="15"/>
+      <c r="I22" s="13"/>
     </row>
     <row r="23" spans="2:9" x14ac:dyDescent="0.35">
-      <c r="B23" s="10" t="s">
+      <c r="B23" s="8" t="s">
         <v>10</v>
       </c>
-      <c r="G23" s="15">
-        <v>0</v>
-      </c>
-      <c r="H23" s="21">
+      <c r="G23" s="13">
+        <v>0</v>
+      </c>
+      <c r="H23" s="19">
         <v>1.7999999999999999E-2</v>
       </c>
-      <c r="I23" s="15"/>
+      <c r="I23" s="13"/>
     </row>
     <row r="24" spans="2:9" x14ac:dyDescent="0.35">
-      <c r="B24" s="10" t="s">
+      <c r="B24" s="8" t="s">
         <v>41</v>
       </c>
-      <c r="G24" s="15">
+      <c r="G24" s="13">
         <v>1.24E-2</v>
       </c>
-      <c r="H24" s="21">
-        <v>0</v>
-      </c>
-      <c r="I24" s="15"/>
+      <c r="H24" s="19">
+        <v>0</v>
+      </c>
+      <c r="I24" s="13"/>
     </row>
     <row r="25" spans="2:9" x14ac:dyDescent="0.35">
-      <c r="B25" s="10" t="s">
+      <c r="B25" s="8" t="s">
         <v>9</v>
       </c>
-      <c r="G25" s="15">
+      <c r="G25" s="13">
         <v>1.24E-2</v>
       </c>
-      <c r="H25" s="21">
+      <c r="H25" s="19">
         <v>6.0000000000000001E-3</v>
       </c>
-      <c r="I25" s="15"/>
+      <c r="I25" s="13"/>
     </row>
     <row r="26" spans="2:9" x14ac:dyDescent="0.35">
-      <c r="B26" s="10" t="s">
+      <c r="B26" s="8" t="s">
         <v>8</v>
       </c>
-      <c r="G26" s="15">
+      <c r="G26" s="13">
         <v>1.8599999999999998E-2</v>
       </c>
-      <c r="H26" s="21">
+      <c r="H26" s="19">
         <v>6.0000000000000001E-3</v>
       </c>
-      <c r="I26" s="15"/>
+      <c r="I26" s="13"/>
     </row>
     <row r="27" spans="2:9" x14ac:dyDescent="0.35">
-      <c r="B27" s="10" t="s">
-        <v>1</v>
-      </c>
-      <c r="G27" s="15">
+      <c r="B27" s="8" t="s">
+        <v>1</v>
+      </c>
+      <c r="G27" s="13">
         <v>4.3499999999999997E-2</v>
       </c>
-      <c r="H27" s="21">
+      <c r="H27" s="19">
         <v>0.44</v>
       </c>
-      <c r="I27" s="15"/>
+      <c r="I27" s="13"/>
     </row>
     <row r="28" spans="2:9" x14ac:dyDescent="0.35">
-      <c r="B28" s="10" t="s">
+      <c r="B28" s="8" t="s">
         <v>39</v>
       </c>
-      <c r="G28" s="15">
+      <c r="G28" s="13">
         <v>6.1999999999999998E-3</v>
       </c>
-      <c r="H28" s="21">
-        <v>0</v>
-      </c>
-      <c r="I28" s="15"/>
+      <c r="H28" s="19">
+        <v>0</v>
+      </c>
+      <c r="I28" s="13"/>
     </row>
     <row r="29" spans="2:9" x14ac:dyDescent="0.35">
-      <c r="B29" s="10" t="s">
+      <c r="B29" s="8" t="s">
         <v>23</v>
       </c>
-      <c r="G29" s="15">
+      <c r="G29" s="13">
         <v>6.1999999999999998E-3</v>
       </c>
-      <c r="H29" s="21">
+      <c r="H29" s="19">
         <v>6.0000000000000001E-3</v>
       </c>
-      <c r="I29" s="15"/>
+      <c r="I29" s="13"/>
     </row>
     <row r="30" spans="2:9" x14ac:dyDescent="0.35">
-      <c r="B30" s="10" t="s">
+      <c r="B30" s="8" t="s">
         <v>40</v>
       </c>
-      <c r="G30" s="15">
+      <c r="G30" s="13">
         <v>3.105590062111801E-3</v>
       </c>
-      <c r="H30" s="21">
-        <v>0</v>
-      </c>
-      <c r="I30" s="15"/>
+      <c r="H30" s="19">
+        <v>0</v>
+      </c>
+      <c r="I30" s="13"/>
     </row>
     <row r="31" spans="2:9" x14ac:dyDescent="0.35">
-      <c r="B31" s="10" t="s">
+      <c r="B31" s="8" t="s">
         <v>49</v>
       </c>
-      <c r="G31" s="15">
+      <c r="G31" s="13">
         <v>1.8599999999999998E-2</v>
       </c>
-      <c r="H31" s="21">
+      <c r="H31" s="19">
         <v>1.7999999999999999E-2</v>
       </c>
-      <c r="I31" s="15"/>
+      <c r="I31" s="13"/>
     </row>
     <row r="32" spans="2:9" x14ac:dyDescent="0.35">
-      <c r="B32" s="10" t="s">
+      <c r="B32" s="8" t="s">
         <v>48</v>
       </c>
-      <c r="G32" s="15">
+      <c r="G32" s="13">
         <v>1.8599999999999998E-2</v>
       </c>
-      <c r="H32" s="21">
+      <c r="H32" s="19">
         <v>1.2E-2</v>
       </c>
-      <c r="I32" s="15"/>
+      <c r="I32" s="13"/>
     </row>
     <row r="33" spans="2:7" x14ac:dyDescent="0.35">
-      <c r="B33" s="23"/>
+      <c r="B33" s="21"/>
     </row>
     <row r="34" spans="2:7" x14ac:dyDescent="0.35">
-      <c r="B34" s="23"/>
+      <c r="B34" s="21"/>
     </row>
     <row r="35" spans="2:7" x14ac:dyDescent="0.35">
-      <c r="G35" s="16"/>
+      <c r="G35" s="14"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -7554,7 +7544,7 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A1" s="9" t="s">
+      <c r="A1" s="7" t="s">
         <v>52</v>
       </c>
       <c r="B1" t="s">
@@ -7570,7 +7560,7 @@
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A3" s="9" t="s">
+      <c r="A3" s="7" t="s">
         <v>27</v>
       </c>
       <c r="B3" t="s">
@@ -7578,106 +7568,106 @@
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A4" s="10" t="s">
+      <c r="A4" s="8" t="s">
         <v>55</v>
       </c>
-      <c r="B4" s="15">
+      <c r="B4" s="13">
         <v>9.2592592592592587E-3</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A5" s="10" t="s">
+      <c r="A5" s="8" t="s">
         <v>3</v>
       </c>
-      <c r="B5" s="15">
+      <c r="B5" s="13">
         <v>0.30555555555555558</v>
       </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A6" s="10" t="s">
+      <c r="A6" s="8" t="s">
         <v>19</v>
       </c>
-      <c r="B6" s="15">
+      <c r="B6" s="13">
         <v>0.30555555555555558</v>
       </c>
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A7" s="10" t="s">
+      <c r="A7" s="8" t="s">
         <v>35</v>
       </c>
-      <c r="B7" s="15">
+      <c r="B7" s="13">
         <v>2.7777777777777776E-2</v>
       </c>
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A8" s="10" t="s">
+      <c r="A8" s="8" t="s">
         <v>12</v>
       </c>
-      <c r="B8" s="15">
+      <c r="B8" s="13">
         <v>0.16666666666666666</v>
       </c>
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A9" s="10" t="s">
+      <c r="A9" s="8" t="s">
         <v>31</v>
       </c>
-      <c r="B9" s="15">
+      <c r="B9" s="13">
         <v>9.2592592592592587E-3</v>
       </c>
     </row>
     <row r="10" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A10" s="10" t="s">
+      <c r="A10" s="8" t="s">
         <v>54</v>
       </c>
-      <c r="B10" s="15">
+      <c r="B10" s="13">
         <v>1.8518518518518517E-2</v>
       </c>
     </row>
     <row r="11" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A11" s="10" t="s">
+      <c r="A11" s="8" t="s">
         <v>56</v>
       </c>
-      <c r="B11" s="15">
+      <c r="B11" s="13">
         <v>4.6296296296296294E-2</v>
       </c>
     </row>
     <row r="12" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A12" s="10" t="s">
+      <c r="A12" s="8" t="s">
         <v>57</v>
       </c>
-      <c r="B12" s="15">
+      <c r="B12" s="13">
         <v>9.2592592592592587E-3</v>
       </c>
     </row>
     <row r="13" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A13" s="10" t="s">
+      <c r="A13" s="8" t="s">
         <v>58</v>
       </c>
-      <c r="B13" s="15">
+      <c r="B13" s="13">
         <v>9.2592592592592587E-3</v>
       </c>
     </row>
     <row r="14" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A14" s="10" t="s">
+      <c r="A14" s="8" t="s">
         <v>53</v>
       </c>
-      <c r="B14" s="15">
+      <c r="B14" s="13">
         <v>7.407407407407407E-2</v>
       </c>
     </row>
     <row r="15" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A15" s="10" t="s">
+      <c r="A15" s="8" t="s">
         <v>59</v>
       </c>
-      <c r="B15" s="15">
+      <c r="B15" s="13">
         <v>1.8518518518518517E-2</v>
       </c>
     </row>
     <row r="16" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A16" s="10" t="s">
+      <c r="A16" s="8" t="s">
         <v>26</v>
       </c>
-      <c r="B16" s="15">
+      <c r="B16" s="13">
         <v>1</v>
       </c>
     </row>
@@ -7802,18 +7792,18 @@
 </file>
 
 <file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement/>
+</p:properties>
+</file>
+
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <?mso-contentType ?>
 <FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
   <Display>DocumentLibraryForm</Display>
   <Edit>DocumentLibraryForm</Edit>
   <New>DocumentLibraryForm</New>
 </FormTemplates>
-</file>
-
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement/>
-</p:properties>
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -7833,18 +7823,18 @@
 </file>
 
 <file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{F6227105-8F26-47EB-9492-DE3558FEFEBF}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{8AEEA1AF-7D96-4923-8C6E-B67EFBBFEF5B}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{F6227105-8F26-47EB-9492-DE3558FEFEBF}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
--- a/Plant Transect Data 2013.xlsx
+++ b/Plant Transect Data 2013.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\young\Desktop\School\GGCSpring2023\actualSTEC\PanoRestoration\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6904FA6B-47B2-494E-8B59-6A3283C8A13A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EA259B48-A206-44EE-BCAD-9A9D2F80AB9F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="25820" windowHeight="13900" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-90" yWindow="0" windowWidth="9950" windowHeight="13770" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Transects " sheetId="1" r:id="rId1"/>
@@ -251,19 +251,11 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <numFmts count="3">
-    <numFmt numFmtId="44" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
+  <numFmts count="2">
     <numFmt numFmtId="164" formatCode="0.0%"/>
     <numFmt numFmtId="165" formatCode="0.000000"/>
   </numFmts>
-  <fonts count="4" x14ac:knownFonts="1">
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -320,46 +312,38 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="3">
+  <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="44" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="25">
+  <cellXfs count="23">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" pivotButton="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="2" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="10" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="10" fontId="2" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="10" fontId="1" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
@@ -368,32 +352,30 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="10" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
-  <cellStyles count="3">
-    <cellStyle name="Currency" xfId="1" builtinId="4"/>
+  <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
-    <cellStyle name="Percent" xfId="2" builtinId="5"/>
   </cellStyles>
   <dxfs count="3">
     <dxf>
@@ -2027,7 +2009,7 @@
 <file path=xl/pivotCache/pivotCacheDefinition3.xml><?xml version="1.0" encoding="utf-8"?>
 <pivotCacheDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" r:id="rId1" refreshedBy="Resource" refreshedDate="41622.466045370369" createdVersion="4" refreshedVersion="4" minRefreshableVersion="3" recordCount="20" xr:uid="{00000000-000A-0000-FFFF-FFFF04000000}">
   <cacheSource type="worksheet">
-    <worksheetSource ref="F2:H21" sheet="Transects "/>
+    <worksheetSource ref="E2:G21" sheet="Transects "/>
   </cacheSource>
   <cacheFields count="3">
     <cacheField name="2007 Transect" numFmtId="0">
@@ -2321,6 +2303,203 @@
 </file>
 
 <file path=xl/pivotTables/pivotTable1.xml><?xml version="1.0" encoding="utf-8"?>
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{00000000-0007-0000-0100-000001000000}" name="PivotTable4" cacheId="1" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="4" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="4" indent="0" outline="1" outlineData="1" multipleFieldFilters="0">
+  <location ref="A33:J61" firstHeaderRow="1" firstDataRow="2" firstDataCol="1"/>
+  <pivotFields count="3">
+    <pivotField axis="axisCol" showAll="0">
+      <items count="9">
+        <item x="1"/>
+        <item x="2"/>
+        <item x="3"/>
+        <item x="4"/>
+        <item x="5"/>
+        <item x="6"/>
+        <item x="7"/>
+        <item x="0"/>
+        <item t="default"/>
+      </items>
+    </pivotField>
+    <pivotField axis="axisRow" showAll="0" sortType="ascending">
+      <items count="27">
+        <item x="8"/>
+        <item x="1"/>
+        <item x="11"/>
+        <item x="20"/>
+        <item x="3"/>
+        <item x="14"/>
+        <item x="12"/>
+        <item x="16"/>
+        <item x="7"/>
+        <item x="4"/>
+        <item x="9"/>
+        <item x="23"/>
+        <item x="5"/>
+        <item x="10"/>
+        <item x="17"/>
+        <item x="25"/>
+        <item x="15"/>
+        <item x="6"/>
+        <item x="2"/>
+        <item x="22"/>
+        <item x="18"/>
+        <item x="24"/>
+        <item x="13"/>
+        <item x="21"/>
+        <item x="19"/>
+        <item x="0"/>
+        <item t="default"/>
+      </items>
+    </pivotField>
+    <pivotField dataField="1" showAll="0">
+      <items count="11">
+        <item x="4"/>
+        <item x="5"/>
+        <item x="2"/>
+        <item x="3"/>
+        <item x="1"/>
+        <item x="8"/>
+        <item x="7"/>
+        <item x="9"/>
+        <item x="6"/>
+        <item x="0"/>
+        <item t="default"/>
+      </items>
+    </pivotField>
+  </pivotFields>
+  <rowFields count="1">
+    <field x="1"/>
+  </rowFields>
+  <rowItems count="27">
+    <i>
+      <x/>
+    </i>
+    <i>
+      <x v="1"/>
+    </i>
+    <i>
+      <x v="2"/>
+    </i>
+    <i>
+      <x v="3"/>
+    </i>
+    <i>
+      <x v="4"/>
+    </i>
+    <i>
+      <x v="5"/>
+    </i>
+    <i>
+      <x v="6"/>
+    </i>
+    <i>
+      <x v="7"/>
+    </i>
+    <i>
+      <x v="8"/>
+    </i>
+    <i>
+      <x v="9"/>
+    </i>
+    <i>
+      <x v="10"/>
+    </i>
+    <i>
+      <x v="11"/>
+    </i>
+    <i>
+      <x v="12"/>
+    </i>
+    <i>
+      <x v="13"/>
+    </i>
+    <i>
+      <x v="14"/>
+    </i>
+    <i>
+      <x v="15"/>
+    </i>
+    <i>
+      <x v="16"/>
+    </i>
+    <i>
+      <x v="17"/>
+    </i>
+    <i>
+      <x v="18"/>
+    </i>
+    <i>
+      <x v="19"/>
+    </i>
+    <i>
+      <x v="20"/>
+    </i>
+    <i>
+      <x v="21"/>
+    </i>
+    <i>
+      <x v="22"/>
+    </i>
+    <i>
+      <x v="23"/>
+    </i>
+    <i>
+      <x v="24"/>
+    </i>
+    <i>
+      <x v="25"/>
+    </i>
+    <i t="grand">
+      <x/>
+    </i>
+  </rowItems>
+  <colFields count="1">
+    <field x="0"/>
+  </colFields>
+  <colItems count="9">
+    <i>
+      <x/>
+    </i>
+    <i>
+      <x v="1"/>
+    </i>
+    <i>
+      <x v="2"/>
+    </i>
+    <i>
+      <x v="3"/>
+    </i>
+    <i>
+      <x v="4"/>
+    </i>
+    <i>
+      <x v="5"/>
+    </i>
+    <i>
+      <x v="6"/>
+    </i>
+    <i>
+      <x v="7"/>
+    </i>
+    <i t="grand">
+      <x/>
+    </i>
+  </colItems>
+  <dataFields count="1">
+    <dataField name="Sum of #'s" fld="2" showDataAs="percentOfTotal" baseField="1" baseItem="0" numFmtId="10"/>
+  </dataFields>
+  <pivotTableStyleInfo name="PivotStyleLight16" showRowHeaders="1" showColHeaders="1" showRowStripes="0" showColStripes="0" showLastColumn="1"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{962EF5D1-5CA2-4c93-8EF4-DBF5C05439D2}">
+      <x14:pivotTableDefinition xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" hideValuesRow="1"/>
+    </ext>
+    <ext xmlns:xpdl="http://schemas.microsoft.com/office/spreadsheetml/2016/pivotdefaultlayout" uri="{747A6164-185A-40DC-8AA5-F01512510D54}">
+      <xpdl:pivotTableDefinition16/>
+    </ext>
+  </extLst>
+</pivotTableDefinition>
+</file>
+
+<file path=xl/pivotTables/pivotTable2.xml><?xml version="1.0" encoding="utf-8"?>
 <pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{00000000-0007-0000-0100-000000000000}" name="PivotTable2" cacheId="0" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="4" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="4" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="11">
   <location ref="A3:J28" firstHeaderRow="1" firstDataRow="2" firstDataCol="1"/>
   <pivotFields count="3">
@@ -2598,203 +2777,6 @@
       </pivotArea>
     </chartFormat>
   </chartFormats>
-  <pivotTableStyleInfo name="PivotStyleLight16" showRowHeaders="1" showColHeaders="1" showRowStripes="0" showColStripes="0" showLastColumn="1"/>
-  <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{962EF5D1-5CA2-4c93-8EF4-DBF5C05439D2}">
-      <x14:pivotTableDefinition xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" hideValuesRow="1"/>
-    </ext>
-    <ext xmlns:xpdl="http://schemas.microsoft.com/office/spreadsheetml/2016/pivotdefaultlayout" uri="{747A6164-185A-40DC-8AA5-F01512510D54}">
-      <xpdl:pivotTableDefinition16/>
-    </ext>
-  </extLst>
-</pivotTableDefinition>
-</file>
-
-<file path=xl/pivotTables/pivotTable2.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{00000000-0007-0000-0100-000001000000}" name="PivotTable4" cacheId="1" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="4" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="4" indent="0" outline="1" outlineData="1" multipleFieldFilters="0">
-  <location ref="A33:J61" firstHeaderRow="1" firstDataRow="2" firstDataCol="1"/>
-  <pivotFields count="3">
-    <pivotField axis="axisCol" showAll="0">
-      <items count="9">
-        <item x="1"/>
-        <item x="2"/>
-        <item x="3"/>
-        <item x="4"/>
-        <item x="5"/>
-        <item x="6"/>
-        <item x="7"/>
-        <item x="0"/>
-        <item t="default"/>
-      </items>
-    </pivotField>
-    <pivotField axis="axisRow" showAll="0" sortType="ascending">
-      <items count="27">
-        <item x="8"/>
-        <item x="1"/>
-        <item x="11"/>
-        <item x="20"/>
-        <item x="3"/>
-        <item x="14"/>
-        <item x="12"/>
-        <item x="16"/>
-        <item x="7"/>
-        <item x="4"/>
-        <item x="9"/>
-        <item x="23"/>
-        <item x="5"/>
-        <item x="10"/>
-        <item x="17"/>
-        <item x="25"/>
-        <item x="15"/>
-        <item x="6"/>
-        <item x="2"/>
-        <item x="22"/>
-        <item x="18"/>
-        <item x="24"/>
-        <item x="13"/>
-        <item x="21"/>
-        <item x="19"/>
-        <item x="0"/>
-        <item t="default"/>
-      </items>
-    </pivotField>
-    <pivotField dataField="1" showAll="0">
-      <items count="11">
-        <item x="4"/>
-        <item x="5"/>
-        <item x="2"/>
-        <item x="3"/>
-        <item x="1"/>
-        <item x="8"/>
-        <item x="7"/>
-        <item x="9"/>
-        <item x="6"/>
-        <item x="0"/>
-        <item t="default"/>
-      </items>
-    </pivotField>
-  </pivotFields>
-  <rowFields count="1">
-    <field x="1"/>
-  </rowFields>
-  <rowItems count="27">
-    <i>
-      <x/>
-    </i>
-    <i>
-      <x v="1"/>
-    </i>
-    <i>
-      <x v="2"/>
-    </i>
-    <i>
-      <x v="3"/>
-    </i>
-    <i>
-      <x v="4"/>
-    </i>
-    <i>
-      <x v="5"/>
-    </i>
-    <i>
-      <x v="6"/>
-    </i>
-    <i>
-      <x v="7"/>
-    </i>
-    <i>
-      <x v="8"/>
-    </i>
-    <i>
-      <x v="9"/>
-    </i>
-    <i>
-      <x v="10"/>
-    </i>
-    <i>
-      <x v="11"/>
-    </i>
-    <i>
-      <x v="12"/>
-    </i>
-    <i>
-      <x v="13"/>
-    </i>
-    <i>
-      <x v="14"/>
-    </i>
-    <i>
-      <x v="15"/>
-    </i>
-    <i>
-      <x v="16"/>
-    </i>
-    <i>
-      <x v="17"/>
-    </i>
-    <i>
-      <x v="18"/>
-    </i>
-    <i>
-      <x v="19"/>
-    </i>
-    <i>
-      <x v="20"/>
-    </i>
-    <i>
-      <x v="21"/>
-    </i>
-    <i>
-      <x v="22"/>
-    </i>
-    <i>
-      <x v="23"/>
-    </i>
-    <i>
-      <x v="24"/>
-    </i>
-    <i>
-      <x v="25"/>
-    </i>
-    <i t="grand">
-      <x/>
-    </i>
-  </rowItems>
-  <colFields count="1">
-    <field x="0"/>
-  </colFields>
-  <colItems count="9">
-    <i>
-      <x/>
-    </i>
-    <i>
-      <x v="1"/>
-    </i>
-    <i>
-      <x v="2"/>
-    </i>
-    <i>
-      <x v="3"/>
-    </i>
-    <i>
-      <x v="4"/>
-    </i>
-    <i>
-      <x v="5"/>
-    </i>
-    <i>
-      <x v="6"/>
-    </i>
-    <i>
-      <x v="7"/>
-    </i>
-    <i t="grand">
-      <x/>
-    </i>
-  </colItems>
-  <dataFields count="1">
-    <dataField name="Sum of #'s" fld="2" showDataAs="percentOfTotal" baseField="1" baseItem="0" numFmtId="10"/>
-  </dataFields>
   <pivotTableStyleInfo name="PivotStyleLight16" showRowHeaders="1" showColHeaders="1" showRowStripes="0" showColStripes="0" showLastColumn="1"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{962EF5D1-5CA2-4c93-8EF4-DBF5C05439D2}">
@@ -3418,996 +3400,948 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:J129"/>
+  <dimension ref="A1:I129"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A79" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="C97" sqref="C97"/>
+      <pane ySplit="1" topLeftCell="A9" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="E1" sqref="E1:E1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
     <col min="1" max="1" width="7.08984375" style="4" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="16.26953125" style="3" customWidth="1"/>
-    <col min="3" max="3" width="38.26953125" style="22" customWidth="1"/>
+    <col min="3" max="3" width="38.26953125" style="20" customWidth="1"/>
     <col min="4" max="4" width="9.1796875" style="2"/>
-    <col min="5" max="5" width="8.54296875" customWidth="1"/>
-    <col min="6" max="6" width="22.26953125" style="16" customWidth="1"/>
-    <col min="7" max="7" width="35.26953125" style="17" customWidth="1"/>
-    <col min="8" max="8" width="9.1796875" style="2"/>
-    <col min="9" max="9" width="37.54296875" customWidth="1"/>
-    <col min="10" max="10" width="9.1796875" style="2"/>
+    <col min="5" max="5" width="22.26953125" style="14" customWidth="1"/>
+    <col min="6" max="6" width="35.26953125" style="15" customWidth="1"/>
+    <col min="7" max="7" width="9.1796875" style="2"/>
+    <col min="8" max="8" width="37.54296875" customWidth="1"/>
+    <col min="9" max="9" width="9.1796875" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A1" s="6" t="s">
         <v>64</v>
       </c>
       <c r="B1" s="3" t="s">
         <v>65</v>
       </c>
-      <c r="C1" s="24" t="s">
+      <c r="C1" s="22" t="s">
         <v>0</v>
       </c>
       <c r="D1" s="3" t="s">
         <v>66</v>
       </c>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A2" s="4">
         <v>2013</v>
       </c>
       <c r="B2" s="3">
         <v>7</v>
       </c>
-      <c r="C2" s="22" t="s">
+      <c r="C2" s="20" t="s">
         <v>1</v>
       </c>
       <c r="D2" s="2">
         <v>13</v>
       </c>
     </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A3" s="4">
         <v>2013</v>
       </c>
       <c r="B3" s="3">
         <v>7</v>
       </c>
-      <c r="C3" s="22" t="s">
+      <c r="C3" s="20" t="s">
         <v>2</v>
       </c>
       <c r="D3" s="2">
         <v>4</v>
       </c>
-      <c r="E3" s="10"/>
-    </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.35">
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A4" s="4">
         <v>2013</v>
       </c>
       <c r="B4" s="3">
         <v>7</v>
       </c>
-      <c r="C4" s="22" t="s">
+      <c r="C4" s="20" t="s">
         <v>3</v>
       </c>
       <c r="D4" s="2">
         <v>5</v>
       </c>
-      <c r="E4" s="9"/>
-    </row>
-    <row r="5" spans="1:5" ht="29" x14ac:dyDescent="0.35">
+    </row>
+    <row r="5" spans="1:4" ht="29" x14ac:dyDescent="0.35">
       <c r="A5" s="4">
         <v>2013</v>
       </c>
       <c r="B5" s="3">
         <v>7</v>
       </c>
-      <c r="C5" s="22" t="s">
+      <c r="C5" s="20" t="s">
         <v>4</v>
       </c>
       <c r="D5" s="2">
         <v>1</v>
       </c>
-      <c r="E5" s="9"/>
-    </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.35">
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A6" s="4">
         <v>2013</v>
       </c>
       <c r="B6" s="3">
         <v>22</v>
       </c>
-      <c r="C6" s="22" t="s">
+      <c r="C6" s="20" t="s">
         <v>1</v>
       </c>
       <c r="D6" s="2">
         <v>10</v>
       </c>
-      <c r="E6" s="9"/>
-    </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.35">
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A7" s="4">
         <v>2013</v>
       </c>
       <c r="B7" s="3">
         <v>22</v>
       </c>
-      <c r="C7" s="22" t="s">
+      <c r="C7" s="20" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
         <v>3</v>
       </c>
-      <c r="E7" s="9"/>
-    </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.35">
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A8" s="4">
         <v>2013</v>
       </c>
       <c r="B8" s="3">
         <v>22</v>
       </c>
-      <c r="C8" s="22" t="s">
+      <c r="C8" s="20" t="s">
         <v>5</v>
       </c>
       <c r="D8" s="2">
         <v>1</v>
       </c>
-      <c r="E8" s="9"/>
-    </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.35">
+    </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A9" s="4">
         <v>2013</v>
       </c>
       <c r="B9" s="3">
         <v>22</v>
       </c>
-      <c r="C9" s="22" t="s">
+      <c r="C9" s="20" t="s">
         <v>6</v>
       </c>
       <c r="D9" s="2">
         <v>1</v>
       </c>
-      <c r="E9" s="9"/>
-    </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.35">
+    </row>
+    <row r="10" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A10" s="4">
         <v>2013</v>
       </c>
       <c r="B10" s="3">
         <v>22</v>
       </c>
-      <c r="C10" s="22" t="s">
+      <c r="C10" s="20" t="s">
         <v>3</v>
       </c>
       <c r="D10" s="2">
         <v>6</v>
       </c>
-      <c r="E10" s="9"/>
-    </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.35">
+    </row>
+    <row r="11" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A11" s="4">
         <v>2013</v>
       </c>
       <c r="B11" s="3">
         <v>22</v>
       </c>
-      <c r="C11" s="22" t="s">
+      <c r="C11" s="20" t="s">
         <v>7</v>
       </c>
       <c r="D11" s="2">
         <v>1</v>
       </c>
-      <c r="E11" s="9"/>
-    </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.35">
+    </row>
+    <row r="12" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A12" s="4">
         <v>2013</v>
       </c>
       <c r="B12" s="3">
         <v>22</v>
       </c>
-      <c r="C12" s="22" t="s">
+      <c r="C12" s="20" t="s">
         <v>8</v>
       </c>
       <c r="D12" s="2">
         <v>1</v>
       </c>
-      <c r="E12" s="9"/>
-    </row>
-    <row r="13" spans="1:5" ht="29" x14ac:dyDescent="0.35">
+    </row>
+    <row r="13" spans="1:4" ht="29" x14ac:dyDescent="0.35">
       <c r="A13" s="4">
         <v>2013</v>
       </c>
       <c r="B13" s="3">
         <v>22</v>
       </c>
-      <c r="C13" s="22" t="s">
+      <c r="C13" s="20" t="s">
         <v>9</v>
       </c>
       <c r="D13" s="2">
         <v>1</v>
       </c>
-      <c r="E13" s="9"/>
-    </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.35">
+    </row>
+    <row r="14" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A14" s="4">
         <v>2013</v>
       </c>
       <c r="B14" s="3">
         <v>22</v>
       </c>
-      <c r="C14" s="23" t="s">
+      <c r="C14" s="21" t="s">
         <v>10</v>
       </c>
       <c r="D14" s="2">
         <v>1</v>
       </c>
-      <c r="E14" s="9"/>
-    </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.35">
+    </row>
+    <row r="15" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A15" s="4">
         <v>2013</v>
       </c>
       <c r="B15" s="3">
         <v>37</v>
       </c>
-      <c r="C15" s="22" t="s">
+      <c r="C15" s="20" t="s">
         <v>11</v>
       </c>
       <c r="D15" s="2">
         <v>1</v>
       </c>
-      <c r="E15" s="9"/>
-    </row>
-    <row r="16" spans="1:5" x14ac:dyDescent="0.35">
+    </row>
+    <row r="16" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A16" s="4">
         <v>2013</v>
       </c>
       <c r="B16" s="3">
         <v>37</v>
       </c>
-      <c r="C16" s="22" t="s">
+      <c r="C16" s="20" t="s">
         <v>1</v>
       </c>
       <c r="D16" s="2">
         <v>15</v>
       </c>
-      <c r="E16" s="9"/>
-    </row>
-    <row r="17" spans="1:8" x14ac:dyDescent="0.35">
+    </row>
+    <row r="17" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A17" s="4">
         <v>2013</v>
       </c>
       <c r="B17" s="3">
         <v>37</v>
       </c>
-      <c r="C17" s="22" t="s">
+      <c r="C17" s="20" t="s">
         <v>3</v>
       </c>
       <c r="D17" s="2">
         <v>3</v>
       </c>
-      <c r="E17" s="9"/>
-    </row>
-    <row r="18" spans="1:8" x14ac:dyDescent="0.35">
+    </row>
+    <row r="18" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A18" s="4">
         <v>2013</v>
       </c>
       <c r="B18" s="3">
         <v>37</v>
       </c>
-      <c r="C18" s="22" t="s">
+      <c r="C18" s="20" t="s">
         <v>2</v>
       </c>
       <c r="D18" s="2">
         <v>2</v>
       </c>
-      <c r="E18" s="9"/>
-    </row>
-    <row r="19" spans="1:8" x14ac:dyDescent="0.35">
+    </row>
+    <row r="19" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A19" s="4">
         <v>2013</v>
       </c>
       <c r="B19" s="3">
         <v>37</v>
       </c>
-      <c r="C19" s="22" t="s">
+      <c r="C19" s="20" t="s">
         <v>12</v>
       </c>
       <c r="D19" s="2">
         <v>1</v>
       </c>
-      <c r="E19" s="9"/>
-    </row>
-    <row r="20" spans="1:8" x14ac:dyDescent="0.35">
+    </row>
+    <row r="20" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A20" s="4">
         <v>2013</v>
       </c>
       <c r="B20" s="3">
         <v>37</v>
       </c>
-      <c r="C20" s="22" t="s">
+      <c r="C20" s="20" t="s">
         <v>13</v>
       </c>
       <c r="D20" s="2">
         <v>1</v>
       </c>
-      <c r="E20" s="9"/>
-    </row>
-    <row r="21" spans="1:8" x14ac:dyDescent="0.35">
+    </row>
+    <row r="21" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A21" s="4">
         <v>2013</v>
       </c>
       <c r="B21" s="3">
         <v>37</v>
       </c>
-      <c r="C21" s="22" t="s">
+      <c r="C21" s="20" t="s">
         <v>14</v>
       </c>
       <c r="D21" s="2">
         <v>1</v>
       </c>
-      <c r="E21" s="9"/>
-    </row>
-    <row r="22" spans="1:8" x14ac:dyDescent="0.35">
+    </row>
+    <row r="22" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A22" s="4">
         <v>2013</v>
       </c>
       <c r="B22" s="3">
         <v>37</v>
       </c>
-      <c r="C22" s="22" t="s">
+      <c r="C22" s="20" t="s">
         <v>15</v>
       </c>
       <c r="D22" s="2">
         <v>1</v>
       </c>
-      <c r="E22" s="9"/>
-      <c r="F22" s="18"/>
-      <c r="G22" s="5"/>
-      <c r="H22" s="3"/>
-    </row>
-    <row r="23" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="E22" s="16"/>
+      <c r="F22" s="5"/>
+      <c r="G22" s="3"/>
+    </row>
+    <row r="23" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A23" s="4">
         <v>2013</v>
       </c>
       <c r="B23" s="3">
         <v>52</v>
       </c>
-      <c r="C23" s="22" t="s">
+      <c r="C23" s="20" t="s">
         <v>2</v>
       </c>
       <c r="D23" s="2">
         <v>10</v>
       </c>
-      <c r="E23" s="9"/>
-      <c r="G23" s="5"/>
-    </row>
-    <row r="24" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="F23" s="5"/>
+    </row>
+    <row r="24" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A24" s="4">
         <v>2013</v>
       </c>
       <c r="B24" s="3">
         <v>52</v>
       </c>
-      <c r="C24" s="22" t="s">
+      <c r="C24" s="20" t="s">
         <v>17</v>
       </c>
       <c r="D24" s="2">
         <v>1</v>
       </c>
-      <c r="E24" s="9"/>
-      <c r="G24" s="4"/>
-    </row>
-    <row r="25" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="F24" s="4"/>
+    </row>
+    <row r="25" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A25" s="4">
         <v>2013</v>
       </c>
       <c r="B25" s="3">
         <v>52</v>
       </c>
-      <c r="C25" s="22" t="s">
+      <c r="C25" s="20" t="s">
         <v>18</v>
       </c>
       <c r="D25" s="2">
         <v>1</v>
       </c>
-      <c r="E25" s="9"/>
-      <c r="G25" s="5"/>
-    </row>
-    <row r="26" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="F25" s="5"/>
+    </row>
+    <row r="26" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A26" s="4">
         <v>2013</v>
       </c>
       <c r="B26" s="3">
         <v>52</v>
       </c>
-      <c r="C26" s="22" t="s">
+      <c r="C26" s="20" t="s">
         <v>1</v>
       </c>
       <c r="D26" s="2">
         <v>7</v>
       </c>
-      <c r="E26" s="9"/>
-      <c r="G26" s="5"/>
-    </row>
-    <row r="27" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="F26" s="5"/>
+    </row>
+    <row r="27" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A27" s="4">
         <v>2013</v>
       </c>
       <c r="B27" s="3">
         <v>52</v>
       </c>
-      <c r="C27" s="22" t="s">
+      <c r="C27" s="20" t="s">
         <v>5</v>
       </c>
       <c r="D27" s="2">
         <v>1</v>
       </c>
-      <c r="E27" s="9"/>
-      <c r="G27" s="4"/>
-    </row>
-    <row r="28" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="F27" s="4"/>
+    </row>
+    <row r="28" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A28" s="4">
         <v>2013</v>
       </c>
       <c r="B28" s="3">
         <v>52</v>
       </c>
-      <c r="C28" s="22" t="s">
+      <c r="C28" s="20" t="s">
         <v>10</v>
       </c>
       <c r="D28" s="2">
         <v>1</v>
       </c>
-      <c r="E28" s="9"/>
-      <c r="G28" s="5"/>
-    </row>
-    <row r="29" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="F28" s="5"/>
+    </row>
+    <row r="29" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A29" s="4">
         <v>2013</v>
       </c>
       <c r="B29" s="3">
         <v>52</v>
       </c>
-      <c r="C29" s="22" t="s">
+      <c r="C29" s="20" t="s">
         <v>3</v>
       </c>
       <c r="D29" s="2">
         <v>2</v>
       </c>
-      <c r="E29" s="9"/>
-      <c r="G29" s="4"/>
-    </row>
-    <row r="30" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="F29" s="4"/>
+    </row>
+    <row r="30" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A30" s="4">
         <v>2013</v>
       </c>
       <c r="B30" s="3">
         <v>52</v>
       </c>
-      <c r="C30" s="22" t="s">
+      <c r="C30" s="20" t="s">
         <v>15</v>
       </c>
       <c r="D30" s="2">
         <v>1</v>
       </c>
-      <c r="E30" s="9"/>
-      <c r="G30" s="4"/>
-    </row>
-    <row r="31" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="F30" s="4"/>
+    </row>
+    <row r="31" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A31" s="4">
         <v>2013</v>
       </c>
       <c r="B31" s="3">
         <v>67</v>
       </c>
-      <c r="C31" s="22" t="s">
+      <c r="C31" s="20" t="s">
         <v>2</v>
       </c>
       <c r="D31" s="2">
         <v>6</v>
       </c>
-      <c r="E31" s="9"/>
-      <c r="G31" s="4"/>
-    </row>
-    <row r="32" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="F31" s="4"/>
+    </row>
+    <row r="32" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A32" s="4">
         <v>2013</v>
       </c>
       <c r="B32" s="3">
         <v>67</v>
       </c>
-      <c r="C32" s="22" t="s">
+      <c r="C32" s="20" t="s">
         <v>20</v>
       </c>
       <c r="D32" s="2">
         <v>1</v>
       </c>
-      <c r="E32" s="9"/>
-      <c r="G32" s="4"/>
-    </row>
-    <row r="33" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="F32" s="4"/>
+    </row>
+    <row r="33" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A33" s="4">
         <v>2013</v>
       </c>
       <c r="B33" s="3">
         <v>67</v>
       </c>
-      <c r="C33" s="22" t="s">
+      <c r="C33" s="20" t="s">
         <v>3</v>
       </c>
       <c r="D33" s="2">
         <v>4</v>
       </c>
-      <c r="E33" s="9"/>
-      <c r="G33" s="5"/>
-    </row>
-    <row r="34" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="F33" s="5"/>
+    </row>
+    <row r="34" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A34" s="4">
         <v>2013</v>
       </c>
       <c r="B34" s="3">
         <v>67</v>
       </c>
-      <c r="C34" s="22" t="s">
+      <c r="C34" s="20" t="s">
         <v>21</v>
       </c>
       <c r="D34" s="2">
         <v>1</v>
       </c>
-      <c r="E34" s="9"/>
-      <c r="G34" s="4"/>
-    </row>
-    <row r="35" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="F34" s="4"/>
+    </row>
+    <row r="35" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A35" s="4">
         <v>2013</v>
       </c>
       <c r="B35" s="3">
         <v>67</v>
       </c>
-      <c r="C35" s="22" t="s">
+      <c r="C35" s="20" t="s">
         <v>22</v>
       </c>
       <c r="D35" s="2">
         <v>4</v>
       </c>
-      <c r="E35" s="9"/>
-      <c r="G35" s="5"/>
-    </row>
-    <row r="36" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="F35" s="5"/>
+    </row>
+    <row r="36" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A36" s="4">
         <v>2013</v>
       </c>
       <c r="B36" s="3">
         <v>67</v>
       </c>
-      <c r="C36" s="22" t="s">
+      <c r="C36" s="20" t="s">
         <v>1</v>
       </c>
       <c r="D36" s="2">
         <v>5</v>
       </c>
-      <c r="E36" s="9"/>
-      <c r="G36" s="5"/>
-    </row>
-    <row r="37" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="F36" s="5"/>
+    </row>
+    <row r="37" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A37" s="4">
         <v>2013</v>
       </c>
       <c r="B37" s="3">
         <v>67</v>
       </c>
-      <c r="C37" s="22" t="s">
+      <c r="C37" s="20" t="s">
         <v>5</v>
       </c>
       <c r="D37" s="2">
         <v>1</v>
       </c>
-      <c r="E37" s="9"/>
-      <c r="G37" s="4"/>
-    </row>
-    <row r="38" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="F37" s="4"/>
+    </row>
+    <row r="38" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A38" s="4">
         <v>2013</v>
       </c>
       <c r="B38" s="3">
         <v>67</v>
       </c>
-      <c r="C38" s="22" t="s">
+      <c r="C38" s="20" t="s">
         <v>12</v>
       </c>
       <c r="D38" s="2">
         <v>1</v>
       </c>
-      <c r="E38" s="9"/>
-      <c r="G38" s="4"/>
-    </row>
-    <row r="39" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="F38" s="4"/>
+    </row>
+    <row r="39" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A39" s="4">
         <v>2013</v>
       </c>
       <c r="B39" s="3">
         <v>82</v>
       </c>
-      <c r="C39" s="22" t="s">
+      <c r="C39" s="20" t="s">
         <v>1</v>
       </c>
       <c r="D39" s="2">
         <v>12</v>
       </c>
-      <c r="E39" s="9"/>
-      <c r="G39" s="4"/>
-    </row>
-    <row r="40" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="F39" s="4"/>
+    </row>
+    <row r="40" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A40" s="4">
         <v>2013</v>
       </c>
       <c r="B40" s="3">
         <v>82</v>
       </c>
-      <c r="C40" s="22" t="s">
+      <c r="C40" s="20" t="s">
         <v>2</v>
       </c>
       <c r="D40" s="2">
         <v>7</v>
       </c>
-      <c r="E40" s="9"/>
-      <c r="G40" s="4"/>
-    </row>
-    <row r="41" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="F40" s="4"/>
+    </row>
+    <row r="41" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A41" s="4">
         <v>2013</v>
       </c>
       <c r="B41" s="3">
         <v>82</v>
       </c>
-      <c r="C41" s="22" t="s">
+      <c r="C41" s="20" t="s">
         <v>3</v>
       </c>
       <c r="D41" s="2">
         <v>3</v>
       </c>
-      <c r="E41" s="9"/>
-      <c r="G41" s="4"/>
-    </row>
-    <row r="42" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="F41" s="4"/>
+    </row>
+    <row r="42" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A42" s="4">
         <v>2013</v>
       </c>
       <c r="B42" s="3">
         <v>82</v>
       </c>
-      <c r="C42" s="22" t="s">
+      <c r="C42" s="20" t="s">
         <v>10</v>
       </c>
       <c r="D42" s="2">
         <v>1</v>
       </c>
-      <c r="E42" s="9"/>
-      <c r="G42" s="4"/>
-    </row>
-    <row r="43" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="F42" s="4"/>
+    </row>
+    <row r="43" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A43" s="4">
         <v>2013</v>
       </c>
       <c r="B43" s="3">
         <v>82</v>
       </c>
-      <c r="C43" s="22" t="s">
+      <c r="C43" s="20" t="s">
         <v>23</v>
       </c>
       <c r="D43" s="2">
         <v>1</v>
       </c>
-      <c r="E43" s="9"/>
-      <c r="G43" s="4"/>
-    </row>
-    <row r="44" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="F43" s="4"/>
+    </row>
+    <row r="44" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A44" s="4">
         <v>2013</v>
       </c>
       <c r="B44" s="3">
         <v>97</v>
       </c>
-      <c r="C44" s="22" t="s">
+      <c r="C44" s="20" t="s">
         <v>2</v>
       </c>
       <c r="D44" s="2">
         <v>4</v>
       </c>
-      <c r="E44" s="9"/>
-      <c r="G44" s="4"/>
-    </row>
-    <row r="45" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="F44" s="4"/>
+    </row>
+    <row r="45" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A45" s="4">
         <v>2013</v>
       </c>
       <c r="B45" s="3">
         <v>97</v>
       </c>
-      <c r="C45" s="22" t="s">
+      <c r="C45" s="20" t="s">
         <v>1</v>
       </c>
       <c r="D45" s="2">
         <v>12</v>
       </c>
-      <c r="E45" s="9"/>
-      <c r="G45" s="4"/>
-    </row>
-    <row r="46" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="F45" s="4"/>
+    </row>
+    <row r="46" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A46" s="4">
         <v>2013</v>
       </c>
       <c r="B46" s="3">
         <v>97</v>
       </c>
-      <c r="C46" s="22" t="s">
+      <c r="C46" s="20" t="s">
         <v>3</v>
       </c>
       <c r="D46" s="2">
         <v>6</v>
       </c>
-      <c r="E46" s="9"/>
-      <c r="G46" s="4"/>
-    </row>
-    <row r="47" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="F46" s="4"/>
+    </row>
+    <row r="47" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A47" s="4">
         <v>2013</v>
       </c>
       <c r="B47" s="3">
         <v>97</v>
       </c>
-      <c r="C47" s="22" t="s">
+      <c r="C47" s="20" t="s">
         <v>7</v>
       </c>
       <c r="D47" s="2">
         <v>1</v>
       </c>
-      <c r="E47" s="9"/>
-      <c r="G47" s="4"/>
-    </row>
-    <row r="48" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="F47" s="4"/>
+    </row>
+    <row r="48" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A48" s="4">
         <v>2013</v>
       </c>
       <c r="B48" s="3">
         <v>97</v>
       </c>
-      <c r="C48" s="22" t="s">
+      <c r="C48" s="20" t="s">
         <v>22</v>
       </c>
       <c r="D48" s="2">
         <v>1</v>
       </c>
-      <c r="E48" s="9"/>
-      <c r="G48" s="4"/>
-    </row>
-    <row r="49" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="F48" s="4"/>
+    </row>
+    <row r="49" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A49" s="4">
         <v>2007</v>
       </c>
-      <c r="B49" s="16">
+      <c r="B49" s="14">
         <v>7</v>
       </c>
-      <c r="C49" s="22" t="s">
+      <c r="C49" s="20" t="s">
         <v>3</v>
       </c>
       <c r="D49" s="2">
         <v>6</v>
       </c>
-      <c r="E49" s="9"/>
-      <c r="G49" s="4"/>
-    </row>
-    <row r="50" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="F49" s="4"/>
+    </row>
+    <row r="50" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A50" s="4">
         <v>2007</v>
       </c>
-      <c r="B50" s="16">
+      <c r="B50" s="14">
         <v>7</v>
       </c>
-      <c r="C50" s="22" t="s">
+      <c r="C50" s="20" t="s">
         <v>1</v>
       </c>
       <c r="D50" s="2">
         <v>3</v>
       </c>
     </row>
-    <row r="51" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="51" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A51" s="4">
         <v>2007</v>
       </c>
-      <c r="B51" s="16">
+      <c r="B51" s="14">
         <v>7</v>
       </c>
-      <c r="C51" s="22" t="s">
+      <c r="C51" s="20" t="s">
         <v>2</v>
       </c>
       <c r="D51" s="2">
         <v>5</v>
       </c>
     </row>
-    <row r="52" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="52" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A52" s="4">
         <v>2007</v>
       </c>
-      <c r="B52" s="16">
+      <c r="B52" s="14">
         <v>22</v>
       </c>
-      <c r="C52" s="22" t="s">
+      <c r="C52" s="20" t="s">
         <v>12</v>
       </c>
       <c r="D52" s="2">
         <v>3</v>
       </c>
     </row>
-    <row r="53" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="53" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A53" s="4">
         <v>2007</v>
       </c>
-      <c r="B53" s="16">
+      <c r="B53" s="14">
         <v>22</v>
       </c>
-      <c r="C53" s="22" t="s">
+      <c r="C53" s="20" t="s">
         <v>2</v>
       </c>
       <c r="D53" s="2">
         <v>5</v>
       </c>
     </row>
-    <row r="54" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="54" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A54" s="4">
         <v>2007</v>
       </c>
-      <c r="B54" s="16">
+      <c r="B54" s="14">
         <v>22</v>
       </c>
-      <c r="C54" s="22" t="s">
+      <c r="C54" s="20" t="s">
         <v>3</v>
       </c>
       <c r="D54" s="2">
         <v>3</v>
       </c>
     </row>
-    <row r="55" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="55" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A55" s="4">
         <v>2007</v>
       </c>
-      <c r="B55" s="16">
+      <c r="B55" s="14">
         <v>22</v>
       </c>
-      <c r="C55" s="22" t="s">
+      <c r="C55" s="20" t="s">
         <v>13</v>
       </c>
       <c r="D55" s="2">
         <v>1</v>
       </c>
     </row>
-    <row r="56" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="56" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A56" s="4">
         <v>2007</v>
       </c>
-      <c r="B56" s="16">
+      <c r="B56" s="14">
         <v>22</v>
       </c>
-      <c r="C56" s="22" t="s">
+      <c r="C56" s="20" t="s">
         <v>8</v>
       </c>
       <c r="D56" s="2">
         <v>2</v>
       </c>
     </row>
-    <row r="57" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="57" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A57" s="4">
         <v>2007</v>
       </c>
-      <c r="B57" s="16">
+      <c r="B57" s="14">
         <v>22</v>
       </c>
-      <c r="C57" s="22" t="s">
+      <c r="C57" s="20" t="s">
         <v>7</v>
       </c>
       <c r="D57" s="2">
         <v>1</v>
       </c>
     </row>
-    <row r="58" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="58" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A58" s="4">
         <v>2007</v>
       </c>
-      <c r="B58" s="16">
+      <c r="B58" s="14">
         <v>37</v>
       </c>
-      <c r="C58" s="22" t="s">
+      <c r="C58" s="20" t="s">
         <v>3</v>
       </c>
       <c r="D58" s="2">
         <v>13</v>
       </c>
     </row>
-    <row r="59" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="59" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A59" s="4">
         <v>2007</v>
       </c>
-      <c r="B59" s="16">
+      <c r="B59" s="14">
         <v>37</v>
       </c>
-      <c r="C59" s="22" t="s">
+      <c r="C59" s="20" t="s">
         <v>30</v>
       </c>
       <c r="D59" s="2">
         <v>1</v>
       </c>
     </row>
-    <row r="60" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="60" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A60" s="4">
         <v>2007</v>
       </c>
-      <c r="B60" s="16">
+      <c r="B60" s="14">
         <v>37</v>
       </c>
-      <c r="C60" s="22" t="s">
+      <c r="C60" s="20" t="s">
         <v>2</v>
       </c>
       <c r="D60" s="2">
         <v>5</v>
       </c>
-      <c r="I60" s="18"/>
-      <c r="J60" s="3"/>
-    </row>
-    <row r="61" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="H60" s="16"/>
+      <c r="I60" s="3"/>
+    </row>
+    <row r="61" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A61" s="4">
         <v>2007</v>
       </c>
-      <c r="B61" s="16">
+      <c r="B61" s="14">
         <v>37</v>
       </c>
-      <c r="C61" s="22" t="s">
+      <c r="C61" s="20" t="s">
         <v>12</v>
       </c>
       <c r="D61" s="2">
         <v>2</v>
       </c>
     </row>
-    <row r="62" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="62" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A62" s="4">
         <v>2007</v>
       </c>
-      <c r="B62" s="16">
+      <c r="B62" s="14">
         <v>37</v>
       </c>
-      <c r="C62" s="22" t="s">
+      <c r="C62" s="20" t="s">
         <v>13</v>
       </c>
       <c r="D62" s="2">
         <v>1</v>
       </c>
     </row>
-    <row r="63" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="63" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A63" s="4">
         <v>2007</v>
       </c>
-      <c r="B63" s="16">
+      <c r="B63" s="14">
         <v>37</v>
       </c>
-      <c r="C63" s="22" t="s">
+      <c r="C63" s="20" t="s">
         <v>31</v>
       </c>
       <c r="D63" s="2">
         <v>1</v>
       </c>
     </row>
-    <row r="64" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="64" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A64" s="4">
         <v>2007</v>
       </c>
-      <c r="B64" s="16">
+      <c r="B64" s="14">
         <v>37</v>
       </c>
-      <c r="C64" s="22" t="s">
+      <c r="C64" s="20" t="s">
         <v>33</v>
       </c>
       <c r="D64" s="2">
@@ -4418,10 +4352,10 @@
       <c r="A65" s="4">
         <v>2007</v>
       </c>
-      <c r="B65" s="16">
+      <c r="B65" s="14">
         <v>37</v>
       </c>
-      <c r="C65" s="22" t="s">
+      <c r="C65" s="20" t="s">
         <v>32</v>
       </c>
       <c r="D65" s="2">
@@ -4432,10 +4366,10 @@
       <c r="A66" s="4">
         <v>2007</v>
       </c>
-      <c r="B66" s="16">
+      <c r="B66" s="14">
         <v>37</v>
       </c>
-      <c r="C66" s="22" t="s">
+      <c r="C66" s="20" t="s">
         <v>22</v>
       </c>
       <c r="D66" s="2">
@@ -4446,10 +4380,10 @@
       <c r="A67" s="4">
         <v>2007</v>
       </c>
-      <c r="B67" s="16">
+      <c r="B67" s="14">
         <v>37</v>
       </c>
-      <c r="C67" s="22" t="s">
+      <c r="C67" s="20" t="s">
         <v>5</v>
       </c>
       <c r="D67" s="2">
@@ -4460,10 +4394,10 @@
       <c r="A68" s="4">
         <v>2007</v>
       </c>
-      <c r="B68" s="16">
+      <c r="B68" s="14">
         <v>52</v>
       </c>
-      <c r="C68" s="22" t="s">
+      <c r="C68" s="20" t="s">
         <v>2</v>
       </c>
       <c r="D68" s="2">
@@ -4474,10 +4408,10 @@
       <c r="A69" s="4">
         <v>2007</v>
       </c>
-      <c r="B69" s="16">
+      <c r="B69" s="14">
         <v>52</v>
       </c>
-      <c r="C69" s="22" t="s">
+      <c r="C69" s="20" t="s">
         <v>3</v>
       </c>
       <c r="D69" s="2">
@@ -4488,10 +4422,10 @@
       <c r="A70" s="4">
         <v>2007</v>
       </c>
-      <c r="B70" s="16">
+      <c r="B70" s="14">
         <v>52</v>
       </c>
-      <c r="C70" s="22" t="s">
+      <c r="C70" s="20" t="s">
         <v>1</v>
       </c>
       <c r="D70" s="2">
@@ -4502,10 +4436,10 @@
       <c r="A71" s="4">
         <v>2007</v>
       </c>
-      <c r="B71" s="16">
+      <c r="B71" s="14">
         <v>52</v>
       </c>
-      <c r="C71" s="22" t="s">
+      <c r="C71" s="20" t="s">
         <v>9</v>
       </c>
       <c r="D71" s="2">
@@ -4516,10 +4450,10 @@
       <c r="A72" s="4">
         <v>2007</v>
       </c>
-      <c r="B72" s="16">
+      <c r="B72" s="14">
         <v>52</v>
       </c>
-      <c r="C72" s="22" t="s">
+      <c r="C72" s="20" t="s">
         <v>12</v>
       </c>
       <c r="D72" s="2">
@@ -4530,10 +4464,10 @@
       <c r="A73" s="4">
         <v>2007</v>
       </c>
-      <c r="B73" s="16">
+      <c r="B73" s="14">
         <v>52</v>
       </c>
-      <c r="C73" s="22" t="s">
+      <c r="C73" s="20" t="s">
         <v>8</v>
       </c>
       <c r="D73" s="2">
@@ -4544,10 +4478,10 @@
       <c r="A74" s="4">
         <v>2007</v>
       </c>
-      <c r="B74" s="16">
+      <c r="B74" s="14">
         <v>52</v>
       </c>
-      <c r="C74" s="22" t="s">
+      <c r="C74" s="20" t="s">
         <v>33</v>
       </c>
       <c r="D74" s="2">
@@ -4558,10 +4492,10 @@
       <c r="A75" s="4">
         <v>2007</v>
       </c>
-      <c r="B75" s="16">
+      <c r="B75" s="14">
         <v>52</v>
       </c>
-      <c r="C75" s="22" t="s">
+      <c r="C75" s="20" t="s">
         <v>35</v>
       </c>
       <c r="D75" s="2">
@@ -4572,10 +4506,10 @@
       <c r="A76" s="4">
         <v>2007</v>
       </c>
-      <c r="B76" s="16">
+      <c r="B76" s="14">
         <v>52</v>
       </c>
-      <c r="C76" s="22" t="s">
+      <c r="C76" s="20" t="s">
         <v>34</v>
       </c>
       <c r="D76" s="2">
@@ -4586,10 +4520,10 @@
       <c r="A77" s="4">
         <v>2007</v>
       </c>
-      <c r="B77" s="16">
+      <c r="B77" s="14">
         <v>52</v>
       </c>
-      <c r="C77" s="22" t="s">
+      <c r="C77" s="20" t="s">
         <v>23</v>
       </c>
       <c r="D77" s="2">
@@ -4600,10 +4534,10 @@
       <c r="A78" s="4">
         <v>2007</v>
       </c>
-      <c r="B78" s="16">
+      <c r="B78" s="14">
         <v>52</v>
       </c>
-      <c r="C78" s="22" t="s">
+      <c r="C78" s="20" t="s">
         <v>15</v>
       </c>
       <c r="D78" s="2">
@@ -4614,10 +4548,10 @@
       <c r="A79" s="4">
         <v>2007</v>
       </c>
-      <c r="B79" s="16">
+      <c r="B79" s="14">
         <v>67</v>
       </c>
-      <c r="C79" s="22" t="s">
+      <c r="C79" s="20" t="s">
         <v>2</v>
       </c>
       <c r="D79" s="2">
@@ -4628,10 +4562,10 @@
       <c r="A80" s="4">
         <v>2007</v>
       </c>
-      <c r="B80" s="16">
+      <c r="B80" s="14">
         <v>67</v>
       </c>
-      <c r="C80" s="22" t="s">
+      <c r="C80" s="20" t="s">
         <v>12</v>
       </c>
       <c r="D80" s="2">
@@ -4642,10 +4576,10 @@
       <c r="A81" s="4">
         <v>2007</v>
       </c>
-      <c r="B81" s="16">
+      <c r="B81" s="14">
         <v>67</v>
       </c>
-      <c r="C81" s="22" t="s">
+      <c r="C81" s="20" t="s">
         <v>3</v>
       </c>
       <c r="D81" s="2">
@@ -4656,10 +4590,10 @@
       <c r="A82" s="4">
         <v>2007</v>
       </c>
-      <c r="B82" s="16">
+      <c r="B82" s="14">
         <v>67</v>
       </c>
-      <c r="C82" s="22" t="s">
+      <c r="C82" s="20" t="s">
         <v>36</v>
       </c>
       <c r="D82" s="2">
@@ -4670,10 +4604,10 @@
       <c r="A83" s="4">
         <v>2007</v>
       </c>
-      <c r="B83" s="16">
+      <c r="B83" s="14">
         <v>67</v>
       </c>
-      <c r="C83" s="22" t="s">
+      <c r="C83" s="20" t="s">
         <v>22</v>
       </c>
       <c r="D83" s="2">
@@ -4684,10 +4618,10 @@
       <c r="A84" s="4">
         <v>2007</v>
       </c>
-      <c r="B84" s="16">
+      <c r="B84" s="14">
         <v>67</v>
       </c>
-      <c r="C84" s="22" t="s">
+      <c r="C84" s="20" t="s">
         <v>5</v>
       </c>
       <c r="D84" s="2">
@@ -4698,10 +4632,10 @@
       <c r="A85" s="4">
         <v>2007</v>
       </c>
-      <c r="B85" s="16">
+      <c r="B85" s="14">
         <v>67</v>
       </c>
-      <c r="C85" s="22" t="s">
+      <c r="C85" s="20" t="s">
         <v>34</v>
       </c>
       <c r="D85" s="2">
@@ -4712,10 +4646,10 @@
       <c r="A86" s="4">
         <v>2007</v>
       </c>
-      <c r="B86" s="16">
+      <c r="B86" s="14">
         <v>67</v>
       </c>
-      <c r="C86" s="22" t="s">
+      <c r="C86" s="20" t="s">
         <v>15</v>
       </c>
       <c r="D86" s="2">
@@ -4726,10 +4660,10 @@
       <c r="A87" s="4">
         <v>2007</v>
       </c>
-      <c r="B87" s="16">
+      <c r="B87" s="14">
         <v>67</v>
       </c>
-      <c r="C87" s="22" t="s">
+      <c r="C87" s="20" t="s">
         <v>9</v>
       </c>
       <c r="D87" s="2">
@@ -4740,10 +4674,10 @@
       <c r="A88" s="4">
         <v>2007</v>
       </c>
-      <c r="B88" s="16">
+      <c r="B88" s="14">
         <v>67</v>
       </c>
-      <c r="C88" s="22" t="s">
+      <c r="C88" s="20" t="s">
         <v>39</v>
       </c>
       <c r="D88" s="2">
@@ -4754,10 +4688,10 @@
       <c r="A89" s="4">
         <v>2007</v>
       </c>
-      <c r="B89" s="16">
+      <c r="B89" s="14">
         <v>67</v>
       </c>
-      <c r="C89" s="22" t="s">
+      <c r="C89" s="20" t="s">
         <v>38</v>
       </c>
       <c r="D89" s="2">
@@ -4768,10 +4702,10 @@
       <c r="A90" s="4">
         <v>2007</v>
       </c>
-      <c r="B90" s="16">
+      <c r="B90" s="14">
         <v>82</v>
       </c>
-      <c r="C90" s="22" t="s">
+      <c r="C90" s="20" t="s">
         <v>2</v>
       </c>
       <c r="D90" s="2">
@@ -4782,10 +4716,10 @@
       <c r="A91" s="4">
         <v>2007</v>
       </c>
-      <c r="B91" s="16">
+      <c r="B91" s="14">
         <v>82</v>
       </c>
-      <c r="C91" s="22" t="s">
+      <c r="C91" s="20" t="s">
         <v>3</v>
       </c>
       <c r="D91" s="2">
@@ -4796,10 +4730,10 @@
       <c r="A92" s="4">
         <v>2007</v>
       </c>
-      <c r="B92" s="16">
+      <c r="B92" s="14">
         <v>82</v>
       </c>
-      <c r="C92" s="22" t="s">
+      <c r="C92" s="20" t="s">
         <v>40</v>
       </c>
       <c r="D92" s="2">
@@ -4810,10 +4744,10 @@
       <c r="A93" s="4">
         <v>2007</v>
       </c>
-      <c r="B93" s="16">
+      <c r="B93" s="14">
         <v>82</v>
       </c>
-      <c r="C93" s="22" t="s">
+      <c r="C93" s="20" t="s">
         <v>31</v>
       </c>
       <c r="D93" s="2">
@@ -4824,10 +4758,10 @@
       <c r="A94" s="4">
         <v>2007</v>
       </c>
-      <c r="B94" s="16">
+      <c r="B94" s="14">
         <v>82</v>
       </c>
-      <c r="C94" s="22" t="s">
+      <c r="C94" s="20" t="s">
         <v>41</v>
       </c>
       <c r="D94" s="2">
@@ -4838,10 +4772,10 @@
       <c r="A95" s="4">
         <v>2007</v>
       </c>
-      <c r="B95" s="16">
+      <c r="B95" s="14">
         <v>82</v>
       </c>
-      <c r="C95" s="22" t="s">
+      <c r="C95" s="20" t="s">
         <v>1</v>
       </c>
       <c r="D95" s="2">
@@ -4852,10 +4786,10 @@
       <c r="A96" s="4">
         <v>2007</v>
       </c>
-      <c r="B96" s="16">
+      <c r="B96" s="14">
         <v>82</v>
       </c>
-      <c r="C96" s="22" t="s">
+      <c r="C96" s="20" t="s">
         <v>38</v>
       </c>
       <c r="D96" s="2">
@@ -4866,10 +4800,10 @@
       <c r="A97" s="4">
         <v>2007</v>
       </c>
-      <c r="B97" s="16">
+      <c r="B97" s="14">
         <v>82</v>
       </c>
-      <c r="C97" s="22" t="s">
+      <c r="C97" s="20" t="s">
         <v>15</v>
       </c>
       <c r="D97" s="2">
@@ -4880,10 +4814,10 @@
       <c r="A98" s="4">
         <v>2007</v>
       </c>
-      <c r="B98" s="16">
+      <c r="B98" s="14">
         <v>82</v>
       </c>
-      <c r="C98" s="22" t="s">
+      <c r="C98" s="20" t="s">
         <v>5</v>
       </c>
       <c r="D98" s="2">
@@ -4894,10 +4828,10 @@
       <c r="A99" s="4">
         <v>2007</v>
       </c>
-      <c r="B99" s="16">
+      <c r="B99" s="14">
         <v>82</v>
       </c>
-      <c r="C99" s="22" t="s">
+      <c r="C99" s="20" t="s">
         <v>35</v>
       </c>
       <c r="D99" s="2">
@@ -4908,10 +4842,10 @@
       <c r="A100" s="4">
         <v>2007</v>
       </c>
-      <c r="B100" s="16">
+      <c r="B100" s="14">
         <v>82</v>
       </c>
-      <c r="C100" s="22" t="s">
+      <c r="C100" s="20" t="s">
         <v>12</v>
       </c>
       <c r="D100" s="2">
@@ -4922,10 +4856,10 @@
       <c r="A101" s="4">
         <v>2007</v>
       </c>
-      <c r="B101" s="16">
+      <c r="B101" s="14">
         <v>97</v>
       </c>
-      <c r="C101" s="22" t="s">
+      <c r="C101" s="20" t="s">
         <v>31</v>
       </c>
       <c r="D101" s="2">
@@ -4936,10 +4870,10 @@
       <c r="A102" s="4">
         <v>2007</v>
       </c>
-      <c r="B102" s="16">
+      <c r="B102" s="14">
         <v>97</v>
       </c>
-      <c r="C102" s="22" t="s">
+      <c r="C102" s="20" t="s">
         <v>1</v>
       </c>
       <c r="D102" s="2">
@@ -4950,10 +4884,10 @@
       <c r="A103" s="4">
         <v>2007</v>
       </c>
-      <c r="B103" s="16">
+      <c r="B103" s="14">
         <v>97</v>
       </c>
-      <c r="C103" s="22" t="s">
+      <c r="C103" s="20" t="s">
         <v>3</v>
       </c>
       <c r="D103" s="2">
@@ -4964,10 +4898,10 @@
       <c r="A104" s="4">
         <v>2007</v>
       </c>
-      <c r="B104" s="16">
+      <c r="B104" s="14">
         <v>97</v>
       </c>
-      <c r="C104" s="22" t="s">
+      <c r="C104" s="20" t="s">
         <v>41</v>
       </c>
       <c r="D104" s="2">
@@ -4978,10 +4912,10 @@
       <c r="A105" s="4">
         <v>2007</v>
       </c>
-      <c r="B105" s="16">
+      <c r="B105" s="14">
         <v>97</v>
       </c>
-      <c r="C105" s="22" t="s">
+      <c r="C105" s="20" t="s">
         <v>33</v>
       </c>
       <c r="D105" s="2">
@@ -4992,10 +4926,10 @@
       <c r="A106" s="4">
         <v>2007</v>
       </c>
-      <c r="B106" s="16">
+      <c r="B106" s="14">
         <v>97</v>
       </c>
-      <c r="C106" s="22" t="s">
+      <c r="C106" s="20" t="s">
         <v>12</v>
       </c>
       <c r="D106" s="2">
@@ -5006,10 +4940,10 @@
       <c r="A107" s="4">
         <v>2007</v>
       </c>
-      <c r="B107" s="16">
+      <c r="B107" s="14">
         <v>97</v>
       </c>
-      <c r="C107" s="22" t="s">
+      <c r="C107" s="20" t="s">
         <v>31</v>
       </c>
       <c r="D107" s="2">
@@ -5020,10 +4954,10 @@
       <c r="A108" s="4">
         <v>2007</v>
       </c>
-      <c r="B108" s="16">
+      <c r="B108" s="14">
         <v>97</v>
       </c>
-      <c r="C108" s="22" t="s">
+      <c r="C108" s="20" t="s">
         <v>2</v>
       </c>
       <c r="D108" s="2">
@@ -5034,10 +4968,10 @@
       <c r="A109" s="4">
         <v>2007</v>
       </c>
-      <c r="B109" s="16">
+      <c r="B109" s="14">
         <v>97</v>
       </c>
-      <c r="C109" s="22" t="s">
+      <c r="C109" s="20" t="s">
         <v>22</v>
       </c>
       <c r="D109" s="2">
@@ -5048,10 +4982,10 @@
       <c r="A110" s="4">
         <v>2007</v>
       </c>
-      <c r="B110" s="16">
+      <c r="B110" s="14">
         <v>112</v>
       </c>
-      <c r="C110" s="22" t="s">
+      <c r="C110" s="20" t="s">
         <v>3</v>
       </c>
       <c r="D110" s="2">
@@ -5062,10 +4996,10 @@
       <c r="A111" s="4">
         <v>2007</v>
       </c>
-      <c r="B111" s="16">
+      <c r="B111" s="14">
         <v>112</v>
       </c>
-      <c r="C111" s="22" t="s">
+      <c r="C111" s="20" t="s">
         <v>12</v>
       </c>
       <c r="D111" s="2">
@@ -5076,10 +5010,10 @@
       <c r="A112" s="4">
         <v>2007</v>
       </c>
-      <c r="B112" s="16">
+      <c r="B112" s="14">
         <v>112</v>
       </c>
-      <c r="C112" s="22" t="s">
+      <c r="C112" s="20" t="s">
         <v>2</v>
       </c>
       <c r="D112" s="2">
@@ -5090,10 +5024,10 @@
       <c r="A113" s="4">
         <v>2007</v>
       </c>
-      <c r="B113" s="16">
+      <c r="B113" s="14">
         <v>112</v>
       </c>
-      <c r="C113" s="22" t="s">
+      <c r="C113" s="20" t="s">
         <v>35</v>
       </c>
       <c r="D113" s="2">
@@ -5107,7 +5041,7 @@
       <c r="B114" s="2">
         <v>127</v>
       </c>
-      <c r="C114" s="22" t="s">
+      <c r="C114" s="20" t="s">
         <v>2</v>
       </c>
       <c r="D114" s="2">
@@ -5118,10 +5052,10 @@
       <c r="A115" s="4">
         <v>2007</v>
       </c>
-      <c r="B115" s="16">
+      <c r="B115" s="14">
         <v>127</v>
       </c>
-      <c r="C115" s="22" t="s">
+      <c r="C115" s="20" t="s">
         <v>3</v>
       </c>
       <c r="D115" s="2">
@@ -5132,10 +5066,10 @@
       <c r="A116" s="4">
         <v>2007</v>
       </c>
-      <c r="B116" s="16">
+      <c r="B116" s="14">
         <v>127</v>
       </c>
-      <c r="C116" s="22" t="s">
+      <c r="C116" s="20" t="s">
         <v>1</v>
       </c>
       <c r="D116" s="2">
@@ -5146,10 +5080,10 @@
       <c r="A117" s="4">
         <v>2007</v>
       </c>
-      <c r="B117" s="16">
+      <c r="B117" s="14">
         <v>127</v>
       </c>
-      <c r="C117" s="22" t="s">
+      <c r="C117" s="20" t="s">
         <v>12</v>
       </c>
       <c r="D117" s="2">
@@ -5160,10 +5094,10 @@
       <c r="A118" s="4">
         <v>2007</v>
       </c>
-      <c r="B118" s="16">
+      <c r="B118" s="14">
         <v>127</v>
       </c>
-      <c r="C118" s="22" t="s">
+      <c r="C118" s="20" t="s">
         <v>54</v>
       </c>
       <c r="D118" s="2">
@@ -5177,7 +5111,7 @@
       <c r="B119" s="2">
         <v>142</v>
       </c>
-      <c r="C119" s="22" t="s">
+      <c r="C119" s="20" t="s">
         <v>55</v>
       </c>
       <c r="D119" s="2">
@@ -5188,10 +5122,10 @@
       <c r="A120" s="4">
         <v>2007</v>
       </c>
-      <c r="B120" s="16">
+      <c r="B120" s="14">
         <v>142</v>
       </c>
-      <c r="C120" s="22" t="s">
+      <c r="C120" s="20" t="s">
         <v>3</v>
       </c>
       <c r="D120" s="2">
@@ -5202,10 +5136,10 @@
       <c r="A121" s="4">
         <v>2007</v>
       </c>
-      <c r="B121" s="16">
+      <c r="B121" s="14">
         <v>142</v>
       </c>
-      <c r="C121" s="22" t="s">
+      <c r="C121" s="20" t="s">
         <v>2</v>
       </c>
       <c r="D121" s="2">
@@ -5219,7 +5153,7 @@
       <c r="B122" s="2">
         <v>162</v>
       </c>
-      <c r="C122" s="22" t="s">
+      <c r="C122" s="20" t="s">
         <v>2</v>
       </c>
       <c r="D122" s="2">
@@ -5230,10 +5164,10 @@
       <c r="A123" s="4">
         <v>2007</v>
       </c>
-      <c r="B123" s="16">
+      <c r="B123" s="14">
         <v>162</v>
       </c>
-      <c r="C123" s="23" t="s">
+      <c r="C123" s="21" t="s">
         <v>12</v>
       </c>
       <c r="D123" s="2">
@@ -5244,10 +5178,10 @@
       <c r="A124" s="4">
         <v>2007</v>
       </c>
-      <c r="B124" s="16">
+      <c r="B124" s="14">
         <v>177</v>
       </c>
-      <c r="C124" s="22" t="s">
+      <c r="C124" s="20" t="s">
         <v>31</v>
       </c>
       <c r="D124" s="2">
@@ -5258,10 +5192,10 @@
       <c r="A125" s="4">
         <v>2007</v>
       </c>
-      <c r="B125" s="16">
+      <c r="B125" s="14">
         <v>177</v>
       </c>
-      <c r="C125" s="22" t="s">
+      <c r="C125" s="20" t="s">
         <v>56</v>
       </c>
       <c r="D125" s="2">
@@ -5275,7 +5209,7 @@
       <c r="B126" s="2">
         <v>177</v>
       </c>
-      <c r="C126" s="22" t="s">
+      <c r="C126" s="20" t="s">
         <v>57</v>
       </c>
       <c r="D126" s="2">
@@ -5286,10 +5220,10 @@
       <c r="A127" s="4">
         <v>2007</v>
       </c>
-      <c r="B127" s="16">
+      <c r="B127" s="14">
         <v>177</v>
       </c>
-      <c r="C127" s="22" t="s">
+      <c r="C127" s="20" t="s">
         <v>63</v>
       </c>
       <c r="D127" s="2">
@@ -5300,10 +5234,10 @@
       <c r="A128" s="4">
         <v>2007</v>
       </c>
-      <c r="B128" s="16">
+      <c r="B128" s="14">
         <v>177</v>
       </c>
-      <c r="C128" s="22" t="s">
+      <c r="C128" s="20" t="s">
         <v>1</v>
       </c>
       <c r="D128" s="2">
@@ -5314,10 +5248,10 @@
       <c r="A129" s="4">
         <v>2007</v>
       </c>
-      <c r="B129" s="16">
+      <c r="B129" s="14">
         <v>177</v>
       </c>
-      <c r="C129" s="22" t="s">
+      <c r="C129" s="20" t="s">
         <v>5</v>
       </c>
       <c r="D129" s="2">
@@ -5407,97 +5341,97 @@
       <c r="A5" s="8" t="s">
         <v>3</v>
       </c>
-      <c r="B5" s="12">
+      <c r="B5" s="10">
         <v>2.976190476190476E-2</v>
       </c>
-      <c r="C5" s="12">
+      <c r="C5" s="10">
         <v>3.5714285714285712E-2</v>
       </c>
-      <c r="D5" s="12">
+      <c r="D5" s="10">
         <v>1.7857142857142856E-2</v>
       </c>
-      <c r="E5" s="12">
+      <c r="E5" s="10">
         <v>1.1904761904761904E-2</v>
       </c>
-      <c r="F5" s="12">
+      <c r="F5" s="10">
         <v>2.3809523809523808E-2</v>
       </c>
-      <c r="G5" s="12">
+      <c r="G5" s="10">
         <v>1.7857142857142856E-2</v>
       </c>
-      <c r="H5" s="12">
+      <c r="H5" s="10">
         <v>3.5714285714285712E-2</v>
       </c>
-      <c r="I5" s="12">
-        <v>0</v>
-      </c>
-      <c r="J5" s="12">
+      <c r="I5" s="10">
+        <v>0</v>
+      </c>
+      <c r="J5" s="10">
         <v>0.17261904761904762</v>
       </c>
-      <c r="K5" s="11"/>
+      <c r="K5" s="9"/>
     </row>
     <row r="6" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A6" s="8" t="s">
         <v>21</v>
       </c>
-      <c r="B6" s="12">
-        <v>0</v>
-      </c>
-      <c r="C6" s="12">
-        <v>0</v>
-      </c>
-      <c r="D6" s="12">
-        <v>0</v>
-      </c>
-      <c r="E6" s="12">
-        <v>0</v>
-      </c>
-      <c r="F6" s="12">
+      <c r="B6" s="10">
+        <v>0</v>
+      </c>
+      <c r="C6" s="10">
+        <v>0</v>
+      </c>
+      <c r="D6" s="10">
+        <v>0</v>
+      </c>
+      <c r="E6" s="10">
+        <v>0</v>
+      </c>
+      <c r="F6" s="10">
         <v>5.9523809523809521E-3</v>
       </c>
-      <c r="G6" s="12">
-        <v>0</v>
-      </c>
-      <c r="H6" s="12">
-        <v>0</v>
-      </c>
-      <c r="I6" s="12">
-        <v>0</v>
-      </c>
-      <c r="J6" s="12">
+      <c r="G6" s="10">
+        <v>0</v>
+      </c>
+      <c r="H6" s="10">
+        <v>0</v>
+      </c>
+      <c r="I6" s="10">
+        <v>0</v>
+      </c>
+      <c r="J6" s="10">
         <v>5.9523809523809521E-3</v>
       </c>
-      <c r="K6" s="11"/>
+      <c r="K6" s="9"/>
     </row>
     <row r="7" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A7" s="8" t="s">
         <v>17</v>
       </c>
-      <c r="B7" s="12">
-        <v>0</v>
-      </c>
-      <c r="C7" s="12">
-        <v>0</v>
-      </c>
-      <c r="D7" s="12">
-        <v>0</v>
-      </c>
-      <c r="E7" s="12">
+      <c r="B7" s="10">
+        <v>0</v>
+      </c>
+      <c r="C7" s="10">
+        <v>0</v>
+      </c>
+      <c r="D7" s="10">
+        <v>0</v>
+      </c>
+      <c r="E7" s="10">
         <v>5.9523809523809521E-3</v>
       </c>
-      <c r="F7" s="12">
-        <v>0</v>
-      </c>
-      <c r="G7" s="12">
-        <v>0</v>
-      </c>
-      <c r="H7" s="12">
-        <v>0</v>
-      </c>
-      <c r="I7" s="12">
-        <v>0</v>
-      </c>
-      <c r="J7" s="12">
+      <c r="F7" s="10">
+        <v>0</v>
+      </c>
+      <c r="G7" s="10">
+        <v>0</v>
+      </c>
+      <c r="H7" s="10">
+        <v>0</v>
+      </c>
+      <c r="I7" s="10">
+        <v>0</v>
+      </c>
+      <c r="J7" s="10">
         <v>5.9523809523809521E-3</v>
       </c>
       <c r="K7" s="8"/>
@@ -5506,31 +5440,31 @@
       <c r="A8" s="8" t="s">
         <v>11</v>
       </c>
-      <c r="B8" s="12">
-        <v>0</v>
-      </c>
-      <c r="C8" s="12">
-        <v>0</v>
-      </c>
-      <c r="D8" s="12">
+      <c r="B8" s="10">
+        <v>0</v>
+      </c>
+      <c r="C8" s="10">
+        <v>0</v>
+      </c>
+      <c r="D8" s="10">
         <v>5.9523809523809521E-3</v>
       </c>
-      <c r="E8" s="12">
-        <v>0</v>
-      </c>
-      <c r="F8" s="12">
-        <v>0</v>
-      </c>
-      <c r="G8" s="12">
-        <v>0</v>
-      </c>
-      <c r="H8" s="12">
-        <v>0</v>
-      </c>
-      <c r="I8" s="12">
-        <v>0</v>
-      </c>
-      <c r="J8" s="12">
+      <c r="E8" s="10">
+        <v>0</v>
+      </c>
+      <c r="F8" s="10">
+        <v>0</v>
+      </c>
+      <c r="G8" s="10">
+        <v>0</v>
+      </c>
+      <c r="H8" s="10">
+        <v>0</v>
+      </c>
+      <c r="I8" s="10">
+        <v>0</v>
+      </c>
+      <c r="J8" s="10">
         <v>5.9523809523809521E-3</v>
       </c>
       <c r="K8" s="8"/>
@@ -5539,31 +5473,31 @@
       <c r="A9" s="8" t="s">
         <v>20</v>
       </c>
-      <c r="B9" s="12">
-        <v>0</v>
-      </c>
-      <c r="C9" s="12">
-        <v>0</v>
-      </c>
-      <c r="D9" s="12">
-        <v>0</v>
-      </c>
-      <c r="E9" s="12">
-        <v>0</v>
-      </c>
-      <c r="F9" s="12">
+      <c r="B9" s="10">
+        <v>0</v>
+      </c>
+      <c r="C9" s="10">
+        <v>0</v>
+      </c>
+      <c r="D9" s="10">
+        <v>0</v>
+      </c>
+      <c r="E9" s="10">
+        <v>0</v>
+      </c>
+      <c r="F9" s="10">
         <v>5.9523809523809521E-3</v>
       </c>
-      <c r="G9" s="12">
-        <v>0</v>
-      </c>
-      <c r="H9" s="12">
-        <v>0</v>
-      </c>
-      <c r="I9" s="12">
-        <v>0</v>
-      </c>
-      <c r="J9" s="12">
+      <c r="G9" s="10">
+        <v>0</v>
+      </c>
+      <c r="H9" s="10">
+        <v>0</v>
+      </c>
+      <c r="I9" s="10">
+        <v>0</v>
+      </c>
+      <c r="J9" s="10">
         <v>5.9523809523809521E-3</v>
       </c>
       <c r="K9" s="8"/>
@@ -5572,31 +5506,31 @@
       <c r="A10" s="8" t="s">
         <v>2</v>
       </c>
-      <c r="B10" s="12">
+      <c r="B10" s="10">
         <v>2.3809523809523808E-2</v>
       </c>
-      <c r="C10" s="12">
+      <c r="C10" s="10">
         <v>1.7857142857142856E-2</v>
       </c>
-      <c r="D10" s="12">
+      <c r="D10" s="10">
         <v>1.1904761904761904E-2</v>
       </c>
-      <c r="E10" s="12">
-        <v>0</v>
-      </c>
-      <c r="F10" s="12">
+      <c r="E10" s="10">
+        <v>0</v>
+      </c>
+      <c r="F10" s="10">
         <v>3.5714285714285712E-2</v>
       </c>
-      <c r="G10" s="12">
+      <c r="G10" s="10">
         <v>4.1666666666666664E-2</v>
       </c>
-      <c r="H10" s="12">
+      <c r="H10" s="10">
         <v>2.3809523809523808E-2</v>
       </c>
-      <c r="I10" s="12">
-        <v>0</v>
-      </c>
-      <c r="J10" s="12">
+      <c r="I10" s="10">
+        <v>0</v>
+      </c>
+      <c r="J10" s="10">
         <v>0.15476190476190477</v>
       </c>
       <c r="K10" s="8"/>
@@ -5605,31 +5539,31 @@
       <c r="A11" s="8" t="s">
         <v>16</v>
       </c>
-      <c r="B11" s="12">
-        <v>0</v>
-      </c>
-      <c r="C11" s="12">
-        <v>0</v>
-      </c>
-      <c r="D11" s="12">
-        <v>0</v>
-      </c>
-      <c r="E11" s="12">
+      <c r="B11" s="10">
+        <v>0</v>
+      </c>
+      <c r="C11" s="10">
+        <v>0</v>
+      </c>
+      <c r="D11" s="10">
+        <v>0</v>
+      </c>
+      <c r="E11" s="10">
         <v>5.9523809523809521E-2</v>
       </c>
-      <c r="F11" s="12">
-        <v>0</v>
-      </c>
-      <c r="G11" s="12">
-        <v>0</v>
-      </c>
-      <c r="H11" s="12">
-        <v>0</v>
-      </c>
-      <c r="I11" s="12">
-        <v>0</v>
-      </c>
-      <c r="J11" s="12">
+      <c r="F11" s="10">
+        <v>0</v>
+      </c>
+      <c r="G11" s="10">
+        <v>0</v>
+      </c>
+      <c r="H11" s="10">
+        <v>0</v>
+      </c>
+      <c r="I11" s="10">
+        <v>0</v>
+      </c>
+      <c r="J11" s="10">
         <v>5.9523809523809521E-2</v>
       </c>
       <c r="K11" s="8"/>
@@ -5638,31 +5572,31 @@
       <c r="A12" s="8" t="s">
         <v>14</v>
       </c>
-      <c r="B12" s="12">
-        <v>0</v>
-      </c>
-      <c r="C12" s="12">
-        <v>0</v>
-      </c>
-      <c r="D12" s="12">
+      <c r="B12" s="10">
+        <v>0</v>
+      </c>
+      <c r="C12" s="10">
+        <v>0</v>
+      </c>
+      <c r="D12" s="10">
         <v>5.9523809523809521E-3</v>
       </c>
-      <c r="E12" s="12">
-        <v>0</v>
-      </c>
-      <c r="F12" s="12">
-        <v>0</v>
-      </c>
-      <c r="G12" s="12">
-        <v>0</v>
-      </c>
-      <c r="H12" s="12">
-        <v>0</v>
-      </c>
-      <c r="I12" s="12">
-        <v>0</v>
-      </c>
-      <c r="J12" s="12">
+      <c r="E12" s="10">
+        <v>0</v>
+      </c>
+      <c r="F12" s="10">
+        <v>0</v>
+      </c>
+      <c r="G12" s="10">
+        <v>0</v>
+      </c>
+      <c r="H12" s="10">
+        <v>0</v>
+      </c>
+      <c r="I12" s="10">
+        <v>0</v>
+      </c>
+      <c r="J12" s="10">
         <v>5.9523809523809521E-3</v>
       </c>
       <c r="K12" s="8"/>
@@ -5671,31 +5605,31 @@
       <c r="A13" s="8" t="s">
         <v>4</v>
       </c>
-      <c r="B13" s="12">
+      <c r="B13" s="10">
         <v>5.9523809523809521E-3</v>
       </c>
-      <c r="C13" s="12">
-        <v>0</v>
-      </c>
-      <c r="D13" s="12">
-        <v>0</v>
-      </c>
-      <c r="E13" s="12">
-        <v>0</v>
-      </c>
-      <c r="F13" s="12">
-        <v>0</v>
-      </c>
-      <c r="G13" s="12">
-        <v>0</v>
-      </c>
-      <c r="H13" s="12">
-        <v>0</v>
-      </c>
-      <c r="I13" s="12">
-        <v>0</v>
-      </c>
-      <c r="J13" s="12">
+      <c r="C13" s="10">
+        <v>0</v>
+      </c>
+      <c r="D13" s="10">
+        <v>0</v>
+      </c>
+      <c r="E13" s="10">
+        <v>0</v>
+      </c>
+      <c r="F13" s="10">
+        <v>0</v>
+      </c>
+      <c r="G13" s="10">
+        <v>0</v>
+      </c>
+      <c r="H13" s="10">
+        <v>0</v>
+      </c>
+      <c r="I13" s="10">
+        <v>0</v>
+      </c>
+      <c r="J13" s="10">
         <v>5.9523809523809521E-3</v>
       </c>
       <c r="K13" s="8"/>
@@ -5704,31 +5638,31 @@
       <c r="A14" s="8" t="s">
         <v>22</v>
       </c>
-      <c r="B14" s="12">
-        <v>0</v>
-      </c>
-      <c r="C14" s="12">
-        <v>0</v>
-      </c>
-      <c r="D14" s="12">
-        <v>0</v>
-      </c>
-      <c r="E14" s="12">
-        <v>0</v>
-      </c>
-      <c r="F14" s="12">
+      <c r="B14" s="10">
+        <v>0</v>
+      </c>
+      <c r="C14" s="10">
+        <v>0</v>
+      </c>
+      <c r="D14" s="10">
+        <v>0</v>
+      </c>
+      <c r="E14" s="10">
+        <v>0</v>
+      </c>
+      <c r="F14" s="10">
         <v>2.3809523809523808E-2</v>
       </c>
-      <c r="G14" s="12">
-        <v>0</v>
-      </c>
-      <c r="H14" s="12">
+      <c r="G14" s="10">
+        <v>0</v>
+      </c>
+      <c r="H14" s="10">
         <v>5.9523809523809521E-3</v>
       </c>
-      <c r="I14" s="12">
-        <v>0</v>
-      </c>
-      <c r="J14" s="12">
+      <c r="I14" s="10">
+        <v>0</v>
+      </c>
+      <c r="J14" s="10">
         <v>2.976190476190476E-2</v>
       </c>
       <c r="K14" s="8"/>
@@ -5737,31 +5671,31 @@
       <c r="A15" s="8" t="s">
         <v>7</v>
       </c>
-      <c r="B15" s="12">
-        <v>0</v>
-      </c>
-      <c r="C15" s="12">
+      <c r="B15" s="10">
+        <v>0</v>
+      </c>
+      <c r="C15" s="10">
         <v>5.9523809523809521E-3</v>
       </c>
-      <c r="D15" s="12">
-        <v>0</v>
-      </c>
-      <c r="E15" s="12">
-        <v>0</v>
-      </c>
-      <c r="F15" s="12">
-        <v>0</v>
-      </c>
-      <c r="G15" s="12">
-        <v>0</v>
-      </c>
-      <c r="H15" s="12">
+      <c r="D15" s="10">
+        <v>0</v>
+      </c>
+      <c r="E15" s="10">
+        <v>0</v>
+      </c>
+      <c r="F15" s="10">
+        <v>0</v>
+      </c>
+      <c r="G15" s="10">
+        <v>0</v>
+      </c>
+      <c r="H15" s="10">
         <v>5.9523809523809521E-3</v>
       </c>
-      <c r="I15" s="12">
-        <v>0</v>
-      </c>
-      <c r="J15" s="12">
+      <c r="I15" s="10">
+        <v>0</v>
+      </c>
+      <c r="J15" s="10">
         <v>1.1904761904761904E-2</v>
       </c>
       <c r="K15" s="8"/>
@@ -5770,31 +5704,31 @@
       <c r="A16" s="8" t="s">
         <v>12</v>
       </c>
-      <c r="B16" s="12">
-        <v>0</v>
-      </c>
-      <c r="C16" s="12">
-        <v>0</v>
-      </c>
-      <c r="D16" s="12">
+      <c r="B16" s="10">
+        <v>0</v>
+      </c>
+      <c r="C16" s="10">
+        <v>0</v>
+      </c>
+      <c r="D16" s="10">
         <v>5.9523809523809521E-3</v>
       </c>
-      <c r="E16" s="12">
-        <v>0</v>
-      </c>
-      <c r="F16" s="12">
+      <c r="E16" s="10">
+        <v>0</v>
+      </c>
+      <c r="F16" s="10">
         <v>5.9523809523809521E-3</v>
       </c>
-      <c r="G16" s="12">
-        <v>0</v>
-      </c>
-      <c r="H16" s="12">
-        <v>0</v>
-      </c>
-      <c r="I16" s="12">
-        <v>0</v>
-      </c>
-      <c r="J16" s="12">
+      <c r="G16" s="10">
+        <v>0</v>
+      </c>
+      <c r="H16" s="10">
+        <v>0</v>
+      </c>
+      <c r="I16" s="10">
+        <v>0</v>
+      </c>
+      <c r="J16" s="10">
         <v>1.1904761904761904E-2</v>
       </c>
       <c r="K16" s="8"/>
@@ -5803,31 +5737,31 @@
       <c r="A17" s="8" t="s">
         <v>13</v>
       </c>
-      <c r="B17" s="12">
-        <v>0</v>
-      </c>
-      <c r="C17" s="12">
-        <v>0</v>
-      </c>
-      <c r="D17" s="12">
+      <c r="B17" s="10">
+        <v>0</v>
+      </c>
+      <c r="C17" s="10">
+        <v>0</v>
+      </c>
+      <c r="D17" s="10">
         <v>5.9523809523809521E-3</v>
       </c>
-      <c r="E17" s="12">
-        <v>0</v>
-      </c>
-      <c r="F17" s="12">
-        <v>0</v>
-      </c>
-      <c r="G17" s="12">
-        <v>0</v>
-      </c>
-      <c r="H17" s="12">
-        <v>0</v>
-      </c>
-      <c r="I17" s="12">
-        <v>0</v>
-      </c>
-      <c r="J17" s="12">
+      <c r="E17" s="10">
+        <v>0</v>
+      </c>
+      <c r="F17" s="10">
+        <v>0</v>
+      </c>
+      <c r="G17" s="10">
+        <v>0</v>
+      </c>
+      <c r="H17" s="10">
+        <v>0</v>
+      </c>
+      <c r="I17" s="10">
+        <v>0</v>
+      </c>
+      <c r="J17" s="10">
         <v>5.9523809523809521E-3</v>
       </c>
       <c r="K17" s="8"/>
@@ -5836,31 +5770,31 @@
       <c r="A18" s="8" t="s">
         <v>6</v>
       </c>
-      <c r="B18" s="12">
-        <v>0</v>
-      </c>
-      <c r="C18" s="12">
+      <c r="B18" s="10">
+        <v>0</v>
+      </c>
+      <c r="C18" s="10">
         <v>5.9523809523809521E-3</v>
       </c>
-      <c r="D18" s="12">
-        <v>0</v>
-      </c>
-      <c r="E18" s="12">
-        <v>0</v>
-      </c>
-      <c r="F18" s="12">
-        <v>0</v>
-      </c>
-      <c r="G18" s="12">
-        <v>0</v>
-      </c>
-      <c r="H18" s="12">
-        <v>0</v>
-      </c>
-      <c r="I18" s="12">
-        <v>0</v>
-      </c>
-      <c r="J18" s="12">
+      <c r="D18" s="10">
+        <v>0</v>
+      </c>
+      <c r="E18" s="10">
+        <v>0</v>
+      </c>
+      <c r="F18" s="10">
+        <v>0</v>
+      </c>
+      <c r="G18" s="10">
+        <v>0</v>
+      </c>
+      <c r="H18" s="10">
+        <v>0</v>
+      </c>
+      <c r="I18" s="10">
+        <v>0</v>
+      </c>
+      <c r="J18" s="10">
         <v>5.9523809523809521E-3</v>
       </c>
       <c r="K18" s="8"/>
@@ -5869,31 +5803,31 @@
       <c r="A19" s="8" t="s">
         <v>18</v>
       </c>
-      <c r="B19" s="12">
-        <v>0</v>
-      </c>
-      <c r="C19" s="12">
-        <v>0</v>
-      </c>
-      <c r="D19" s="12">
-        <v>0</v>
-      </c>
-      <c r="E19" s="12">
+      <c r="B19" s="10">
+        <v>0</v>
+      </c>
+      <c r="C19" s="10">
+        <v>0</v>
+      </c>
+      <c r="D19" s="10">
+        <v>0</v>
+      </c>
+      <c r="E19" s="10">
         <v>5.9523809523809521E-3</v>
       </c>
-      <c r="F19" s="12">
-        <v>0</v>
-      </c>
-      <c r="G19" s="12">
-        <v>0</v>
-      </c>
-      <c r="H19" s="12">
-        <v>0</v>
-      </c>
-      <c r="I19" s="12">
-        <v>0</v>
-      </c>
-      <c r="J19" s="12">
+      <c r="F19" s="10">
+        <v>0</v>
+      </c>
+      <c r="G19" s="10">
+        <v>0</v>
+      </c>
+      <c r="H19" s="10">
+        <v>0</v>
+      </c>
+      <c r="I19" s="10">
+        <v>0</v>
+      </c>
+      <c r="J19" s="10">
         <v>5.9523809523809521E-3</v>
       </c>
       <c r="K19" s="8"/>
@@ -5902,31 +5836,31 @@
       <c r="A20" s="8" t="s">
         <v>10</v>
       </c>
-      <c r="B20" s="12">
-        <v>0</v>
-      </c>
-      <c r="C20" s="12">
+      <c r="B20" s="10">
+        <v>0</v>
+      </c>
+      <c r="C20" s="10">
         <v>5.9523809523809521E-3</v>
       </c>
-      <c r="D20" s="12">
-        <v>0</v>
-      </c>
-      <c r="E20" s="12">
+      <c r="D20" s="10">
+        <v>0</v>
+      </c>
+      <c r="E20" s="10">
         <v>5.9523809523809521E-3</v>
       </c>
-      <c r="F20" s="12">
-        <v>0</v>
-      </c>
-      <c r="G20" s="12">
+      <c r="F20" s="10">
+        <v>0</v>
+      </c>
+      <c r="G20" s="10">
         <v>5.9523809523809521E-3</v>
       </c>
-      <c r="H20" s="12">
-        <v>0</v>
-      </c>
-      <c r="I20" s="12">
-        <v>0</v>
-      </c>
-      <c r="J20" s="12">
+      <c r="H20" s="10">
+        <v>0</v>
+      </c>
+      <c r="I20" s="10">
+        <v>0</v>
+      </c>
+      <c r="J20" s="10">
         <v>1.7857142857142856E-2</v>
       </c>
       <c r="K20" s="8"/>
@@ -5935,31 +5869,31 @@
       <c r="A21" s="8" t="s">
         <v>9</v>
       </c>
-      <c r="B21" s="12">
-        <v>0</v>
-      </c>
-      <c r="C21" s="12">
+      <c r="B21" s="10">
+        <v>0</v>
+      </c>
+      <c r="C21" s="10">
         <v>5.9523809523809521E-3</v>
       </c>
-      <c r="D21" s="12">
-        <v>0</v>
-      </c>
-      <c r="E21" s="12">
-        <v>0</v>
-      </c>
-      <c r="F21" s="12">
-        <v>0</v>
-      </c>
-      <c r="G21" s="12">
-        <v>0</v>
-      </c>
-      <c r="H21" s="12">
-        <v>0</v>
-      </c>
-      <c r="I21" s="12">
-        <v>0</v>
-      </c>
-      <c r="J21" s="12">
+      <c r="D21" s="10">
+        <v>0</v>
+      </c>
+      <c r="E21" s="10">
+        <v>0</v>
+      </c>
+      <c r="F21" s="10">
+        <v>0</v>
+      </c>
+      <c r="G21" s="10">
+        <v>0</v>
+      </c>
+      <c r="H21" s="10">
+        <v>0</v>
+      </c>
+      <c r="I21" s="10">
+        <v>0</v>
+      </c>
+      <c r="J21" s="10">
         <v>5.9523809523809521E-3</v>
       </c>
       <c r="K21" s="8"/>
@@ -5968,31 +5902,31 @@
       <c r="A22" s="8" t="s">
         <v>8</v>
       </c>
-      <c r="B22" s="12">
-        <v>0</v>
-      </c>
-      <c r="C22" s="12">
+      <c r="B22" s="10">
+        <v>0</v>
+      </c>
+      <c r="C22" s="10">
         <v>5.9523809523809521E-3</v>
       </c>
-      <c r="D22" s="12">
-        <v>0</v>
-      </c>
-      <c r="E22" s="12">
-        <v>0</v>
-      </c>
-      <c r="F22" s="12">
-        <v>0</v>
-      </c>
-      <c r="G22" s="12">
-        <v>0</v>
-      </c>
-      <c r="H22" s="12">
-        <v>0</v>
-      </c>
-      <c r="I22" s="12">
-        <v>0</v>
-      </c>
-      <c r="J22" s="12">
+      <c r="D22" s="10">
+        <v>0</v>
+      </c>
+      <c r="E22" s="10">
+        <v>0</v>
+      </c>
+      <c r="F22" s="10">
+        <v>0</v>
+      </c>
+      <c r="G22" s="10">
+        <v>0</v>
+      </c>
+      <c r="H22" s="10">
+        <v>0</v>
+      </c>
+      <c r="I22" s="10">
+        <v>0</v>
+      </c>
+      <c r="J22" s="10">
         <v>5.9523809523809521E-3</v>
       </c>
       <c r="K22" s="8"/>
@@ -6001,31 +5935,31 @@
       <c r="A23" s="8" t="s">
         <v>1</v>
       </c>
-      <c r="B23" s="12">
+      <c r="B23" s="10">
         <v>7.7380952380952384E-2</v>
       </c>
-      <c r="C23" s="12">
+      <c r="C23" s="10">
         <v>5.9523809523809521E-2</v>
       </c>
-      <c r="D23" s="12">
+      <c r="D23" s="10">
         <v>8.9285714285714288E-2</v>
       </c>
-      <c r="E23" s="12">
+      <c r="E23" s="10">
         <v>4.1666666666666664E-2</v>
       </c>
-      <c r="F23" s="12">
+      <c r="F23" s="10">
         <v>2.976190476190476E-2</v>
       </c>
-      <c r="G23" s="12">
+      <c r="G23" s="10">
         <v>7.1428571428571425E-2</v>
       </c>
-      <c r="H23" s="12">
+      <c r="H23" s="10">
         <v>7.1428571428571425E-2</v>
       </c>
-      <c r="I23" s="12">
-        <v>0</v>
-      </c>
-      <c r="J23" s="12">
+      <c r="I23" s="10">
+        <v>0</v>
+      </c>
+      <c r="J23" s="10">
         <v>0.44047619047619047</v>
       </c>
       <c r="K23" s="8"/>
@@ -6034,31 +5968,31 @@
       <c r="A24" s="8" t="s">
         <v>23</v>
       </c>
-      <c r="B24" s="12">
-        <v>0</v>
-      </c>
-      <c r="C24" s="12">
-        <v>0</v>
-      </c>
-      <c r="D24" s="12">
-        <v>0</v>
-      </c>
-      <c r="E24" s="12">
-        <v>0</v>
-      </c>
-      <c r="F24" s="12">
-        <v>0</v>
-      </c>
-      <c r="G24" s="12">
+      <c r="B24" s="10">
+        <v>0</v>
+      </c>
+      <c r="C24" s="10">
+        <v>0</v>
+      </c>
+      <c r="D24" s="10">
+        <v>0</v>
+      </c>
+      <c r="E24" s="10">
+        <v>0</v>
+      </c>
+      <c r="F24" s="10">
+        <v>0</v>
+      </c>
+      <c r="G24" s="10">
         <v>5.9523809523809521E-3</v>
       </c>
-      <c r="H24" s="12">
-        <v>0</v>
-      </c>
-      <c r="I24" s="12">
-        <v>0</v>
-      </c>
-      <c r="J24" s="12">
+      <c r="H24" s="10">
+        <v>0</v>
+      </c>
+      <c r="I24" s="10">
+        <v>0</v>
+      </c>
+      <c r="J24" s="10">
         <v>5.9523809523809521E-3</v>
       </c>
       <c r="K24" s="8"/>
@@ -6067,31 +6001,31 @@
       <c r="A25" s="8" t="s">
         <v>5</v>
       </c>
-      <c r="B25" s="12">
-        <v>0</v>
-      </c>
-      <c r="C25" s="12">
+      <c r="B25" s="10">
+        <v>0</v>
+      </c>
+      <c r="C25" s="10">
         <v>5.9523809523809521E-3</v>
       </c>
-      <c r="D25" s="12">
-        <v>0</v>
-      </c>
-      <c r="E25" s="12">
+      <c r="D25" s="10">
+        <v>0</v>
+      </c>
+      <c r="E25" s="10">
         <v>5.9523809523809521E-3</v>
       </c>
-      <c r="F25" s="12">
+      <c r="F25" s="10">
         <v>5.9523809523809521E-3</v>
       </c>
-      <c r="G25" s="12">
-        <v>0</v>
-      </c>
-      <c r="H25" s="12">
-        <v>0</v>
-      </c>
-      <c r="I25" s="12">
-        <v>0</v>
-      </c>
-      <c r="J25" s="12">
+      <c r="G25" s="10">
+        <v>0</v>
+      </c>
+      <c r="H25" s="10">
+        <v>0</v>
+      </c>
+      <c r="I25" s="10">
+        <v>0</v>
+      </c>
+      <c r="J25" s="10">
         <v>1.7857142857142856E-2</v>
       </c>
       <c r="K25" s="8"/>
@@ -6100,31 +6034,31 @@
       <c r="A26" s="8" t="s">
         <v>15</v>
       </c>
-      <c r="B26" s="12">
-        <v>0</v>
-      </c>
-      <c r="C26" s="12">
-        <v>0</v>
-      </c>
-      <c r="D26" s="12">
+      <c r="B26" s="10">
+        <v>0</v>
+      </c>
+      <c r="C26" s="10">
+        <v>0</v>
+      </c>
+      <c r="D26" s="10">
         <v>5.9523809523809521E-3</v>
       </c>
-      <c r="E26" s="12">
+      <c r="E26" s="10">
         <v>5.9523809523809521E-3</v>
       </c>
-      <c r="F26" s="12">
-        <v>0</v>
-      </c>
-      <c r="G26" s="12">
-        <v>0</v>
-      </c>
-      <c r="H26" s="12">
-        <v>0</v>
-      </c>
-      <c r="I26" s="12">
-        <v>0</v>
-      </c>
-      <c r="J26" s="12">
+      <c r="F26" s="10">
+        <v>0</v>
+      </c>
+      <c r="G26" s="10">
+        <v>0</v>
+      </c>
+      <c r="H26" s="10">
+        <v>0</v>
+      </c>
+      <c r="I26" s="10">
+        <v>0</v>
+      </c>
+      <c r="J26" s="10">
         <v>1.1904761904761904E-2</v>
       </c>
       <c r="K26" s="8"/>
@@ -6133,31 +6067,31 @@
       <c r="A27" s="8" t="s">
         <v>25</v>
       </c>
-      <c r="B27" s="12">
-        <v>0</v>
-      </c>
-      <c r="C27" s="12">
-        <v>0</v>
-      </c>
-      <c r="D27" s="12">
-        <v>0</v>
-      </c>
-      <c r="E27" s="12">
-        <v>0</v>
-      </c>
-      <c r="F27" s="12">
-        <v>0</v>
-      </c>
-      <c r="G27" s="12">
-        <v>0</v>
-      </c>
-      <c r="H27" s="12">
-        <v>0</v>
-      </c>
-      <c r="I27" s="12">
-        <v>0</v>
-      </c>
-      <c r="J27" s="12">
+      <c r="B27" s="10">
+        <v>0</v>
+      </c>
+      <c r="C27" s="10">
+        <v>0</v>
+      </c>
+      <c r="D27" s="10">
+        <v>0</v>
+      </c>
+      <c r="E27" s="10">
+        <v>0</v>
+      </c>
+      <c r="F27" s="10">
+        <v>0</v>
+      </c>
+      <c r="G27" s="10">
+        <v>0</v>
+      </c>
+      <c r="H27" s="10">
+        <v>0</v>
+      </c>
+      <c r="I27" s="10">
+        <v>0</v>
+      </c>
+      <c r="J27" s="10">
         <v>0</v>
       </c>
       <c r="K27" s="8"/>
@@ -6166,31 +6100,31 @@
       <c r="A28" s="8" t="s">
         <v>26</v>
       </c>
-      <c r="B28" s="12">
+      <c r="B28" s="10">
         <v>0.13690476190476192</v>
       </c>
-      <c r="C28" s="12">
+      <c r="C28" s="10">
         <v>0.14880952380952381</v>
       </c>
-      <c r="D28" s="12">
+      <c r="D28" s="10">
         <v>0.14880952380952381</v>
       </c>
-      <c r="E28" s="12">
+      <c r="E28" s="10">
         <v>0.14285714285714285</v>
       </c>
-      <c r="F28" s="12">
+      <c r="F28" s="10">
         <v>0.13690476190476192</v>
       </c>
-      <c r="G28" s="12">
+      <c r="G28" s="10">
         <v>0.14285714285714285</v>
       </c>
-      <c r="H28" s="12">
+      <c r="H28" s="10">
         <v>0.14285714285714285</v>
       </c>
-      <c r="I28" s="12">
-        <v>0</v>
-      </c>
-      <c r="J28" s="12">
+      <c r="I28" s="10">
+        <v>0</v>
+      </c>
+      <c r="J28" s="10">
         <v>1</v>
       </c>
       <c r="K28" s="8"/>
@@ -6210,7 +6144,7 @@
       <c r="J31" s="3"/>
     </row>
     <row r="32" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="A32" s="15" t="s">
+      <c r="A32" s="13" t="s">
         <v>0</v>
       </c>
       <c r="B32" s="1" t="s">
@@ -6261,31 +6195,31 @@
       <c r="A35" s="8" t="s">
         <v>30</v>
       </c>
-      <c r="B35" s="13">
-        <v>0</v>
-      </c>
-      <c r="C35" s="13">
-        <v>0</v>
-      </c>
-      <c r="D35" s="13">
+      <c r="B35" s="11">
+        <v>0</v>
+      </c>
+      <c r="C35" s="11">
+        <v>0</v>
+      </c>
+      <c r="D35" s="11">
         <v>6.2111801242236021E-3</v>
       </c>
-      <c r="E35" s="13">
-        <v>0</v>
-      </c>
-      <c r="F35" s="13">
-        <v>0</v>
-      </c>
-      <c r="G35" s="13">
-        <v>0</v>
-      </c>
-      <c r="H35" s="13">
-        <v>0</v>
-      </c>
-      <c r="I35" s="13">
-        <v>0</v>
-      </c>
-      <c r="J35" s="13">
+      <c r="E35" s="11">
+        <v>0</v>
+      </c>
+      <c r="F35" s="11">
+        <v>0</v>
+      </c>
+      <c r="G35" s="11">
+        <v>0</v>
+      </c>
+      <c r="H35" s="11">
+        <v>0</v>
+      </c>
+      <c r="I35" s="11">
+        <v>0</v>
+      </c>
+      <c r="J35" s="11">
         <v>6.2111801242236021E-3</v>
       </c>
     </row>
@@ -6293,31 +6227,31 @@
       <c r="A36" s="8" t="s">
         <v>3</v>
       </c>
-      <c r="B36" s="13">
+      <c r="B36" s="11">
         <v>3.7267080745341616E-2</v>
       </c>
-      <c r="C36" s="13">
+      <c r="C36" s="11">
         <v>1.8633540372670808E-2</v>
       </c>
-      <c r="D36" s="13">
+      <c r="D36" s="11">
         <v>8.0745341614906832E-2</v>
       </c>
-      <c r="E36" s="13">
+      <c r="E36" s="11">
         <v>3.7267080745341616E-2</v>
       </c>
-      <c r="F36" s="13">
+      <c r="F36" s="11">
         <v>4.3478260869565216E-2</v>
       </c>
-      <c r="G36" s="13">
+      <c r="G36" s="11">
         <v>7.4534161490683232E-2</v>
       </c>
-      <c r="H36" s="13">
+      <c r="H36" s="11">
         <v>3.7267080745341616E-2</v>
       </c>
-      <c r="I36" s="13">
-        <v>0</v>
-      </c>
-      <c r="J36" s="13">
+      <c r="I36" s="11">
+        <v>0</v>
+      </c>
+      <c r="J36" s="11">
         <v>0.32919254658385094</v>
       </c>
     </row>
@@ -6325,31 +6259,31 @@
       <c r="A37" s="8" t="s">
         <v>32</v>
       </c>
-      <c r="B37" s="13">
-        <v>0</v>
-      </c>
-      <c r="C37" s="13">
-        <v>0</v>
-      </c>
-      <c r="D37" s="13">
+      <c r="B37" s="11">
+        <v>0</v>
+      </c>
+      <c r="C37" s="11">
+        <v>0</v>
+      </c>
+      <c r="D37" s="11">
         <v>6.2111801242236021E-3</v>
       </c>
-      <c r="E37" s="13">
-        <v>0</v>
-      </c>
-      <c r="F37" s="13">
-        <v>0</v>
-      </c>
-      <c r="G37" s="13">
-        <v>0</v>
-      </c>
-      <c r="H37" s="13">
-        <v>0</v>
-      </c>
-      <c r="I37" s="13">
-        <v>0</v>
-      </c>
-      <c r="J37" s="13">
+      <c r="E37" s="11">
+        <v>0</v>
+      </c>
+      <c r="F37" s="11">
+        <v>0</v>
+      </c>
+      <c r="G37" s="11">
+        <v>0</v>
+      </c>
+      <c r="H37" s="11">
+        <v>0</v>
+      </c>
+      <c r="I37" s="11">
+        <v>0</v>
+      </c>
+      <c r="J37" s="11">
         <v>6.2111801242236021E-3</v>
       </c>
     </row>
@@ -6357,31 +6291,31 @@
       <c r="A38" s="8" t="s">
         <v>36</v>
       </c>
-      <c r="B38" s="13">
-        <v>0</v>
-      </c>
-      <c r="C38" s="13">
-        <v>0</v>
-      </c>
-      <c r="D38" s="13">
-        <v>0</v>
-      </c>
-      <c r="E38" s="13">
-        <v>0</v>
-      </c>
-      <c r="F38" s="13">
+      <c r="B38" s="11">
+        <v>0</v>
+      </c>
+      <c r="C38" s="11">
+        <v>0</v>
+      </c>
+      <c r="D38" s="11">
+        <v>0</v>
+      </c>
+      <c r="E38" s="11">
+        <v>0</v>
+      </c>
+      <c r="F38" s="11">
         <v>6.2111801242236021E-3</v>
       </c>
-      <c r="G38" s="13">
-        <v>0</v>
-      </c>
-      <c r="H38" s="13">
-        <v>0</v>
-      </c>
-      <c r="I38" s="13">
-        <v>0</v>
-      </c>
-      <c r="J38" s="13">
+      <c r="G38" s="11">
+        <v>0</v>
+      </c>
+      <c r="H38" s="11">
+        <v>0</v>
+      </c>
+      <c r="I38" s="11">
+        <v>0</v>
+      </c>
+      <c r="J38" s="11">
         <v>6.2111801242236021E-3</v>
       </c>
     </row>
@@ -6389,31 +6323,31 @@
       <c r="A39" s="8" t="s">
         <v>19</v>
       </c>
-      <c r="B39" s="13">
+      <c r="B39" s="11">
         <v>3.1055900621118012E-2</v>
       </c>
-      <c r="C39" s="13">
+      <c r="C39" s="11">
         <v>3.1055900621118012E-2</v>
       </c>
-      <c r="D39" s="13">
+      <c r="D39" s="11">
         <v>3.1055900621118012E-2</v>
       </c>
-      <c r="E39" s="13">
-        <v>0</v>
-      </c>
-      <c r="F39" s="13">
+      <c r="E39" s="11">
+        <v>0</v>
+      </c>
+      <c r="F39" s="11">
         <v>1.2422360248447204E-2</v>
       </c>
-      <c r="G39" s="13">
+      <c r="G39" s="11">
         <v>1.8633540372670808E-2</v>
       </c>
-      <c r="H39" s="13">
+      <c r="H39" s="11">
         <v>6.2111801242236024E-2</v>
       </c>
-      <c r="I39" s="13">
-        <v>0</v>
-      </c>
-      <c r="J39" s="13">
+      <c r="I39" s="11">
+        <v>0</v>
+      </c>
+      <c r="J39" s="11">
         <v>0.18633540372670807</v>
       </c>
     </row>
@@ -6421,31 +6355,31 @@
       <c r="A40" s="8" t="s">
         <v>16</v>
       </c>
-      <c r="B40" s="13">
-        <v>0</v>
-      </c>
-      <c r="C40" s="13">
-        <v>0</v>
-      </c>
-      <c r="D40" s="13">
-        <v>0</v>
-      </c>
-      <c r="E40" s="13">
+      <c r="B40" s="11">
+        <v>0</v>
+      </c>
+      <c r="C40" s="11">
+        <v>0</v>
+      </c>
+      <c r="D40" s="11">
+        <v>0</v>
+      </c>
+      <c r="E40" s="11">
         <v>3.7267080745341616E-2</v>
       </c>
-      <c r="F40" s="13">
-        <v>0</v>
-      </c>
-      <c r="G40" s="13">
-        <v>0</v>
-      </c>
-      <c r="H40" s="13">
-        <v>0</v>
-      </c>
-      <c r="I40" s="13">
-        <v>0</v>
-      </c>
-      <c r="J40" s="13">
+      <c r="F40" s="11">
+        <v>0</v>
+      </c>
+      <c r="G40" s="11">
+        <v>0</v>
+      </c>
+      <c r="H40" s="11">
+        <v>0</v>
+      </c>
+      <c r="I40" s="11">
+        <v>0</v>
+      </c>
+      <c r="J40" s="11">
         <v>3.7267080745341616E-2</v>
       </c>
     </row>
@@ -6453,31 +6387,31 @@
       <c r="A41" s="8" t="s">
         <v>22</v>
       </c>
-      <c r="B41" s="13">
-        <v>0</v>
-      </c>
-      <c r="C41" s="13">
-        <v>0</v>
-      </c>
-      <c r="D41" s="13">
+      <c r="B41" s="11">
+        <v>0</v>
+      </c>
+      <c r="C41" s="11">
+        <v>0</v>
+      </c>
+      <c r="D41" s="11">
         <v>6.2111801242236021E-3</v>
       </c>
-      <c r="E41" s="13">
-        <v>0</v>
-      </c>
-      <c r="F41" s="13">
+      <c r="E41" s="11">
+        <v>0</v>
+      </c>
+      <c r="F41" s="11">
         <v>1.2422360248447204E-2</v>
       </c>
-      <c r="G41" s="13">
-        <v>0</v>
-      </c>
-      <c r="H41" s="13">
+      <c r="G41" s="11">
+        <v>0</v>
+      </c>
+      <c r="H41" s="11">
         <v>1.2422360248447204E-2</v>
       </c>
-      <c r="I41" s="13">
-        <v>0</v>
-      </c>
-      <c r="J41" s="13">
+      <c r="I41" s="11">
+        <v>0</v>
+      </c>
+      <c r="J41" s="11">
         <v>3.1055900621118012E-2</v>
       </c>
     </row>
@@ -6485,31 +6419,31 @@
       <c r="A42" s="8" t="s">
         <v>35</v>
       </c>
-      <c r="B42" s="13">
-        <v>0</v>
-      </c>
-      <c r="C42" s="13">
-        <v>0</v>
-      </c>
-      <c r="D42" s="13">
-        <v>0</v>
-      </c>
-      <c r="E42" s="13">
+      <c r="B42" s="11">
+        <v>0</v>
+      </c>
+      <c r="C42" s="11">
+        <v>0</v>
+      </c>
+      <c r="D42" s="11">
+        <v>0</v>
+      </c>
+      <c r="E42" s="11">
         <v>6.2111801242236021E-3</v>
       </c>
-      <c r="F42" s="13">
-        <v>0</v>
-      </c>
-      <c r="G42" s="13">
+      <c r="F42" s="11">
+        <v>0</v>
+      </c>
+      <c r="G42" s="11">
         <v>6.2111801242236021E-3</v>
       </c>
-      <c r="H42" s="13">
-        <v>0</v>
-      </c>
-      <c r="I42" s="13">
-        <v>0</v>
-      </c>
-      <c r="J42" s="13">
+      <c r="H42" s="11">
+        <v>0</v>
+      </c>
+      <c r="I42" s="11">
+        <v>0</v>
+      </c>
+      <c r="J42" s="11">
         <v>1.2422360248447204E-2</v>
       </c>
     </row>
@@ -6517,31 +6451,31 @@
       <c r="A43" s="8" t="s">
         <v>7</v>
       </c>
-      <c r="B43" s="13">
-        <v>0</v>
-      </c>
-      <c r="C43" s="13">
+      <c r="B43" s="11">
+        <v>0</v>
+      </c>
+      <c r="C43" s="11">
         <v>6.2111801242236021E-3</v>
       </c>
-      <c r="D43" s="13">
-        <v>0</v>
-      </c>
-      <c r="E43" s="13">
-        <v>0</v>
-      </c>
-      <c r="F43" s="13">
-        <v>0</v>
-      </c>
-      <c r="G43" s="13">
-        <v>0</v>
-      </c>
-      <c r="H43" s="13">
-        <v>0</v>
-      </c>
-      <c r="I43" s="13">
-        <v>0</v>
-      </c>
-      <c r="J43" s="13">
+      <c r="D43" s="11">
+        <v>0</v>
+      </c>
+      <c r="E43" s="11">
+        <v>0</v>
+      </c>
+      <c r="F43" s="11">
+        <v>0</v>
+      </c>
+      <c r="G43" s="11">
+        <v>0</v>
+      </c>
+      <c r="H43" s="11">
+        <v>0</v>
+      </c>
+      <c r="I43" s="11">
+        <v>0</v>
+      </c>
+      <c r="J43" s="11">
         <v>6.2111801242236021E-3</v>
       </c>
     </row>
@@ -6549,31 +6483,31 @@
       <c r="A44" s="8" t="s">
         <v>12</v>
       </c>
-      <c r="B44" s="13">
-        <v>0</v>
-      </c>
-      <c r="C44" s="13">
+      <c r="B44" s="11">
+        <v>0</v>
+      </c>
+      <c r="C44" s="11">
         <v>1.8633540372670808E-2</v>
       </c>
-      <c r="D44" s="13">
+      <c r="D44" s="11">
         <v>1.2422360248447204E-2</v>
       </c>
-      <c r="E44" s="13">
+      <c r="E44" s="11">
         <v>6.2111801242236024E-2</v>
       </c>
-      <c r="F44" s="13">
+      <c r="F44" s="11">
         <v>3.7267080745341616E-2</v>
       </c>
-      <c r="G44" s="13">
+      <c r="G44" s="11">
         <v>6.2111801242236021E-3</v>
       </c>
-      <c r="H44" s="13">
+      <c r="H44" s="11">
         <v>6.2111801242236021E-3</v>
       </c>
-      <c r="I44" s="13">
-        <v>0</v>
-      </c>
-      <c r="J44" s="13">
+      <c r="I44" s="11">
+        <v>0</v>
+      </c>
+      <c r="J44" s="11">
         <v>0.14285714285714285</v>
       </c>
     </row>
@@ -6581,31 +6515,31 @@
       <c r="A45" s="8" t="s">
         <v>31</v>
       </c>
-      <c r="B45" s="13">
-        <v>0</v>
-      </c>
-      <c r="C45" s="13">
-        <v>0</v>
-      </c>
-      <c r="D45" s="13">
+      <c r="B45" s="11">
+        <v>0</v>
+      </c>
+      <c r="C45" s="11">
+        <v>0</v>
+      </c>
+      <c r="D45" s="11">
         <v>6.2111801242236021E-3</v>
       </c>
-      <c r="E45" s="13">
-        <v>0</v>
-      </c>
-      <c r="F45" s="13">
-        <v>0</v>
-      </c>
-      <c r="G45" s="13">
+      <c r="E45" s="11">
+        <v>0</v>
+      </c>
+      <c r="F45" s="11">
+        <v>0</v>
+      </c>
+      <c r="G45" s="11">
         <v>6.2111801242236021E-3</v>
       </c>
-      <c r="H45" s="13">
+      <c r="H45" s="11">
         <v>1.2422360248447204E-2</v>
       </c>
-      <c r="I45" s="13">
-        <v>0</v>
-      </c>
-      <c r="J45" s="13">
+      <c r="I45" s="11">
+        <v>0</v>
+      </c>
+      <c r="J45" s="11">
         <v>2.4844720496894408E-2</v>
       </c>
     </row>
@@ -6613,31 +6547,31 @@
       <c r="A46" s="8" t="s">
         <v>38</v>
       </c>
-      <c r="B46" s="13">
-        <v>0</v>
-      </c>
-      <c r="C46" s="13">
-        <v>0</v>
-      </c>
-      <c r="D46" s="13">
-        <v>0</v>
-      </c>
-      <c r="E46" s="13">
-        <v>0</v>
-      </c>
-      <c r="F46" s="13">
+      <c r="B46" s="11">
+        <v>0</v>
+      </c>
+      <c r="C46" s="11">
+        <v>0</v>
+      </c>
+      <c r="D46" s="11">
+        <v>0</v>
+      </c>
+      <c r="E46" s="11">
+        <v>0</v>
+      </c>
+      <c r="F46" s="11">
         <v>6.2111801242236021E-3</v>
       </c>
-      <c r="G46" s="13">
+      <c r="G46" s="11">
         <v>1.2422360248447204E-2</v>
       </c>
-      <c r="H46" s="13">
-        <v>0</v>
-      </c>
-      <c r="I46" s="13">
-        <v>0</v>
-      </c>
-      <c r="J46" s="13">
+      <c r="H46" s="11">
+        <v>0</v>
+      </c>
+      <c r="I46" s="11">
+        <v>0</v>
+      </c>
+      <c r="J46" s="11">
         <v>1.8633540372670808E-2</v>
       </c>
     </row>
@@ -6645,31 +6579,31 @@
       <c r="A47" s="8" t="s">
         <v>13</v>
       </c>
-      <c r="B47" s="13">
-        <v>0</v>
-      </c>
-      <c r="C47" s="13">
+      <c r="B47" s="11">
+        <v>0</v>
+      </c>
+      <c r="C47" s="11">
         <v>6.2111801242236021E-3</v>
       </c>
-      <c r="D47" s="13">
+      <c r="D47" s="11">
         <v>6.2111801242236021E-3</v>
       </c>
-      <c r="E47" s="13">
-        <v>0</v>
-      </c>
-      <c r="F47" s="13">
-        <v>0</v>
-      </c>
-      <c r="G47" s="13">
-        <v>0</v>
-      </c>
-      <c r="H47" s="13">
-        <v>0</v>
-      </c>
-      <c r="I47" s="13">
-        <v>0</v>
-      </c>
-      <c r="J47" s="13">
+      <c r="E47" s="11">
+        <v>0</v>
+      </c>
+      <c r="F47" s="11">
+        <v>0</v>
+      </c>
+      <c r="G47" s="11">
+        <v>0</v>
+      </c>
+      <c r="H47" s="11">
+        <v>0</v>
+      </c>
+      <c r="I47" s="11">
+        <v>0</v>
+      </c>
+      <c r="J47" s="11">
         <v>1.2422360248447204E-2</v>
       </c>
     </row>
@@ -6677,31 +6611,31 @@
       <c r="A48" s="8" t="s">
         <v>33</v>
       </c>
-      <c r="B48" s="13">
-        <v>0</v>
-      </c>
-      <c r="C48" s="13">
-        <v>0</v>
-      </c>
-      <c r="D48" s="13">
+      <c r="B48" s="11">
+        <v>0</v>
+      </c>
+      <c r="C48" s="11">
+        <v>0</v>
+      </c>
+      <c r="D48" s="11">
         <v>6.2111801242236021E-3</v>
       </c>
-      <c r="E48" s="13">
+      <c r="E48" s="11">
         <v>6.2111801242236021E-3</v>
       </c>
-      <c r="F48" s="13">
-        <v>0</v>
-      </c>
-      <c r="G48" s="13">
-        <v>0</v>
-      </c>
-      <c r="H48" s="13">
+      <c r="F48" s="11">
+        <v>0</v>
+      </c>
+      <c r="G48" s="11">
+        <v>0</v>
+      </c>
+      <c r="H48" s="11">
         <v>6.2111801242236021E-3</v>
       </c>
-      <c r="I48" s="13">
-        <v>0</v>
-      </c>
-      <c r="J48" s="13">
+      <c r="I48" s="11">
+        <v>0</v>
+      </c>
+      <c r="J48" s="11">
         <v>1.8633540372670808E-2</v>
       </c>
     </row>
@@ -6709,31 +6643,31 @@
       <c r="A49" s="8" t="s">
         <v>34</v>
       </c>
-      <c r="B49" s="13">
-        <v>0</v>
-      </c>
-      <c r="C49" s="13">
-        <v>0</v>
-      </c>
-      <c r="D49" s="13">
-        <v>0</v>
-      </c>
-      <c r="E49" s="13">
+      <c r="B49" s="11">
+        <v>0</v>
+      </c>
+      <c r="C49" s="11">
+        <v>0</v>
+      </c>
+      <c r="D49" s="11">
+        <v>0</v>
+      </c>
+      <c r="E49" s="11">
         <v>6.2111801242236021E-3</v>
       </c>
-      <c r="F49" s="13">
+      <c r="F49" s="11">
         <v>1.2422360248447204E-2</v>
       </c>
-      <c r="G49" s="13">
-        <v>0</v>
-      </c>
-      <c r="H49" s="13">
-        <v>0</v>
-      </c>
-      <c r="I49" s="13">
-        <v>0</v>
-      </c>
-      <c r="J49" s="13">
+      <c r="G49" s="11">
+        <v>0</v>
+      </c>
+      <c r="H49" s="11">
+        <v>0</v>
+      </c>
+      <c r="I49" s="11">
+        <v>0</v>
+      </c>
+      <c r="J49" s="11">
         <v>1.8633540372670808E-2</v>
       </c>
     </row>
@@ -6741,31 +6675,31 @@
       <c r="A50" s="8" t="s">
         <v>41</v>
       </c>
-      <c r="B50" s="13">
-        <v>0</v>
-      </c>
-      <c r="C50" s="13">
-        <v>0</v>
-      </c>
-      <c r="D50" s="13">
-        <v>0</v>
-      </c>
-      <c r="E50" s="13">
-        <v>0</v>
-      </c>
-      <c r="F50" s="13">
-        <v>0</v>
-      </c>
-      <c r="G50" s="13">
+      <c r="B50" s="11">
+        <v>0</v>
+      </c>
+      <c r="C50" s="11">
+        <v>0</v>
+      </c>
+      <c r="D50" s="11">
+        <v>0</v>
+      </c>
+      <c r="E50" s="11">
+        <v>0</v>
+      </c>
+      <c r="F50" s="11">
+        <v>0</v>
+      </c>
+      <c r="G50" s="11">
         <v>6.2111801242236021E-3</v>
       </c>
-      <c r="H50" s="13">
+      <c r="H50" s="11">
         <v>6.2111801242236021E-3</v>
       </c>
-      <c r="I50" s="13">
-        <v>0</v>
-      </c>
-      <c r="J50" s="13">
+      <c r="I50" s="11">
+        <v>0</v>
+      </c>
+      <c r="J50" s="11">
         <v>1.2422360248447204E-2</v>
       </c>
     </row>
@@ -6773,31 +6707,31 @@
       <c r="A51" s="8" t="s">
         <v>9</v>
       </c>
-      <c r="B51" s="13">
-        <v>0</v>
-      </c>
-      <c r="C51" s="13">
-        <v>0</v>
-      </c>
-      <c r="D51" s="13">
-        <v>0</v>
-      </c>
-      <c r="E51" s="13">
+      <c r="B51" s="11">
+        <v>0</v>
+      </c>
+      <c r="C51" s="11">
+        <v>0</v>
+      </c>
+      <c r="D51" s="11">
+        <v>0</v>
+      </c>
+      <c r="E51" s="11">
         <v>6.2111801242236021E-3</v>
       </c>
-      <c r="F51" s="13">
+      <c r="F51" s="11">
         <v>6.2111801242236021E-3</v>
       </c>
-      <c r="G51" s="13">
-        <v>0</v>
-      </c>
-      <c r="H51" s="13">
-        <v>0</v>
-      </c>
-      <c r="I51" s="13">
-        <v>0</v>
-      </c>
-      <c r="J51" s="13">
+      <c r="G51" s="11">
+        <v>0</v>
+      </c>
+      <c r="H51" s="11">
+        <v>0</v>
+      </c>
+      <c r="I51" s="11">
+        <v>0</v>
+      </c>
+      <c r="J51" s="11">
         <v>1.2422360248447204E-2</v>
       </c>
     </row>
@@ -6805,31 +6739,31 @@
       <c r="A52" s="8" t="s">
         <v>8</v>
       </c>
-      <c r="B52" s="13">
-        <v>0</v>
-      </c>
-      <c r="C52" s="13">
+      <c r="B52" s="11">
+        <v>0</v>
+      </c>
+      <c r="C52" s="11">
         <v>1.2422360248447204E-2</v>
       </c>
-      <c r="D52" s="13">
-        <v>0</v>
-      </c>
-      <c r="E52" s="13">
+      <c r="D52" s="11">
+        <v>0</v>
+      </c>
+      <c r="E52" s="11">
         <v>6.2111801242236021E-3</v>
       </c>
-      <c r="F52" s="13">
-        <v>0</v>
-      </c>
-      <c r="G52" s="13">
-        <v>0</v>
-      </c>
-      <c r="H52" s="13">
-        <v>0</v>
-      </c>
-      <c r="I52" s="13">
-        <v>0</v>
-      </c>
-      <c r="J52" s="13">
+      <c r="F52" s="11">
+        <v>0</v>
+      </c>
+      <c r="G52" s="11">
+        <v>0</v>
+      </c>
+      <c r="H52" s="11">
+        <v>0</v>
+      </c>
+      <c r="I52" s="11">
+        <v>0</v>
+      </c>
+      <c r="J52" s="11">
         <v>1.8633540372670808E-2</v>
       </c>
     </row>
@@ -6837,31 +6771,31 @@
       <c r="A53" s="8" t="s">
         <v>1</v>
       </c>
-      <c r="B53" s="13">
+      <c r="B53" s="11">
         <v>1.8633540372670808E-2</v>
       </c>
-      <c r="C53" s="13">
-        <v>0</v>
-      </c>
-      <c r="D53" s="13">
-        <v>0</v>
-      </c>
-      <c r="E53" s="13">
+      <c r="C53" s="11">
+        <v>0</v>
+      </c>
+      <c r="D53" s="11">
+        <v>0</v>
+      </c>
+      <c r="E53" s="11">
         <v>6.2111801242236021E-3</v>
       </c>
-      <c r="F53" s="13">
-        <v>0</v>
-      </c>
-      <c r="G53" s="13">
+      <c r="F53" s="11">
+        <v>0</v>
+      </c>
+      <c r="G53" s="11">
         <v>6.2111801242236021E-3</v>
       </c>
-      <c r="H53" s="13">
+      <c r="H53" s="11">
         <v>1.2422360248447204E-2</v>
       </c>
-      <c r="I53" s="13">
-        <v>0</v>
-      </c>
-      <c r="J53" s="13">
+      <c r="I53" s="11">
+        <v>0</v>
+      </c>
+      <c r="J53" s="11">
         <v>4.3478260869565216E-2</v>
       </c>
     </row>
@@ -6869,31 +6803,31 @@
       <c r="A54" s="8" t="s">
         <v>39</v>
       </c>
-      <c r="B54" s="13">
-        <v>0</v>
-      </c>
-      <c r="C54" s="13">
-        <v>0</v>
-      </c>
-      <c r="D54" s="13">
-        <v>0</v>
-      </c>
-      <c r="E54" s="13">
-        <v>0</v>
-      </c>
-      <c r="F54" s="13">
+      <c r="B54" s="11">
+        <v>0</v>
+      </c>
+      <c r="C54" s="11">
+        <v>0</v>
+      </c>
+      <c r="D54" s="11">
+        <v>0</v>
+      </c>
+      <c r="E54" s="11">
+        <v>0</v>
+      </c>
+      <c r="F54" s="11">
         <v>6.2111801242236021E-3</v>
       </c>
-      <c r="G54" s="13">
-        <v>0</v>
-      </c>
-      <c r="H54" s="13">
-        <v>0</v>
-      </c>
-      <c r="I54" s="13">
-        <v>0</v>
-      </c>
-      <c r="J54" s="13">
+      <c r="G54" s="11">
+        <v>0</v>
+      </c>
+      <c r="H54" s="11">
+        <v>0</v>
+      </c>
+      <c r="I54" s="11">
+        <v>0</v>
+      </c>
+      <c r="J54" s="11">
         <v>6.2111801242236021E-3</v>
       </c>
     </row>
@@ -6901,31 +6835,31 @@
       <c r="A55" s="8" t="s">
         <v>23</v>
       </c>
-      <c r="B55" s="13">
-        <v>0</v>
-      </c>
-      <c r="C55" s="13">
-        <v>0</v>
-      </c>
-      <c r="D55" s="13">
-        <v>0</v>
-      </c>
-      <c r="E55" s="13">
+      <c r="B55" s="11">
+        <v>0</v>
+      </c>
+      <c r="C55" s="11">
+        <v>0</v>
+      </c>
+      <c r="D55" s="11">
+        <v>0</v>
+      </c>
+      <c r="E55" s="11">
         <v>6.2111801242236021E-3</v>
       </c>
-      <c r="F55" s="13">
-        <v>0</v>
-      </c>
-      <c r="G55" s="13">
-        <v>0</v>
-      </c>
-      <c r="H55" s="13">
-        <v>0</v>
-      </c>
-      <c r="I55" s="13">
-        <v>0</v>
-      </c>
-      <c r="J55" s="13">
+      <c r="F55" s="11">
+        <v>0</v>
+      </c>
+      <c r="G55" s="11">
+        <v>0</v>
+      </c>
+      <c r="H55" s="11">
+        <v>0</v>
+      </c>
+      <c r="I55" s="11">
+        <v>0</v>
+      </c>
+      <c r="J55" s="11">
         <v>6.2111801242236021E-3</v>
       </c>
     </row>
@@ -6933,31 +6867,31 @@
       <c r="A56" s="8" t="s">
         <v>40</v>
       </c>
-      <c r="B56" s="13">
-        <v>0</v>
-      </c>
-      <c r="C56" s="13">
-        <v>0</v>
-      </c>
-      <c r="D56" s="13">
-        <v>0</v>
-      </c>
-      <c r="E56" s="13">
-        <v>0</v>
-      </c>
-      <c r="F56" s="13">
-        <v>0</v>
-      </c>
-      <c r="G56" s="13">
+      <c r="B56" s="11">
+        <v>0</v>
+      </c>
+      <c r="C56" s="11">
+        <v>0</v>
+      </c>
+      <c r="D56" s="11">
+        <v>0</v>
+      </c>
+      <c r="E56" s="11">
+        <v>0</v>
+      </c>
+      <c r="F56" s="11">
+        <v>0</v>
+      </c>
+      <c r="G56" s="11">
         <v>6.2111801242236021E-3</v>
       </c>
-      <c r="H56" s="13">
-        <v>0</v>
-      </c>
-      <c r="I56" s="13">
-        <v>0</v>
-      </c>
-      <c r="J56" s="13">
+      <c r="H56" s="11">
+        <v>0</v>
+      </c>
+      <c r="I56" s="11">
+        <v>0</v>
+      </c>
+      <c r="J56" s="11">
         <v>6.2111801242236021E-3</v>
       </c>
     </row>
@@ -6965,31 +6899,31 @@
       <c r="A57" s="8" t="s">
         <v>5</v>
       </c>
-      <c r="B57" s="13">
-        <v>0</v>
-      </c>
-      <c r="C57" s="13">
-        <v>0</v>
-      </c>
-      <c r="D57" s="13">
+      <c r="B57" s="11">
+        <v>0</v>
+      </c>
+      <c r="C57" s="11">
+        <v>0</v>
+      </c>
+      <c r="D57" s="11">
         <v>6.2111801242236021E-3</v>
       </c>
-      <c r="E57" s="13">
-        <v>0</v>
-      </c>
-      <c r="F57" s="13">
+      <c r="E57" s="11">
+        <v>0</v>
+      </c>
+      <c r="F57" s="11">
         <v>6.2111801242236021E-3</v>
       </c>
-      <c r="G57" s="13">
+      <c r="G57" s="11">
         <v>6.2111801242236021E-3</v>
       </c>
-      <c r="H57" s="13">
-        <v>0</v>
-      </c>
-      <c r="I57" s="13">
-        <v>0</v>
-      </c>
-      <c r="J57" s="13">
+      <c r="H57" s="11">
+        <v>0</v>
+      </c>
+      <c r="I57" s="11">
+        <v>0</v>
+      </c>
+      <c r="J57" s="11">
         <v>1.8633540372670808E-2</v>
       </c>
     </row>
@@ -6997,31 +6931,31 @@
       <c r="A58" s="8" t="s">
         <v>37</v>
       </c>
-      <c r="B58" s="13">
-        <v>0</v>
-      </c>
-      <c r="C58" s="13">
-        <v>0</v>
-      </c>
-      <c r="D58" s="13">
-        <v>0</v>
-      </c>
-      <c r="E58" s="13">
-        <v>0</v>
-      </c>
-      <c r="F58" s="13">
+      <c r="B58" s="11">
+        <v>0</v>
+      </c>
+      <c r="C58" s="11">
+        <v>0</v>
+      </c>
+      <c r="D58" s="11">
+        <v>0</v>
+      </c>
+      <c r="E58" s="11">
+        <v>0</v>
+      </c>
+      <c r="F58" s="11">
         <v>6.2111801242236021E-3</v>
       </c>
-      <c r="G58" s="13">
+      <c r="G58" s="11">
         <v>6.2111801242236021E-3</v>
       </c>
-      <c r="H58" s="13">
-        <v>0</v>
-      </c>
-      <c r="I58" s="13">
-        <v>0</v>
-      </c>
-      <c r="J58" s="13">
+      <c r="H58" s="11">
+        <v>0</v>
+      </c>
+      <c r="I58" s="11">
+        <v>0</v>
+      </c>
+      <c r="J58" s="11">
         <v>1.2422360248447204E-2</v>
       </c>
     </row>
@@ -7029,31 +6963,31 @@
       <c r="A59" s="8" t="s">
         <v>15</v>
       </c>
-      <c r="B59" s="13">
-        <v>0</v>
-      </c>
-      <c r="C59" s="13">
-        <v>0</v>
-      </c>
-      <c r="D59" s="13">
-        <v>0</v>
-      </c>
-      <c r="E59" s="13">
+      <c r="B59" s="11">
+        <v>0</v>
+      </c>
+      <c r="C59" s="11">
+        <v>0</v>
+      </c>
+      <c r="D59" s="11">
+        <v>0</v>
+      </c>
+      <c r="E59" s="11">
         <v>6.2111801242236021E-3</v>
       </c>
-      <c r="F59" s="13">
-        <v>0</v>
-      </c>
-      <c r="G59" s="13">
-        <v>0</v>
-      </c>
-      <c r="H59" s="13">
-        <v>0</v>
-      </c>
-      <c r="I59" s="13">
-        <v>0</v>
-      </c>
-      <c r="J59" s="13">
+      <c r="F59" s="11">
+        <v>0</v>
+      </c>
+      <c r="G59" s="11">
+        <v>0</v>
+      </c>
+      <c r="H59" s="11">
+        <v>0</v>
+      </c>
+      <c r="I59" s="11">
+        <v>0</v>
+      </c>
+      <c r="J59" s="11">
         <v>6.2111801242236021E-3</v>
       </c>
     </row>
@@ -7061,31 +6995,31 @@
       <c r="A60" s="8" t="s">
         <v>25</v>
       </c>
-      <c r="B60" s="13">
-        <v>0</v>
-      </c>
-      <c r="C60" s="13">
-        <v>0</v>
-      </c>
-      <c r="D60" s="13">
-        <v>0</v>
-      </c>
-      <c r="E60" s="13">
-        <v>0</v>
-      </c>
-      <c r="F60" s="13">
-        <v>0</v>
-      </c>
-      <c r="G60" s="13">
-        <v>0</v>
-      </c>
-      <c r="H60" s="13">
-        <v>0</v>
-      </c>
-      <c r="I60" s="13">
-        <v>0</v>
-      </c>
-      <c r="J60" s="13">
+      <c r="B60" s="11">
+        <v>0</v>
+      </c>
+      <c r="C60" s="11">
+        <v>0</v>
+      </c>
+      <c r="D60" s="11">
+        <v>0</v>
+      </c>
+      <c r="E60" s="11">
+        <v>0</v>
+      </c>
+      <c r="F60" s="11">
+        <v>0</v>
+      </c>
+      <c r="G60" s="11">
+        <v>0</v>
+      </c>
+      <c r="H60" s="11">
+        <v>0</v>
+      </c>
+      <c r="I60" s="11">
+        <v>0</v>
+      </c>
+      <c r="J60" s="11">
         <v>0</v>
       </c>
     </row>
@@ -7093,31 +7027,31 @@
       <c r="A61" s="8" t="s">
         <v>26</v>
       </c>
-      <c r="B61" s="13">
+      <c r="B61" s="11">
         <v>8.6956521739130432E-2</v>
       </c>
-      <c r="C61" s="13">
+      <c r="C61" s="11">
         <v>9.3167701863354033E-2</v>
       </c>
-      <c r="D61" s="13">
+      <c r="D61" s="11">
         <v>0.16770186335403728</v>
       </c>
-      <c r="E61" s="13">
+      <c r="E61" s="11">
         <v>0.18633540372670807</v>
       </c>
-      <c r="F61" s="13">
+      <c r="F61" s="11">
         <v>0.15527950310559005</v>
       </c>
-      <c r="G61" s="13">
+      <c r="G61" s="11">
         <v>0.15527950310559005</v>
       </c>
-      <c r="H61" s="13">
+      <c r="H61" s="11">
         <v>0.15527950310559005</v>
       </c>
-      <c r="I61" s="13">
-        <v>0</v>
-      </c>
-      <c r="J61" s="13">
+      <c r="I61" s="11">
+        <v>0</v>
+      </c>
+      <c r="J61" s="11">
         <v>1</v>
       </c>
     </row>
@@ -7137,8 +7071,8 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="7" max="7" width="11.1796875" style="13" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="11.1796875" style="19" customWidth="1"/>
+    <col min="7" max="7" width="11.1796875" style="11" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="11.1796875" style="17" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="2" spans="2:9" x14ac:dyDescent="0.35">
@@ -7148,7 +7082,7 @@
       <c r="G2" s="1" t="s">
         <v>50</v>
       </c>
-      <c r="H2" s="20" t="s">
+      <c r="H2" s="18" t="s">
         <v>51</v>
       </c>
     </row>
@@ -7156,10 +7090,10 @@
       <c r="B3" s="8" t="s">
         <v>30</v>
       </c>
-      <c r="G3" s="13">
+      <c r="G3" s="11">
         <v>3.105590062111801E-3</v>
       </c>
-      <c r="H3" s="19">
+      <c r="H3" s="17">
         <v>0</v>
       </c>
     </row>
@@ -7167,358 +7101,358 @@
       <c r="B4" s="8" t="s">
         <v>3</v>
       </c>
-      <c r="G4" s="13">
+      <c r="G4" s="11">
         <v>0.32919999999999999</v>
       </c>
-      <c r="H4" s="19">
+      <c r="H4" s="17">
         <v>0.17299999999999999</v>
       </c>
-      <c r="I4" s="13"/>
+      <c r="I4" s="11"/>
     </row>
     <row r="5" spans="2:9" x14ac:dyDescent="0.35">
       <c r="B5" s="8" t="s">
         <v>42</v>
       </c>
-      <c r="G5" s="13">
-        <v>0</v>
-      </c>
-      <c r="H5" s="19">
+      <c r="G5" s="11">
+        <v>0</v>
+      </c>
+      <c r="H5" s="17">
         <v>6.0000000000000001E-3</v>
       </c>
-      <c r="I5" s="13"/>
+      <c r="I5" s="11"/>
     </row>
     <row r="6" spans="2:9" x14ac:dyDescent="0.35">
       <c r="B6" s="8" t="s">
         <v>32</v>
       </c>
-      <c r="G6" s="13">
+      <c r="G6" s="11">
         <v>6.1999999999999998E-3</v>
       </c>
-      <c r="H6" s="19">
-        <v>0</v>
-      </c>
-      <c r="I6" s="13"/>
+      <c r="H6" s="17">
+        <v>0</v>
+      </c>
+      <c r="I6" s="11"/>
     </row>
     <row r="7" spans="2:9" x14ac:dyDescent="0.35">
       <c r="B7" s="8" t="s">
         <v>43</v>
       </c>
-      <c r="G7" s="13">
-        <v>0</v>
-      </c>
-      <c r="H7" s="19">
+      <c r="G7" s="11">
+        <v>0</v>
+      </c>
+      <c r="H7" s="17">
         <v>6.0000000000000001E-3</v>
       </c>
-      <c r="I7" s="13"/>
+      <c r="I7" s="11"/>
     </row>
     <row r="8" spans="2:9" x14ac:dyDescent="0.35">
       <c r="B8" s="8" t="s">
         <v>44</v>
       </c>
-      <c r="G8" s="13">
-        <v>0</v>
-      </c>
-      <c r="H8" s="19">
+      <c r="G8" s="11">
+        <v>0</v>
+      </c>
+      <c r="H8" s="17">
         <v>6.0000000000000001E-3</v>
       </c>
-      <c r="I8" s="13"/>
+      <c r="I8" s="11"/>
     </row>
     <row r="9" spans="2:9" x14ac:dyDescent="0.35">
       <c r="B9" s="8" t="s">
         <v>36</v>
       </c>
-      <c r="G9" s="13">
+      <c r="G9" s="11">
         <v>6.0000000000000001E-3</v>
       </c>
-      <c r="H9" s="19">
+      <c r="H9" s="17">
         <v>6.0000000000000001E-3</v>
       </c>
-      <c r="I9" s="13"/>
+      <c r="I9" s="11"/>
     </row>
     <row r="10" spans="2:9" x14ac:dyDescent="0.35">
       <c r="B10" s="8" t="s">
         <v>2</v>
       </c>
-      <c r="G10" s="13">
+      <c r="G10" s="11">
         <v>0.22359999999999999</v>
       </c>
-      <c r="H10" s="19">
+      <c r="H10" s="17">
         <v>0.21</v>
       </c>
-      <c r="I10" s="13"/>
+      <c r="I10" s="11"/>
     </row>
     <row r="11" spans="2:9" x14ac:dyDescent="0.35">
       <c r="B11" s="8" t="s">
         <v>45</v>
       </c>
-      <c r="G11" s="13">
-        <v>0</v>
-      </c>
-      <c r="H11" s="19">
+      <c r="G11" s="11">
+        <v>0</v>
+      </c>
+      <c r="H11" s="17">
         <v>6.0000000000000001E-3</v>
       </c>
-      <c r="I11" s="13"/>
+      <c r="I11" s="11"/>
     </row>
     <row r="12" spans="2:9" x14ac:dyDescent="0.35">
       <c r="B12" s="8" t="s">
         <v>46</v>
       </c>
-      <c r="G12" s="13">
-        <v>0</v>
-      </c>
-      <c r="H12" s="19">
+      <c r="G12" s="11">
+        <v>0</v>
+      </c>
+      <c r="H12" s="17">
         <v>6.0000000000000001E-3</v>
       </c>
-      <c r="I12" s="13"/>
+      <c r="I12" s="11"/>
     </row>
     <row r="13" spans="2:9" x14ac:dyDescent="0.35">
       <c r="B13" s="8" t="s">
         <v>35</v>
       </c>
-      <c r="G13" s="13">
+      <c r="G13" s="11">
         <v>6.8400000000000002E-2</v>
       </c>
-      <c r="H13" s="19">
+      <c r="H13" s="17">
         <v>0.03</v>
       </c>
-      <c r="I13" s="13"/>
+      <c r="I13" s="11"/>
     </row>
     <row r="14" spans="2:9" x14ac:dyDescent="0.35">
       <c r="B14" s="8" t="s">
         <v>7</v>
       </c>
-      <c r="G14" s="13">
+      <c r="G14" s="11">
         <v>6.1999999999999998E-3</v>
       </c>
-      <c r="H14" s="19">
+      <c r="H14" s="17">
         <v>6.1999999999999998E-3</v>
       </c>
-      <c r="I14" s="13"/>
+      <c r="I14" s="11"/>
     </row>
     <row r="15" spans="2:9" x14ac:dyDescent="0.35">
       <c r="B15" s="8" t="s">
         <v>12</v>
       </c>
-      <c r="G15" s="13">
+      <c r="G15" s="11">
         <v>0.1429</v>
       </c>
-      <c r="H15" s="19">
+      <c r="H15" s="17">
         <v>1.2E-2</v>
       </c>
-      <c r="I15" s="13"/>
+      <c r="I15" s="11"/>
     </row>
     <row r="16" spans="2:9" x14ac:dyDescent="0.35">
       <c r="B16" s="8" t="s">
         <v>31</v>
       </c>
-      <c r="G16" s="13">
+      <c r="G16" s="11">
         <v>2.4799999999999999E-2</v>
       </c>
-      <c r="H16" s="19">
-        <v>0</v>
-      </c>
-      <c r="I16" s="13"/>
+      <c r="H16" s="17">
+        <v>0</v>
+      </c>
+      <c r="I16" s="11"/>
     </row>
     <row r="17" spans="2:9" x14ac:dyDescent="0.35">
       <c r="B17" s="8" t="s">
         <v>38</v>
       </c>
-      <c r="G17" s="13">
+      <c r="G17" s="11">
         <v>1.8599999999999998E-2</v>
       </c>
-      <c r="H17" s="19">
-        <v>0</v>
-      </c>
-      <c r="I17" s="13"/>
+      <c r="H17" s="17">
+        <v>0</v>
+      </c>
+      <c r="I17" s="11"/>
     </row>
     <row r="18" spans="2:9" x14ac:dyDescent="0.35">
       <c r="B18" s="8" t="s">
         <v>13</v>
       </c>
-      <c r="G18" s="13">
+      <c r="G18" s="11">
         <v>1.24E-2</v>
       </c>
-      <c r="H18" s="19">
+      <c r="H18" s="17">
         <v>6.0000000000000001E-3</v>
       </c>
-      <c r="I18" s="13"/>
+      <c r="I18" s="11"/>
     </row>
     <row r="19" spans="2:9" x14ac:dyDescent="0.35">
       <c r="B19" s="8" t="s">
         <v>6</v>
       </c>
-      <c r="G19" s="13">
-        <v>0</v>
-      </c>
-      <c r="H19" s="19">
+      <c r="G19" s="11">
+        <v>0</v>
+      </c>
+      <c r="H19" s="17">
         <v>6.0000000000000001E-3</v>
       </c>
-      <c r="I19" s="13"/>
+      <c r="I19" s="11"/>
     </row>
     <row r="20" spans="2:9" x14ac:dyDescent="0.35">
       <c r="B20" s="8" t="s">
         <v>33</v>
       </c>
-      <c r="G20" s="13">
+      <c r="G20" s="11">
         <v>1.8599999999999998E-2</v>
       </c>
-      <c r="H20" s="19">
-        <v>0</v>
-      </c>
-      <c r="I20" s="13"/>
+      <c r="H20" s="17">
+        <v>0</v>
+      </c>
+      <c r="I20" s="11"/>
     </row>
     <row r="21" spans="2:9" x14ac:dyDescent="0.35">
       <c r="B21" s="8" t="s">
         <v>34</v>
       </c>
-      <c r="G21" s="13">
+      <c r="G21" s="11">
         <v>1.8599999999999998E-2</v>
       </c>
-      <c r="H21" s="19">
-        <v>0</v>
-      </c>
-      <c r="I21" s="13"/>
+      <c r="H21" s="17">
+        <v>0</v>
+      </c>
+      <c r="I21" s="11"/>
     </row>
     <row r="22" spans="2:9" x14ac:dyDescent="0.35">
       <c r="B22" s="8" t="s">
         <v>47</v>
       </c>
-      <c r="G22" s="13">
-        <v>0</v>
-      </c>
-      <c r="H22" s="19">
+      <c r="G22" s="11">
+        <v>0</v>
+      </c>
+      <c r="H22" s="17">
         <v>6.0000000000000001E-3</v>
       </c>
-      <c r="I22" s="13"/>
+      <c r="I22" s="11"/>
     </row>
     <row r="23" spans="2:9" x14ac:dyDescent="0.35">
       <c r="B23" s="8" t="s">
         <v>10</v>
       </c>
-      <c r="G23" s="13">
-        <v>0</v>
-      </c>
-      <c r="H23" s="19">
+      <c r="G23" s="11">
+        <v>0</v>
+      </c>
+      <c r="H23" s="17">
         <v>1.7999999999999999E-2</v>
       </c>
-      <c r="I23" s="13"/>
+      <c r="I23" s="11"/>
     </row>
     <row r="24" spans="2:9" x14ac:dyDescent="0.35">
       <c r="B24" s="8" t="s">
         <v>41</v>
       </c>
-      <c r="G24" s="13">
+      <c r="G24" s="11">
         <v>1.24E-2</v>
       </c>
-      <c r="H24" s="19">
-        <v>0</v>
-      </c>
-      <c r="I24" s="13"/>
+      <c r="H24" s="17">
+        <v>0</v>
+      </c>
+      <c r="I24" s="11"/>
     </row>
     <row r="25" spans="2:9" x14ac:dyDescent="0.35">
       <c r="B25" s="8" t="s">
         <v>9</v>
       </c>
-      <c r="G25" s="13">
+      <c r="G25" s="11">
         <v>1.24E-2</v>
       </c>
-      <c r="H25" s="19">
+      <c r="H25" s="17">
         <v>6.0000000000000001E-3</v>
       </c>
-      <c r="I25" s="13"/>
+      <c r="I25" s="11"/>
     </row>
     <row r="26" spans="2:9" x14ac:dyDescent="0.35">
       <c r="B26" s="8" t="s">
         <v>8</v>
       </c>
-      <c r="G26" s="13">
+      <c r="G26" s="11">
         <v>1.8599999999999998E-2</v>
       </c>
-      <c r="H26" s="19">
+      <c r="H26" s="17">
         <v>6.0000000000000001E-3</v>
       </c>
-      <c r="I26" s="13"/>
+      <c r="I26" s="11"/>
     </row>
     <row r="27" spans="2:9" x14ac:dyDescent="0.35">
       <c r="B27" s="8" t="s">
         <v>1</v>
       </c>
-      <c r="G27" s="13">
+      <c r="G27" s="11">
         <v>4.3499999999999997E-2</v>
       </c>
-      <c r="H27" s="19">
+      <c r="H27" s="17">
         <v>0.44</v>
       </c>
-      <c r="I27" s="13"/>
+      <c r="I27" s="11"/>
     </row>
     <row r="28" spans="2:9" x14ac:dyDescent="0.35">
       <c r="B28" s="8" t="s">
         <v>39</v>
       </c>
-      <c r="G28" s="13">
+      <c r="G28" s="11">
         <v>6.1999999999999998E-3</v>
       </c>
-      <c r="H28" s="19">
-        <v>0</v>
-      </c>
-      <c r="I28" s="13"/>
+      <c r="H28" s="17">
+        <v>0</v>
+      </c>
+      <c r="I28" s="11"/>
     </row>
     <row r="29" spans="2:9" x14ac:dyDescent="0.35">
       <c r="B29" s="8" t="s">
         <v>23</v>
       </c>
-      <c r="G29" s="13">
+      <c r="G29" s="11">
         <v>6.1999999999999998E-3</v>
       </c>
-      <c r="H29" s="19">
+      <c r="H29" s="17">
         <v>6.0000000000000001E-3</v>
       </c>
-      <c r="I29" s="13"/>
+      <c r="I29" s="11"/>
     </row>
     <row r="30" spans="2:9" x14ac:dyDescent="0.35">
       <c r="B30" s="8" t="s">
         <v>40</v>
       </c>
-      <c r="G30" s="13">
+      <c r="G30" s="11">
         <v>3.105590062111801E-3</v>
       </c>
-      <c r="H30" s="19">
-        <v>0</v>
-      </c>
-      <c r="I30" s="13"/>
+      <c r="H30" s="17">
+        <v>0</v>
+      </c>
+      <c r="I30" s="11"/>
     </row>
     <row r="31" spans="2:9" x14ac:dyDescent="0.35">
       <c r="B31" s="8" t="s">
         <v>49</v>
       </c>
-      <c r="G31" s="13">
+      <c r="G31" s="11">
         <v>1.8599999999999998E-2</v>
       </c>
-      <c r="H31" s="19">
+      <c r="H31" s="17">
         <v>1.7999999999999999E-2</v>
       </c>
-      <c r="I31" s="13"/>
+      <c r="I31" s="11"/>
     </row>
     <row r="32" spans="2:9" x14ac:dyDescent="0.35">
       <c r="B32" s="8" t="s">
         <v>48</v>
       </c>
-      <c r="G32" s="13">
+      <c r="G32" s="11">
         <v>1.8599999999999998E-2</v>
       </c>
-      <c r="H32" s="19">
+      <c r="H32" s="17">
         <v>1.2E-2</v>
       </c>
-      <c r="I32" s="13"/>
+      <c r="I32" s="11"/>
     </row>
     <row r="33" spans="2:7" x14ac:dyDescent="0.35">
-      <c r="B33" s="21"/>
+      <c r="B33" s="19"/>
     </row>
     <row r="34" spans="2:7" x14ac:dyDescent="0.35">
-      <c r="B34" s="21"/>
+      <c r="B34" s="19"/>
     </row>
     <row r="35" spans="2:7" x14ac:dyDescent="0.35">
-      <c r="G35" s="14"/>
+      <c r="G35" s="12"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -7571,7 +7505,7 @@
       <c r="A4" s="8" t="s">
         <v>55</v>
       </c>
-      <c r="B4" s="13">
+      <c r="B4" s="11">
         <v>9.2592592592592587E-3</v>
       </c>
     </row>
@@ -7579,7 +7513,7 @@
       <c r="A5" s="8" t="s">
         <v>3</v>
       </c>
-      <c r="B5" s="13">
+      <c r="B5" s="11">
         <v>0.30555555555555558</v>
       </c>
     </row>
@@ -7587,7 +7521,7 @@
       <c r="A6" s="8" t="s">
         <v>19</v>
       </c>
-      <c r="B6" s="13">
+      <c r="B6" s="11">
         <v>0.30555555555555558</v>
       </c>
     </row>
@@ -7595,7 +7529,7 @@
       <c r="A7" s="8" t="s">
         <v>35</v>
       </c>
-      <c r="B7" s="13">
+      <c r="B7" s="11">
         <v>2.7777777777777776E-2</v>
       </c>
     </row>
@@ -7603,7 +7537,7 @@
       <c r="A8" s="8" t="s">
         <v>12</v>
       </c>
-      <c r="B8" s="13">
+      <c r="B8" s="11">
         <v>0.16666666666666666</v>
       </c>
     </row>
@@ -7611,7 +7545,7 @@
       <c r="A9" s="8" t="s">
         <v>31</v>
       </c>
-      <c r="B9" s="13">
+      <c r="B9" s="11">
         <v>9.2592592592592587E-3</v>
       </c>
     </row>
@@ -7619,7 +7553,7 @@
       <c r="A10" s="8" t="s">
         <v>54</v>
       </c>
-      <c r="B10" s="13">
+      <c r="B10" s="11">
         <v>1.8518518518518517E-2</v>
       </c>
     </row>
@@ -7627,7 +7561,7 @@
       <c r="A11" s="8" t="s">
         <v>56</v>
       </c>
-      <c r="B11" s="13">
+      <c r="B11" s="11">
         <v>4.6296296296296294E-2</v>
       </c>
     </row>
@@ -7635,7 +7569,7 @@
       <c r="A12" s="8" t="s">
         <v>57</v>
       </c>
-      <c r="B12" s="13">
+      <c r="B12" s="11">
         <v>9.2592592592592587E-3</v>
       </c>
     </row>
@@ -7643,7 +7577,7 @@
       <c r="A13" s="8" t="s">
         <v>58</v>
       </c>
-      <c r="B13" s="13">
+      <c r="B13" s="11">
         <v>9.2592592592592587E-3</v>
       </c>
     </row>
@@ -7651,7 +7585,7 @@
       <c r="A14" s="8" t="s">
         <v>53</v>
       </c>
-      <c r="B14" s="13">
+      <c r="B14" s="11">
         <v>7.407407407407407E-2</v>
       </c>
     </row>
@@ -7659,7 +7593,7 @@
       <c r="A15" s="8" t="s">
         <v>59</v>
       </c>
-      <c r="B15" s="13">
+      <c r="B15" s="11">
         <v>1.8518518518518517E-2</v>
       </c>
     </row>
@@ -7667,7 +7601,7 @@
       <c r="A16" s="8" t="s">
         <v>26</v>
       </c>
-      <c r="B16" s="13">
+      <c r="B16" s="11">
         <v>1</v>
       </c>
     </row>
@@ -7792,18 +7726,18 @@
 </file>
 
 <file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement/>
-</p:properties>
-</file>
-
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <?mso-contentType ?>
 <FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
   <Display>DocumentLibraryForm</Display>
   <Edit>DocumentLibraryForm</Edit>
   <New>DocumentLibraryForm</New>
 </FormTemplates>
+</file>
+
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement/>
+</p:properties>
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -7823,18 +7757,18 @@
 </file>
 
 <file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{F6227105-8F26-47EB-9492-DE3558FEFEBF}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{8AEEA1AF-7D96-4923-8C6E-B67EFBBFEF5B}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{F6227105-8F26-47EB-9492-DE3558FEFEBF}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
 </file>